--- a/raw_data/KEEN ONE/Grabowski/2016/Pemaquid/Pemaquid_Site_Info_1_17_17.xlsx
+++ b/raw_data/KEEN ONE/Grabowski/2016/Pemaquid/Pemaquid_Site_Info_1_17_17.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Data Entry" sheetId="1" r:id="rId3"/>
+    <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Team</t>
   </si>
@@ -88,26 +96,6 @@
     <t>5 M</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">53 </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>˚</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>C</t>
-    </r>
-  </si>
-  <si>
     <t>Transect 2</t>
   </si>
   <si>
@@ -129,26 +117,6 @@
     <t>8.53 m</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">53 </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>˚</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>C</t>
-    </r>
-  </si>
-  <si>
     <t>Transect 3</t>
   </si>
   <si>
@@ -158,20 +126,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -180,7 +148,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -189,61 +157,380 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.86"/>
-    <col customWidth="1" min="2" max="2" width="13.43"/>
-    <col customWidth="1" min="3" max="3" width="15.86"/>
-    <col customWidth="1" min="4" max="4" width="9.43"/>
-    <col customWidth="1" min="5" max="6" width="17.0"/>
-    <col customWidth="1" min="7" max="7" width="16.0"/>
-    <col customWidth="1" min="8" max="8" width="15.14"/>
-    <col customWidth="1" min="9" max="9" width="19.43"/>
-    <col customWidth="1" min="10" max="10" width="11.43"/>
-    <col customWidth="1" min="11" max="11" width="11.29"/>
-    <col customWidth="1" min="12" max="12" width="12.43"/>
-    <col customWidth="1" min="13" max="13" width="17.43"/>
-    <col customWidth="1" min="14" max="14" width="12.57"/>
-    <col customWidth="1" min="15" max="26" width="8.86"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="17.5" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -299,7 +586,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -313,7 +600,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="5">
-        <v>42563.0</v>
+        <v>42563</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>18</v>
@@ -336,12 +623,12 @@
       <c r="L2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>25</v>
+      <c r="M2" s="3">
+        <v>11.66</v>
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -352,42 +639,42 @@
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5">
+        <v>42563</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5">
-        <v>42563.0</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>33</v>
+      <c r="M3" s="3">
+        <v>11.66</v>
       </c>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -400,12 +687,12 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -430,7 +717,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -445,7 +732,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -460,7 +747,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -475,7 +762,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -490,7 +777,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:26" ht="12.75" customHeight="1">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -505,7 +792,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -520,7 +807,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -535,7 +822,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -550,7 +837,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -565,7 +852,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:26" ht="12.75" customHeight="1">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -580,7 +867,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:26" ht="12.75" customHeight="1">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -595,7 +882,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="2:14" ht="12.75" customHeight="1">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -610,7 +897,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="2:14" ht="12.75" customHeight="1">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -625,7 +912,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="2:14" ht="12.75" customHeight="1">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -640,7 +927,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="2:14" ht="12.75" customHeight="1">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -655,7 +942,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="2:14" ht="12.75" customHeight="1">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -670,7 +957,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="2:14" ht="12.75" customHeight="1">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -685,7 +972,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="2:14" ht="12.75" customHeight="1">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -700,7 +987,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="2:14" ht="12.75" customHeight="1">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -715,7 +1002,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="2:14" ht="12.75" customHeight="1">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -730,7 +1017,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="2:14" ht="12.75" customHeight="1">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -745,7 +1032,7 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="2:14" ht="12.75" customHeight="1">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -760,7 +1047,7 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="2:14" ht="12.75" customHeight="1">
       <c r="B28" s="3"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -775,7 +1062,7 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="2:14" ht="12.75" customHeight="1">
       <c r="B29" s="3"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -790,7 +1077,7 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="2:14" ht="12.75" customHeight="1">
       <c r="B30" s="3"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -805,7 +1092,7 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="2:14" ht="12.75" customHeight="1">
       <c r="B31" s="3"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -820,7 +1107,7 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="2:14" ht="12.75" customHeight="1">
       <c r="B32" s="3"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -835,7 +1122,7 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="2:14" ht="12.75" customHeight="1">
       <c r="B33" s="3"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -850,7 +1137,7 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="2:14" ht="12.75" customHeight="1">
       <c r="B34" s="3"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -865,7 +1152,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="2:14" ht="12.75" customHeight="1">
       <c r="B35" s="3"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -880,7 +1167,7 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="2:14" ht="12.75" customHeight="1">
       <c r="B36" s="3"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -895,7 +1182,7 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="2:14" ht="12.75" customHeight="1">
       <c r="B37" s="3"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -910,7 +1197,7 @@
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="2:14" ht="12.75" customHeight="1">
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -925,7 +1212,7 @@
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="2:14" ht="12.75" customHeight="1">
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -940,7 +1227,7 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="2:14" ht="12.75" customHeight="1">
       <c r="B40" s="3"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -955,7 +1242,7 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="2:14" ht="12.75" customHeight="1">
       <c r="B41" s="3"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -970,7 +1257,7 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="2:14" ht="12.75" customHeight="1">
       <c r="B42" s="3"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -985,7 +1272,7 @@
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="2:14" ht="12.75" customHeight="1">
       <c r="B43" s="3"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1000,7 +1287,7 @@
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="2:14" ht="12.75" customHeight="1">
       <c r="B44" s="3"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1015,7 +1302,7 @@
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="2:14" ht="12.75" customHeight="1">
       <c r="B45" s="3"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1030,7 +1317,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="2:14" ht="12.75" customHeight="1">
       <c r="B46" s="3"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1045,7 +1332,7 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="2:14" ht="12.75" customHeight="1">
       <c r="B47" s="3"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -1060,7 +1347,7 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="2:14" ht="12.75" customHeight="1">
       <c r="B48" s="3"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1075,7 +1362,7 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="2:14" ht="12.75" customHeight="1">
       <c r="B49" s="3"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1090,7 +1377,7 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="2:14" ht="12.75" customHeight="1">
       <c r="B50" s="3"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -1105,7 +1392,7 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="2:14" ht="12.75" customHeight="1">
       <c r="B51" s="3"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1120,7 +1407,7 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="2:14" ht="12.75" customHeight="1">
       <c r="B52" s="3"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1135,7 +1422,7 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="2:14" ht="12.75" customHeight="1">
       <c r="B53" s="3"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1150,7 +1437,7 @@
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="2:14" ht="12.75" customHeight="1">
       <c r="B54" s="3"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1165,7 +1452,7 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="2:14" ht="12.75" customHeight="1">
       <c r="B55" s="3"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1180,7 +1467,7 @@
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="2:14" ht="12.75" customHeight="1">
       <c r="B56" s="3"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1195,7 +1482,7 @@
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="2:14" ht="12.75" customHeight="1">
       <c r="B57" s="3"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1210,7 +1497,7 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="2:14" ht="12.75" customHeight="1">
       <c r="B58" s="3"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1225,7 +1512,7 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="2:14" ht="12.75" customHeight="1">
       <c r="B59" s="3"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -1240,7 +1527,7 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="2:14" ht="12.75" customHeight="1">
       <c r="B60" s="3"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1255,7 +1542,7 @@
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="2:14" ht="12.75" customHeight="1">
       <c r="B61" s="3"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -1270,7 +1557,7 @@
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" spans="2:14" ht="12.75" customHeight="1">
       <c r="B62" s="3"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1285,7 +1572,7 @@
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="2:14" ht="12.75" customHeight="1">
       <c r="B63" s="3"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -1300,7 +1587,7 @@
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" spans="2:14" ht="12.75" customHeight="1">
       <c r="B64" s="3"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -1315,7 +1602,7 @@
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="2:14" ht="12.75" customHeight="1">
       <c r="B65" s="3"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -1330,7 +1617,7 @@
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="2:14" ht="12.75" customHeight="1">
       <c r="B66" s="3"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -1345,7 +1632,7 @@
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" spans="2:14" ht="12.75" customHeight="1">
       <c r="B67" s="3"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1360,7 +1647,7 @@
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="2:14" ht="12.75" customHeight="1">
       <c r="B68" s="3"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -1375,7 +1662,7 @@
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" spans="2:14" ht="12.75" customHeight="1">
       <c r="B69" s="3"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1390,7 +1677,7 @@
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" spans="2:14" ht="12.75" customHeight="1">
       <c r="B70" s="3"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -1405,7 +1692,7 @@
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="2:14" ht="12.75" customHeight="1">
       <c r="B71" s="3"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -1420,7 +1707,7 @@
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" spans="2:14" ht="12.75" customHeight="1">
       <c r="B72" s="3"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -1435,7 +1722,7 @@
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="2:14" ht="12.75" customHeight="1">
       <c r="B73" s="3"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -1450,7 +1737,7 @@
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="2:14" ht="12.75" customHeight="1">
       <c r="B74" s="3"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -1465,7 +1752,7 @@
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="2:14" ht="12.75" customHeight="1">
       <c r="B75" s="3"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -1480,7 +1767,7 @@
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" spans="2:14" ht="12.75" customHeight="1">
       <c r="B76" s="3"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -1495,7 +1782,7 @@
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" spans="2:14" ht="12.75" customHeight="1">
       <c r="B77" s="3"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -1510,7 +1797,7 @@
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="2:14" ht="12.75" customHeight="1">
       <c r="B78" s="3"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -1525,7 +1812,7 @@
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" spans="2:14" ht="12.75" customHeight="1">
       <c r="B79" s="3"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -1540,7 +1827,7 @@
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" spans="2:14" ht="12.75" customHeight="1">
       <c r="B80" s="3"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -1555,7 +1842,7 @@
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" spans="2:14" ht="12.75" customHeight="1">
       <c r="B81" s="3"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -1570,7 +1857,7 @@
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
+    <row r="82" spans="2:14" ht="12.75" customHeight="1">
       <c r="B82" s="3"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -1585,7 +1872,7 @@
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
+    <row r="83" spans="2:14" ht="12.75" customHeight="1">
       <c r="B83" s="3"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -1600,7 +1887,7 @@
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
+    <row r="84" spans="2:14" ht="12.75" customHeight="1">
       <c r="B84" s="3"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -1615,7 +1902,7 @@
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
+    <row r="85" spans="2:14" ht="12.75" customHeight="1">
       <c r="B85" s="3"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -1630,7 +1917,7 @@
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
+    <row r="86" spans="2:14" ht="12.75" customHeight="1">
       <c r="B86" s="3"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -1645,7 +1932,7 @@
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
+    <row r="87" spans="2:14" ht="12.75" customHeight="1">
       <c r="B87" s="3"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -1660,7 +1947,7 @@
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
+    <row r="88" spans="2:14" ht="12.75" customHeight="1">
       <c r="B88" s="3"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -1675,7 +1962,7 @@
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
+    <row r="89" spans="2:14" ht="12.75" customHeight="1">
       <c r="B89" s="3"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -1690,7 +1977,7 @@
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
+    <row r="90" spans="2:14" ht="12.75" customHeight="1">
       <c r="B90" s="3"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -1705,7 +1992,7 @@
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
+    <row r="91" spans="2:14" ht="12.75" customHeight="1">
       <c r="B91" s="3"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -1720,7 +2007,7 @@
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
+    <row r="92" spans="2:14" ht="12.75" customHeight="1">
       <c r="B92" s="3"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -1735,7 +2022,7 @@
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
+    <row r="93" spans="2:14" ht="12.75" customHeight="1">
       <c r="B93" s="3"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -1750,7 +2037,7 @@
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
+    <row r="94" spans="2:14" ht="12.75" customHeight="1">
       <c r="B94" s="3"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -1765,7 +2052,7 @@
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
+    <row r="95" spans="2:14" ht="12.75" customHeight="1">
       <c r="B95" s="3"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -1780,7 +2067,7 @@
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
+    <row r="96" spans="2:14" ht="12.75" customHeight="1">
       <c r="B96" s="3"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -1795,7 +2082,7 @@
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
+    <row r="97" spans="2:14" ht="12.75" customHeight="1">
       <c r="B97" s="3"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -1810,7 +2097,7 @@
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
+    <row r="98" spans="2:14" ht="12.75" customHeight="1">
       <c r="B98" s="3"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -1825,7 +2112,7 @@
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
+    <row r="99" spans="2:14" ht="12.75" customHeight="1">
       <c r="B99" s="3"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -1840,7 +2127,7 @@
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
+    <row r="100" spans="2:14" ht="12.75" customHeight="1">
       <c r="B100" s="3"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -1855,7 +2142,7 @@
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
+    <row r="101" spans="2:14" ht="12.75" customHeight="1">
       <c r="B101" s="3"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -1870,7 +2157,7 @@
       <c r="M101" s="6"/>
       <c r="N101" s="6"/>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
+    <row r="102" spans="2:14" ht="12.75" customHeight="1">
       <c r="B102" s="3"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -1885,7 +2172,7 @@
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
+    <row r="103" spans="2:14" ht="12.75" customHeight="1">
       <c r="B103" s="3"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -1900,7 +2187,7 @@
       <c r="M103" s="6"/>
       <c r="N103" s="6"/>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
+    <row r="104" spans="2:14" ht="12.75" customHeight="1">
       <c r="B104" s="3"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -1915,7 +2202,7 @@
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
+    <row r="105" spans="2:14" ht="12.75" customHeight="1">
       <c r="B105" s="3"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -1930,7 +2217,7 @@
       <c r="M105" s="6"/>
       <c r="N105" s="6"/>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
+    <row r="106" spans="2:14" ht="12.75" customHeight="1">
       <c r="B106" s="3"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -1945,7 +2232,7 @@
       <c r="M106" s="6"/>
       <c r="N106" s="6"/>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
+    <row r="107" spans="2:14" ht="12.75" customHeight="1">
       <c r="B107" s="3"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -1960,7 +2247,7 @@
       <c r="M107" s="6"/>
       <c r="N107" s="6"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
+    <row r="108" spans="2:14" ht="12.75" customHeight="1">
       <c r="B108" s="3"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -1975,7 +2262,7 @@
       <c r="M108" s="6"/>
       <c r="N108" s="6"/>
     </row>
-    <row r="109" ht="12.75" customHeight="1">
+    <row r="109" spans="2:14" ht="12.75" customHeight="1">
       <c r="B109" s="3"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -1990,7 +2277,7 @@
       <c r="M109" s="6"/>
       <c r="N109" s="6"/>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
+    <row r="110" spans="2:14" ht="12.75" customHeight="1">
       <c r="B110" s="3"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -2005,7 +2292,7 @@
       <c r="M110" s="6"/>
       <c r="N110" s="6"/>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
+    <row r="111" spans="2:14" ht="12.75" customHeight="1">
       <c r="B111" s="3"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -2020,7 +2307,7 @@
       <c r="M111" s="6"/>
       <c r="N111" s="6"/>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
+    <row r="112" spans="2:14" ht="12.75" customHeight="1">
       <c r="B112" s="3"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -2035,7 +2322,7 @@
       <c r="M112" s="6"/>
       <c r="N112" s="6"/>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
+    <row r="113" spans="2:14" ht="12.75" customHeight="1">
       <c r="B113" s="3"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -2050,7 +2337,7 @@
       <c r="M113" s="6"/>
       <c r="N113" s="6"/>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
+    <row r="114" spans="2:14" ht="12.75" customHeight="1">
       <c r="B114" s="3"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -2065,7 +2352,7 @@
       <c r="M114" s="6"/>
       <c r="N114" s="6"/>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
+    <row r="115" spans="2:14" ht="12.75" customHeight="1">
       <c r="B115" s="3"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2080,7 +2367,7 @@
       <c r="M115" s="6"/>
       <c r="N115" s="6"/>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
+    <row r="116" spans="2:14" ht="12.75" customHeight="1">
       <c r="B116" s="3"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -2095,7 +2382,7 @@
       <c r="M116" s="6"/>
       <c r="N116" s="6"/>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
+    <row r="117" spans="2:14" ht="12.75" customHeight="1">
       <c r="B117" s="3"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -2110,7 +2397,7 @@
       <c r="M117" s="6"/>
       <c r="N117" s="6"/>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
+    <row r="118" spans="2:14" ht="12.75" customHeight="1">
       <c r="B118" s="3"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -2125,7 +2412,7 @@
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
+    <row r="119" spans="2:14" ht="12.75" customHeight="1">
       <c r="B119" s="3"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -2140,7 +2427,7 @@
       <c r="M119" s="6"/>
       <c r="N119" s="6"/>
     </row>
-    <row r="120" ht="12.75" customHeight="1">
+    <row r="120" spans="2:14" ht="12.75" customHeight="1">
       <c r="B120" s="3"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -2155,7 +2442,7 @@
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
+    <row r="121" spans="2:14" ht="12.75" customHeight="1">
       <c r="B121" s="3"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -2170,7 +2457,7 @@
       <c r="M121" s="6"/>
       <c r="N121" s="6"/>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
+    <row r="122" spans="2:14" ht="12.75" customHeight="1">
       <c r="B122" s="3"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -2185,7 +2472,7 @@
       <c r="M122" s="6"/>
       <c r="N122" s="6"/>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
+    <row r="123" spans="2:14" ht="12.75" customHeight="1">
       <c r="B123" s="3"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -2200,7 +2487,7 @@
       <c r="M123" s="6"/>
       <c r="N123" s="6"/>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
+    <row r="124" spans="2:14" ht="12.75" customHeight="1">
       <c r="B124" s="3"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -2215,7 +2502,7 @@
       <c r="M124" s="6"/>
       <c r="N124" s="6"/>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
+    <row r="125" spans="2:14" ht="12.75" customHeight="1">
       <c r="B125" s="3"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -2230,7 +2517,7 @@
       <c r="M125" s="6"/>
       <c r="N125" s="6"/>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
+    <row r="126" spans="2:14" ht="12.75" customHeight="1">
       <c r="B126" s="3"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -2245,7 +2532,7 @@
       <c r="M126" s="6"/>
       <c r="N126" s="6"/>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
+    <row r="127" spans="2:14" ht="12.75" customHeight="1">
       <c r="B127" s="3"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -2260,7 +2547,7 @@
       <c r="M127" s="6"/>
       <c r="N127" s="6"/>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
+    <row r="128" spans="2:14" ht="12.75" customHeight="1">
       <c r="B128" s="3"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -2275,7 +2562,7 @@
       <c r="M128" s="6"/>
       <c r="N128" s="6"/>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
+    <row r="129" spans="2:14" ht="12.75" customHeight="1">
       <c r="B129" s="3"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -2290,7 +2577,7 @@
       <c r="M129" s="6"/>
       <c r="N129" s="6"/>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
+    <row r="130" spans="2:14" ht="12.75" customHeight="1">
       <c r="B130" s="3"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -2305,7 +2592,7 @@
       <c r="M130" s="6"/>
       <c r="N130" s="6"/>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
+    <row r="131" spans="2:14" ht="12.75" customHeight="1">
       <c r="B131" s="3"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -2320,7 +2607,7 @@
       <c r="M131" s="6"/>
       <c r="N131" s="6"/>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
+    <row r="132" spans="2:14" ht="12.75" customHeight="1">
       <c r="B132" s="3"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -2335,7 +2622,7 @@
       <c r="M132" s="6"/>
       <c r="N132" s="6"/>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
+    <row r="133" spans="2:14" ht="12.75" customHeight="1">
       <c r="B133" s="3"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -2350,7 +2637,7 @@
       <c r="M133" s="6"/>
       <c r="N133" s="6"/>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
+    <row r="134" spans="2:14" ht="12.75" customHeight="1">
       <c r="B134" s="3"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -2365,7 +2652,7 @@
       <c r="M134" s="6"/>
       <c r="N134" s="6"/>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
+    <row r="135" spans="2:14" ht="12.75" customHeight="1">
       <c r="B135" s="3"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -2380,7 +2667,7 @@
       <c r="M135" s="6"/>
       <c r="N135" s="6"/>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
+    <row r="136" spans="2:14" ht="12.75" customHeight="1">
       <c r="B136" s="3"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -2395,7 +2682,7 @@
       <c r="M136" s="6"/>
       <c r="N136" s="6"/>
     </row>
-    <row r="137" ht="12.75" customHeight="1">
+    <row r="137" spans="2:14" ht="12.75" customHeight="1">
       <c r="B137" s="3"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -2410,7 +2697,7 @@
       <c r="M137" s="6"/>
       <c r="N137" s="6"/>
     </row>
-    <row r="138" ht="12.75" customHeight="1">
+    <row r="138" spans="2:14" ht="12.75" customHeight="1">
       <c r="B138" s="3"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -2425,7 +2712,7 @@
       <c r="M138" s="6"/>
       <c r="N138" s="6"/>
     </row>
-    <row r="139" ht="12.75" customHeight="1">
+    <row r="139" spans="2:14" ht="12.75" customHeight="1">
       <c r="B139" s="3"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -2440,7 +2727,7 @@
       <c r="M139" s="6"/>
       <c r="N139" s="6"/>
     </row>
-    <row r="140" ht="12.75" customHeight="1">
+    <row r="140" spans="2:14" ht="12.75" customHeight="1">
       <c r="B140" s="3"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -2455,7 +2742,7 @@
       <c r="M140" s="6"/>
       <c r="N140" s="6"/>
     </row>
-    <row r="141" ht="12.75" customHeight="1">
+    <row r="141" spans="2:14" ht="12.75" customHeight="1">
       <c r="B141" s="3"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -2470,7 +2757,7 @@
       <c r="M141" s="6"/>
       <c r="N141" s="6"/>
     </row>
-    <row r="142" ht="12.75" customHeight="1">
+    <row r="142" spans="2:14" ht="12.75" customHeight="1">
       <c r="B142" s="3"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -2485,7 +2772,7 @@
       <c r="M142" s="6"/>
       <c r="N142" s="6"/>
     </row>
-    <row r="143" ht="12.75" customHeight="1">
+    <row r="143" spans="2:14" ht="12.75" customHeight="1">
       <c r="B143" s="3"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -2500,7 +2787,7 @@
       <c r="M143" s="6"/>
       <c r="N143" s="6"/>
     </row>
-    <row r="144" ht="12.75" customHeight="1">
+    <row r="144" spans="2:14" ht="12.75" customHeight="1">
       <c r="B144" s="3"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -2515,7 +2802,7 @@
       <c r="M144" s="6"/>
       <c r="N144" s="6"/>
     </row>
-    <row r="145" ht="12.75" customHeight="1">
+    <row r="145" spans="2:14" ht="12.75" customHeight="1">
       <c r="B145" s="3"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -2530,7 +2817,7 @@
       <c r="M145" s="6"/>
       <c r="N145" s="6"/>
     </row>
-    <row r="146" ht="12.75" customHeight="1">
+    <row r="146" spans="2:14" ht="12.75" customHeight="1">
       <c r="B146" s="3"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -2545,7 +2832,7 @@
       <c r="M146" s="6"/>
       <c r="N146" s="6"/>
     </row>
-    <row r="147" ht="12.75" customHeight="1">
+    <row r="147" spans="2:14" ht="12.75" customHeight="1">
       <c r="B147" s="3"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -2560,7 +2847,7 @@
       <c r="M147" s="6"/>
       <c r="N147" s="6"/>
     </row>
-    <row r="148" ht="12.75" customHeight="1">
+    <row r="148" spans="2:14" ht="12.75" customHeight="1">
       <c r="B148" s="3"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -2575,7 +2862,7 @@
       <c r="M148" s="6"/>
       <c r="N148" s="6"/>
     </row>
-    <row r="149" ht="12.75" customHeight="1">
+    <row r="149" spans="2:14" ht="12.75" customHeight="1">
       <c r="B149" s="3"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -2590,7 +2877,7 @@
       <c r="M149" s="6"/>
       <c r="N149" s="6"/>
     </row>
-    <row r="150" ht="12.75" customHeight="1">
+    <row r="150" spans="2:14" ht="12.75" customHeight="1">
       <c r="B150" s="3"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -2605,7 +2892,7 @@
       <c r="M150" s="6"/>
       <c r="N150" s="6"/>
     </row>
-    <row r="151" ht="12.75" customHeight="1">
+    <row r="151" spans="2:14" ht="12.75" customHeight="1">
       <c r="B151" s="3"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -2620,7 +2907,7 @@
       <c r="M151" s="6"/>
       <c r="N151" s="6"/>
     </row>
-    <row r="152" ht="12.75" customHeight="1">
+    <row r="152" spans="2:14" ht="12.75" customHeight="1">
       <c r="B152" s="3"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -2635,7 +2922,7 @@
       <c r="M152" s="6"/>
       <c r="N152" s="6"/>
     </row>
-    <row r="153" ht="12.75" customHeight="1">
+    <row r="153" spans="2:14" ht="12.75" customHeight="1">
       <c r="B153" s="3"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -2650,7 +2937,7 @@
       <c r="M153" s="6"/>
       <c r="N153" s="6"/>
     </row>
-    <row r="154" ht="12.75" customHeight="1">
+    <row r="154" spans="2:14" ht="12.75" customHeight="1">
       <c r="B154" s="3"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -2665,7 +2952,7 @@
       <c r="M154" s="6"/>
       <c r="N154" s="6"/>
     </row>
-    <row r="155" ht="12.75" customHeight="1">
+    <row r="155" spans="2:14" ht="12.75" customHeight="1">
       <c r="B155" s="3"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -2680,7 +2967,7 @@
       <c r="M155" s="6"/>
       <c r="N155" s="6"/>
     </row>
-    <row r="156" ht="12.75" customHeight="1">
+    <row r="156" spans="2:14" ht="12.75" customHeight="1">
       <c r="B156" s="3"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -2695,7 +2982,7 @@
       <c r="M156" s="6"/>
       <c r="N156" s="6"/>
     </row>
-    <row r="157" ht="12.75" customHeight="1">
+    <row r="157" spans="2:14" ht="12.75" customHeight="1">
       <c r="B157" s="3"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
@@ -2710,7 +2997,7 @@
       <c r="M157" s="6"/>
       <c r="N157" s="6"/>
     </row>
-    <row r="158" ht="12.75" customHeight="1">
+    <row r="158" spans="2:14" ht="12.75" customHeight="1">
       <c r="B158" s="3"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -2725,7 +3012,7 @@
       <c r="M158" s="6"/>
       <c r="N158" s="6"/>
     </row>
-    <row r="159" ht="12.75" customHeight="1">
+    <row r="159" spans="2:14" ht="12.75" customHeight="1">
       <c r="B159" s="3"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -2740,7 +3027,7 @@
       <c r="M159" s="6"/>
       <c r="N159" s="6"/>
     </row>
-    <row r="160" ht="12.75" customHeight="1">
+    <row r="160" spans="2:14" ht="12.75" customHeight="1">
       <c r="B160" s="3"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -2755,7 +3042,7 @@
       <c r="M160" s="6"/>
       <c r="N160" s="6"/>
     </row>
-    <row r="161" ht="12.75" customHeight="1">
+    <row r="161" spans="2:14" ht="12.75" customHeight="1">
       <c r="B161" s="3"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -2770,7 +3057,7 @@
       <c r="M161" s="6"/>
       <c r="N161" s="6"/>
     </row>
-    <row r="162" ht="12.75" customHeight="1">
+    <row r="162" spans="2:14" ht="12.75" customHeight="1">
       <c r="B162" s="3"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -2785,7 +3072,7 @@
       <c r="M162" s="6"/>
       <c r="N162" s="6"/>
     </row>
-    <row r="163" ht="12.75" customHeight="1">
+    <row r="163" spans="2:14" ht="12.75" customHeight="1">
       <c r="B163" s="3"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -2800,7 +3087,7 @@
       <c r="M163" s="6"/>
       <c r="N163" s="6"/>
     </row>
-    <row r="164" ht="12.75" customHeight="1">
+    <row r="164" spans="2:14" ht="12.75" customHeight="1">
       <c r="B164" s="3"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -2815,7 +3102,7 @@
       <c r="M164" s="6"/>
       <c r="N164" s="6"/>
     </row>
-    <row r="165" ht="12.75" customHeight="1">
+    <row r="165" spans="2:14" ht="12.75" customHeight="1">
       <c r="B165" s="3"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -2830,7 +3117,7 @@
       <c r="M165" s="6"/>
       <c r="N165" s="6"/>
     </row>
-    <row r="166" ht="12.75" customHeight="1">
+    <row r="166" spans="2:14" ht="12.75" customHeight="1">
       <c r="B166" s="3"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
@@ -2845,7 +3132,7 @@
       <c r="M166" s="6"/>
       <c r="N166" s="6"/>
     </row>
-    <row r="167" ht="12.75" customHeight="1">
+    <row r="167" spans="2:14" ht="12.75" customHeight="1">
       <c r="B167" s="3"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -2860,7 +3147,7 @@
       <c r="M167" s="6"/>
       <c r="N167" s="6"/>
     </row>
-    <row r="168" ht="12.75" customHeight="1">
+    <row r="168" spans="2:14" ht="12.75" customHeight="1">
       <c r="B168" s="3"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
@@ -2875,7 +3162,7 @@
       <c r="M168" s="6"/>
       <c r="N168" s="6"/>
     </row>
-    <row r="169" ht="12.75" customHeight="1">
+    <row r="169" spans="2:14" ht="12.75" customHeight="1">
       <c r="B169" s="3"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
@@ -2890,7 +3177,7 @@
       <c r="M169" s="6"/>
       <c r="N169" s="6"/>
     </row>
-    <row r="170" ht="12.75" customHeight="1">
+    <row r="170" spans="2:14" ht="12.75" customHeight="1">
       <c r="B170" s="3"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
@@ -2905,7 +3192,7 @@
       <c r="M170" s="6"/>
       <c r="N170" s="6"/>
     </row>
-    <row r="171" ht="12.75" customHeight="1">
+    <row r="171" spans="2:14" ht="12.75" customHeight="1">
       <c r="B171" s="3"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -2920,7 +3207,7 @@
       <c r="M171" s="6"/>
       <c r="N171" s="6"/>
     </row>
-    <row r="172" ht="12.75" customHeight="1">
+    <row r="172" spans="2:14" ht="12.75" customHeight="1">
       <c r="B172" s="3"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
@@ -2935,7 +3222,7 @@
       <c r="M172" s="6"/>
       <c r="N172" s="6"/>
     </row>
-    <row r="173" ht="12.75" customHeight="1">
+    <row r="173" spans="2:14" ht="12.75" customHeight="1">
       <c r="B173" s="3"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -2950,7 +3237,7 @@
       <c r="M173" s="6"/>
       <c r="N173" s="6"/>
     </row>
-    <row r="174" ht="12.75" customHeight="1">
+    <row r="174" spans="2:14" ht="12.75" customHeight="1">
       <c r="B174" s="3"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
@@ -2965,7 +3252,7 @@
       <c r="M174" s="6"/>
       <c r="N174" s="6"/>
     </row>
-    <row r="175" ht="12.75" customHeight="1">
+    <row r="175" spans="2:14" ht="12.75" customHeight="1">
       <c r="B175" s="3"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
@@ -2980,7 +3267,7 @@
       <c r="M175" s="6"/>
       <c r="N175" s="6"/>
     </row>
-    <row r="176" ht="12.75" customHeight="1">
+    <row r="176" spans="2:14" ht="12.75" customHeight="1">
       <c r="B176" s="3"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
@@ -2995,7 +3282,7 @@
       <c r="M176" s="6"/>
       <c r="N176" s="6"/>
     </row>
-    <row r="177" ht="12.75" customHeight="1">
+    <row r="177" spans="2:14" ht="12.75" customHeight="1">
       <c r="B177" s="3"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
@@ -3010,7 +3297,7 @@
       <c r="M177" s="6"/>
       <c r="N177" s="6"/>
     </row>
-    <row r="178" ht="12.75" customHeight="1">
+    <row r="178" spans="2:14" ht="12.75" customHeight="1">
       <c r="B178" s="3"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
@@ -3025,7 +3312,7 @@
       <c r="M178" s="6"/>
       <c r="N178" s="6"/>
     </row>
-    <row r="179" ht="12.75" customHeight="1">
+    <row r="179" spans="2:14" ht="12.75" customHeight="1">
       <c r="B179" s="3"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -3040,7 +3327,7 @@
       <c r="M179" s="6"/>
       <c r="N179" s="6"/>
     </row>
-    <row r="180" ht="12.75" customHeight="1">
+    <row r="180" spans="2:14" ht="12.75" customHeight="1">
       <c r="B180" s="3"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
@@ -3055,7 +3342,7 @@
       <c r="M180" s="6"/>
       <c r="N180" s="6"/>
     </row>
-    <row r="181" ht="12.75" customHeight="1">
+    <row r="181" spans="2:14" ht="12.75" customHeight="1">
       <c r="B181" s="3"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
@@ -3070,7 +3357,7 @@
       <c r="M181" s="6"/>
       <c r="N181" s="6"/>
     </row>
-    <row r="182" ht="12.75" customHeight="1">
+    <row r="182" spans="2:14" ht="12.75" customHeight="1">
       <c r="B182" s="3"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
@@ -3085,7 +3372,7 @@
       <c r="M182" s="6"/>
       <c r="N182" s="6"/>
     </row>
-    <row r="183" ht="12.75" customHeight="1">
+    <row r="183" spans="2:14" ht="12.75" customHeight="1">
       <c r="B183" s="3"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
@@ -3100,7 +3387,7 @@
       <c r="M183" s="6"/>
       <c r="N183" s="6"/>
     </row>
-    <row r="184" ht="12.75" customHeight="1">
+    <row r="184" spans="2:14" ht="12.75" customHeight="1">
       <c r="B184" s="3"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
@@ -3115,7 +3402,7 @@
       <c r="M184" s="6"/>
       <c r="N184" s="6"/>
     </row>
-    <row r="185" ht="12.75" customHeight="1">
+    <row r="185" spans="2:14" ht="12.75" customHeight="1">
       <c r="B185" s="3"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
@@ -3130,7 +3417,7 @@
       <c r="M185" s="6"/>
       <c r="N185" s="6"/>
     </row>
-    <row r="186" ht="12.75" customHeight="1">
+    <row r="186" spans="2:14" ht="12.75" customHeight="1">
       <c r="B186" s="3"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
@@ -3145,7 +3432,7 @@
       <c r="M186" s="6"/>
       <c r="N186" s="6"/>
     </row>
-    <row r="187" ht="12.75" customHeight="1">
+    <row r="187" spans="2:14" ht="12.75" customHeight="1">
       <c r="B187" s="3"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
@@ -3160,7 +3447,7 @@
       <c r="M187" s="6"/>
       <c r="N187" s="6"/>
     </row>
-    <row r="188" ht="12.75" customHeight="1">
+    <row r="188" spans="2:14" ht="12.75" customHeight="1">
       <c r="B188" s="3"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
@@ -3175,7 +3462,7 @@
       <c r="M188" s="6"/>
       <c r="N188" s="6"/>
     </row>
-    <row r="189" ht="12.75" customHeight="1">
+    <row r="189" spans="2:14" ht="12.75" customHeight="1">
       <c r="B189" s="3"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
@@ -3190,7 +3477,7 @@
       <c r="M189" s="6"/>
       <c r="N189" s="6"/>
     </row>
-    <row r="190" ht="12.75" customHeight="1">
+    <row r="190" spans="2:14" ht="12.75" customHeight="1">
       <c r="B190" s="3"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
@@ -3205,7 +3492,7 @@
       <c r="M190" s="6"/>
       <c r="N190" s="6"/>
     </row>
-    <row r="191" ht="12.75" customHeight="1">
+    <row r="191" spans="2:14" ht="12.75" customHeight="1">
       <c r="B191" s="3"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
@@ -3220,7 +3507,7 @@
       <c r="M191" s="6"/>
       <c r="N191" s="6"/>
     </row>
-    <row r="192" ht="12.75" customHeight="1">
+    <row r="192" spans="2:14" ht="12.75" customHeight="1">
       <c r="B192" s="3"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
@@ -3235,7 +3522,7 @@
       <c r="M192" s="6"/>
       <c r="N192" s="6"/>
     </row>
-    <row r="193" ht="12.75" customHeight="1">
+    <row r="193" spans="2:14" ht="12.75" customHeight="1">
       <c r="B193" s="3"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
@@ -3250,7 +3537,7 @@
       <c r="M193" s="6"/>
       <c r="N193" s="6"/>
     </row>
-    <row r="194" ht="12.75" customHeight="1">
+    <row r="194" spans="2:14" ht="12.75" customHeight="1">
       <c r="B194" s="3"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
@@ -3265,7 +3552,7 @@
       <c r="M194" s="6"/>
       <c r="N194" s="6"/>
     </row>
-    <row r="195" ht="12.75" customHeight="1">
+    <row r="195" spans="2:14" ht="12.75" customHeight="1">
       <c r="B195" s="3"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -3280,7 +3567,7 @@
       <c r="M195" s="6"/>
       <c r="N195" s="6"/>
     </row>
-    <row r="196" ht="12.75" customHeight="1">
+    <row r="196" spans="2:14" ht="12.75" customHeight="1">
       <c r="B196" s="3"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
@@ -3295,7 +3582,7 @@
       <c r="M196" s="6"/>
       <c r="N196" s="6"/>
     </row>
-    <row r="197" ht="12.75" customHeight="1">
+    <row r="197" spans="2:14" ht="12.75" customHeight="1">
       <c r="B197" s="3"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
@@ -3310,7 +3597,7 @@
       <c r="M197" s="6"/>
       <c r="N197" s="6"/>
     </row>
-    <row r="198" ht="12.75" customHeight="1">
+    <row r="198" spans="2:14" ht="12.75" customHeight="1">
       <c r="B198" s="3"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
@@ -3325,7 +3612,7 @@
       <c r="M198" s="6"/>
       <c r="N198" s="6"/>
     </row>
-    <row r="199" ht="12.75" customHeight="1">
+    <row r="199" spans="2:14" ht="12.75" customHeight="1">
       <c r="B199" s="3"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
@@ -3340,7 +3627,7 @@
       <c r="M199" s="6"/>
       <c r="N199" s="6"/>
     </row>
-    <row r="200" ht="12.75" customHeight="1">
+    <row r="200" spans="2:14" ht="12.75" customHeight="1">
       <c r="B200" s="3"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
@@ -3355,7 +3642,7 @@
       <c r="M200" s="6"/>
       <c r="N200" s="6"/>
     </row>
-    <row r="201" ht="12.75" customHeight="1">
+    <row r="201" spans="2:14" ht="12.75" customHeight="1">
       <c r="B201" s="3"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
@@ -3370,7 +3657,7 @@
       <c r="M201" s="6"/>
       <c r="N201" s="6"/>
     </row>
-    <row r="202" ht="12.75" customHeight="1">
+    <row r="202" spans="2:14" ht="12.75" customHeight="1">
       <c r="B202" s="3"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
@@ -3385,7 +3672,7 @@
       <c r="M202" s="6"/>
       <c r="N202" s="6"/>
     </row>
-    <row r="203" ht="12.75" customHeight="1">
+    <row r="203" spans="2:14" ht="12.75" customHeight="1">
       <c r="B203" s="3"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
@@ -3400,7 +3687,7 @@
       <c r="M203" s="6"/>
       <c r="N203" s="6"/>
     </row>
-    <row r="204" ht="12.75" customHeight="1">
+    <row r="204" spans="2:14" ht="12.75" customHeight="1">
       <c r="B204" s="3"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
@@ -3415,7 +3702,7 @@
       <c r="M204" s="6"/>
       <c r="N204" s="6"/>
     </row>
-    <row r="205" ht="12.75" customHeight="1">
+    <row r="205" spans="2:14" ht="12.75" customHeight="1">
       <c r="B205" s="3"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
@@ -3430,7 +3717,7 @@
       <c r="M205" s="6"/>
       <c r="N205" s="6"/>
     </row>
-    <row r="206" ht="12.75" customHeight="1">
+    <row r="206" spans="2:14" ht="12.75" customHeight="1">
       <c r="B206" s="3"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
@@ -3445,7 +3732,7 @@
       <c r="M206" s="6"/>
       <c r="N206" s="6"/>
     </row>
-    <row r="207" ht="12.75" customHeight="1">
+    <row r="207" spans="2:14" ht="12.75" customHeight="1">
       <c r="B207" s="3"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
@@ -3460,7 +3747,7 @@
       <c r="M207" s="6"/>
       <c r="N207" s="6"/>
     </row>
-    <row r="208" ht="12.75" customHeight="1">
+    <row r="208" spans="2:14" ht="12.75" customHeight="1">
       <c r="B208" s="3"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
@@ -3475,7 +3762,7 @@
       <c r="M208" s="6"/>
       <c r="N208" s="6"/>
     </row>
-    <row r="209" ht="12.75" customHeight="1">
+    <row r="209" spans="2:14" ht="12.75" customHeight="1">
       <c r="B209" s="3"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
@@ -3490,7 +3777,7 @@
       <c r="M209" s="6"/>
       <c r="N209" s="6"/>
     </row>
-    <row r="210" ht="12.75" customHeight="1">
+    <row r="210" spans="2:14" ht="12.75" customHeight="1">
       <c r="B210" s="3"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
@@ -3505,7 +3792,7 @@
       <c r="M210" s="6"/>
       <c r="N210" s="6"/>
     </row>
-    <row r="211" ht="12.75" customHeight="1">
+    <row r="211" spans="2:14" ht="12.75" customHeight="1">
       <c r="B211" s="3"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
@@ -3520,7 +3807,7 @@
       <c r="M211" s="6"/>
       <c r="N211" s="6"/>
     </row>
-    <row r="212" ht="12.75" customHeight="1">
+    <row r="212" spans="2:14" ht="12.75" customHeight="1">
       <c r="B212" s="3"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
@@ -3535,7 +3822,7 @@
       <c r="M212" s="6"/>
       <c r="N212" s="6"/>
     </row>
-    <row r="213" ht="12.75" customHeight="1">
+    <row r="213" spans="2:14" ht="12.75" customHeight="1">
       <c r="B213" s="3"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
@@ -3550,7 +3837,7 @@
       <c r="M213" s="6"/>
       <c r="N213" s="6"/>
     </row>
-    <row r="214" ht="12.75" customHeight="1">
+    <row r="214" spans="2:14" ht="12.75" customHeight="1">
       <c r="B214" s="3"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
@@ -3565,7 +3852,7 @@
       <c r="M214" s="6"/>
       <c r="N214" s="6"/>
     </row>
-    <row r="215" ht="12.75" customHeight="1">
+    <row r="215" spans="2:14" ht="12.75" customHeight="1">
       <c r="B215" s="3"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
@@ -3580,7 +3867,7 @@
       <c r="M215" s="6"/>
       <c r="N215" s="6"/>
     </row>
-    <row r="216" ht="12.75" customHeight="1">
+    <row r="216" spans="2:14" ht="12.75" customHeight="1">
       <c r="B216" s="3"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
@@ -3595,7 +3882,7 @@
       <c r="M216" s="6"/>
       <c r="N216" s="6"/>
     </row>
-    <row r="217" ht="12.75" customHeight="1">
+    <row r="217" spans="2:14" ht="12.75" customHeight="1">
       <c r="B217" s="3"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
@@ -3610,7 +3897,7 @@
       <c r="M217" s="6"/>
       <c r="N217" s="6"/>
     </row>
-    <row r="218" ht="12.75" customHeight="1">
+    <row r="218" spans="2:14" ht="12.75" customHeight="1">
       <c r="B218" s="3"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
@@ -3625,7 +3912,7 @@
       <c r="M218" s="6"/>
       <c r="N218" s="6"/>
     </row>
-    <row r="219" ht="12.75" customHeight="1">
+    <row r="219" spans="2:14" ht="12.75" customHeight="1">
       <c r="B219" s="3"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
@@ -3640,7 +3927,7 @@
       <c r="M219" s="6"/>
       <c r="N219" s="6"/>
     </row>
-    <row r="220" ht="12.75" customHeight="1">
+    <row r="220" spans="2:14" ht="12.75" customHeight="1">
       <c r="B220" s="3"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
@@ -3655,7 +3942,7 @@
       <c r="M220" s="6"/>
       <c r="N220" s="6"/>
     </row>
-    <row r="221" ht="12.75" customHeight="1">
+    <row r="221" spans="2:14" ht="12.75" customHeight="1">
       <c r="B221" s="3"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
@@ -3670,7 +3957,7 @@
       <c r="M221" s="6"/>
       <c r="N221" s="6"/>
     </row>
-    <row r="222" ht="12.75" customHeight="1">
+    <row r="222" spans="2:14" ht="12.75" customHeight="1">
       <c r="B222" s="3"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
@@ -3685,7 +3972,7 @@
       <c r="M222" s="6"/>
       <c r="N222" s="6"/>
     </row>
-    <row r="223" ht="12.75" customHeight="1">
+    <row r="223" spans="2:14" ht="12.75" customHeight="1">
       <c r="B223" s="3"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
@@ -3700,7 +3987,7 @@
       <c r="M223" s="6"/>
       <c r="N223" s="6"/>
     </row>
-    <row r="224" ht="12.75" customHeight="1">
+    <row r="224" spans="2:14" ht="12.75" customHeight="1">
       <c r="B224" s="3"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
@@ -3715,7 +4002,7 @@
       <c r="M224" s="6"/>
       <c r="N224" s="6"/>
     </row>
-    <row r="225" ht="12.75" customHeight="1">
+    <row r="225" spans="2:14" ht="12.75" customHeight="1">
       <c r="B225" s="3"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
@@ -3730,7 +4017,7 @@
       <c r="M225" s="6"/>
       <c r="N225" s="6"/>
     </row>
-    <row r="226" ht="12.75" customHeight="1">
+    <row r="226" spans="2:14" ht="12.75" customHeight="1">
       <c r="B226" s="3"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
@@ -3745,7 +4032,7 @@
       <c r="M226" s="6"/>
       <c r="N226" s="6"/>
     </row>
-    <row r="227" ht="12.75" customHeight="1">
+    <row r="227" spans="2:14" ht="12.75" customHeight="1">
       <c r="B227" s="3"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
@@ -3760,7 +4047,7 @@
       <c r="M227" s="6"/>
       <c r="N227" s="6"/>
     </row>
-    <row r="228" ht="12.75" customHeight="1">
+    <row r="228" spans="2:14" ht="12.75" customHeight="1">
       <c r="B228" s="3"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
@@ -3775,7 +4062,7 @@
       <c r="M228" s="6"/>
       <c r="N228" s="6"/>
     </row>
-    <row r="229" ht="12.75" customHeight="1">
+    <row r="229" spans="2:14" ht="12.75" customHeight="1">
       <c r="B229" s="3"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
@@ -3790,7 +4077,7 @@
       <c r="M229" s="6"/>
       <c r="N229" s="6"/>
     </row>
-    <row r="230" ht="12.75" customHeight="1">
+    <row r="230" spans="2:14" ht="12.75" customHeight="1">
       <c r="B230" s="3"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
@@ -3805,7 +4092,7 @@
       <c r="M230" s="6"/>
       <c r="N230" s="6"/>
     </row>
-    <row r="231" ht="12.75" customHeight="1">
+    <row r="231" spans="2:14" ht="12.75" customHeight="1">
       <c r="B231" s="3"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
@@ -3820,7 +4107,7 @@
       <c r="M231" s="6"/>
       <c r="N231" s="6"/>
     </row>
-    <row r="232" ht="12.75" customHeight="1">
+    <row r="232" spans="2:14" ht="12.75" customHeight="1">
       <c r="B232" s="3"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
@@ -3835,7 +4122,7 @@
       <c r="M232" s="6"/>
       <c r="N232" s="6"/>
     </row>
-    <row r="233" ht="12.75" customHeight="1">
+    <row r="233" spans="2:14" ht="12.75" customHeight="1">
       <c r="B233" s="3"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
@@ -3850,7 +4137,7 @@
       <c r="M233" s="6"/>
       <c r="N233" s="6"/>
     </row>
-    <row r="234" ht="12.75" customHeight="1">
+    <row r="234" spans="2:14" ht="12.75" customHeight="1">
       <c r="B234" s="3"/>
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
@@ -3865,7 +4152,7 @@
       <c r="M234" s="6"/>
       <c r="N234" s="6"/>
     </row>
-    <row r="235" ht="12.75" customHeight="1">
+    <row r="235" spans="2:14" ht="12.75" customHeight="1">
       <c r="B235" s="3"/>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
@@ -3880,7 +4167,7 @@
       <c r="M235" s="6"/>
       <c r="N235" s="6"/>
     </row>
-    <row r="236" ht="12.75" customHeight="1">
+    <row r="236" spans="2:14" ht="12.75" customHeight="1">
       <c r="B236" s="3"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
@@ -3895,7 +4182,7 @@
       <c r="M236" s="6"/>
       <c r="N236" s="6"/>
     </row>
-    <row r="237" ht="12.75" customHeight="1">
+    <row r="237" spans="2:14" ht="12.75" customHeight="1">
       <c r="B237" s="3"/>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
@@ -3910,7 +4197,7 @@
       <c r="M237" s="6"/>
       <c r="N237" s="6"/>
     </row>
-    <row r="238" ht="12.75" customHeight="1">
+    <row r="238" spans="2:14" ht="12.75" customHeight="1">
       <c r="B238" s="3"/>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
@@ -3925,7 +4212,7 @@
       <c r="M238" s="6"/>
       <c r="N238" s="6"/>
     </row>
-    <row r="239" ht="12.75" customHeight="1">
+    <row r="239" spans="2:14" ht="12.75" customHeight="1">
       <c r="B239" s="3"/>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
@@ -3940,7 +4227,7 @@
       <c r="M239" s="6"/>
       <c r="N239" s="6"/>
     </row>
-    <row r="240" ht="12.75" customHeight="1">
+    <row r="240" spans="2:14" ht="12.75" customHeight="1">
       <c r="B240" s="3"/>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
@@ -3955,7 +4242,7 @@
       <c r="M240" s="6"/>
       <c r="N240" s="6"/>
     </row>
-    <row r="241" ht="12.75" customHeight="1">
+    <row r="241" spans="2:14" ht="12.75" customHeight="1">
       <c r="B241" s="3"/>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
@@ -3970,7 +4257,7 @@
       <c r="M241" s="6"/>
       <c r="N241" s="6"/>
     </row>
-    <row r="242" ht="12.75" customHeight="1">
+    <row r="242" spans="2:14" ht="12.75" customHeight="1">
       <c r="B242" s="3"/>
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
@@ -3985,7 +4272,7 @@
       <c r="M242" s="6"/>
       <c r="N242" s="6"/>
     </row>
-    <row r="243" ht="12.75" customHeight="1">
+    <row r="243" spans="2:14" ht="12.75" customHeight="1">
       <c r="B243" s="3"/>
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
@@ -4000,7 +4287,7 @@
       <c r="M243" s="6"/>
       <c r="N243" s="6"/>
     </row>
-    <row r="244" ht="12.75" customHeight="1">
+    <row r="244" spans="2:14" ht="12.75" customHeight="1">
       <c r="B244" s="3"/>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
@@ -4015,7 +4302,7 @@
       <c r="M244" s="6"/>
       <c r="N244" s="6"/>
     </row>
-    <row r="245" ht="12.75" customHeight="1">
+    <row r="245" spans="2:14" ht="12.75" customHeight="1">
       <c r="B245" s="3"/>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
@@ -4030,7 +4317,7 @@
       <c r="M245" s="6"/>
       <c r="N245" s="6"/>
     </row>
-    <row r="246" ht="12.75" customHeight="1">
+    <row r="246" spans="2:14" ht="12.75" customHeight="1">
       <c r="B246" s="3"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
@@ -4045,7 +4332,7 @@
       <c r="M246" s="6"/>
       <c r="N246" s="6"/>
     </row>
-    <row r="247" ht="12.75" customHeight="1">
+    <row r="247" spans="2:14" ht="12.75" customHeight="1">
       <c r="B247" s="3"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
@@ -4060,7 +4347,7 @@
       <c r="M247" s="6"/>
       <c r="N247" s="6"/>
     </row>
-    <row r="248" ht="12.75" customHeight="1">
+    <row r="248" spans="2:14" ht="12.75" customHeight="1">
       <c r="B248" s="3"/>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
@@ -4075,7 +4362,7 @@
       <c r="M248" s="6"/>
       <c r="N248" s="6"/>
     </row>
-    <row r="249" ht="12.75" customHeight="1">
+    <row r="249" spans="2:14" ht="12.75" customHeight="1">
       <c r="B249" s="3"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
@@ -4090,7 +4377,7 @@
       <c r="M249" s="6"/>
       <c r="N249" s="6"/>
     </row>
-    <row r="250" ht="12.75" customHeight="1">
+    <row r="250" spans="2:14" ht="12.75" customHeight="1">
       <c r="B250" s="3"/>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
@@ -4105,7 +4392,7 @@
       <c r="M250" s="6"/>
       <c r="N250" s="6"/>
     </row>
-    <row r="251" ht="12.75" customHeight="1">
+    <row r="251" spans="2:14" ht="12.75" customHeight="1">
       <c r="B251" s="3"/>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
@@ -4120,7 +4407,7 @@
       <c r="M251" s="6"/>
       <c r="N251" s="6"/>
     </row>
-    <row r="252" ht="12.75" customHeight="1">
+    <row r="252" spans="2:14" ht="12.75" customHeight="1">
       <c r="B252" s="3"/>
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
@@ -4135,7 +4422,7 @@
       <c r="M252" s="6"/>
       <c r="N252" s="6"/>
     </row>
-    <row r="253" ht="12.75" customHeight="1">
+    <row r="253" spans="2:14" ht="12.75" customHeight="1">
       <c r="B253" s="3"/>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
@@ -4150,7 +4437,7 @@
       <c r="M253" s="6"/>
       <c r="N253" s="6"/>
     </row>
-    <row r="254" ht="12.75" customHeight="1">
+    <row r="254" spans="2:14" ht="12.75" customHeight="1">
       <c r="B254" s="3"/>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
@@ -4165,7 +4452,7 @@
       <c r="M254" s="6"/>
       <c r="N254" s="6"/>
     </row>
-    <row r="255" ht="12.75" customHeight="1">
+    <row r="255" spans="2:14" ht="12.75" customHeight="1">
       <c r="B255" s="3"/>
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
@@ -4180,7 +4467,7 @@
       <c r="M255" s="6"/>
       <c r="N255" s="6"/>
     </row>
-    <row r="256" ht="12.75" customHeight="1">
+    <row r="256" spans="2:14" ht="12.75" customHeight="1">
       <c r="B256" s="3"/>
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
@@ -4195,7 +4482,7 @@
       <c r="M256" s="6"/>
       <c r="N256" s="6"/>
     </row>
-    <row r="257" ht="12.75" customHeight="1">
+    <row r="257" spans="2:14" ht="12.75" customHeight="1">
       <c r="B257" s="3"/>
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
@@ -4210,7 +4497,7 @@
       <c r="M257" s="6"/>
       <c r="N257" s="6"/>
     </row>
-    <row r="258" ht="12.75" customHeight="1">
+    <row r="258" spans="2:14" ht="12.75" customHeight="1">
       <c r="B258" s="3"/>
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
@@ -4225,7 +4512,7 @@
       <c r="M258" s="6"/>
       <c r="N258" s="6"/>
     </row>
-    <row r="259" ht="12.75" customHeight="1">
+    <row r="259" spans="2:14" ht="12.75" customHeight="1">
       <c r="B259" s="3"/>
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
@@ -4240,7 +4527,7 @@
       <c r="M259" s="6"/>
       <c r="N259" s="6"/>
     </row>
-    <row r="260" ht="12.75" customHeight="1">
+    <row r="260" spans="2:14" ht="12.75" customHeight="1">
       <c r="B260" s="3"/>
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
@@ -4255,7 +4542,7 @@
       <c r="M260" s="6"/>
       <c r="N260" s="6"/>
     </row>
-    <row r="261" ht="12.75" customHeight="1">
+    <row r="261" spans="2:14" ht="12.75" customHeight="1">
       <c r="B261" s="3"/>
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
@@ -4270,7 +4557,7 @@
       <c r="M261" s="6"/>
       <c r="N261" s="6"/>
     </row>
-    <row r="262" ht="12.75" customHeight="1">
+    <row r="262" spans="2:14" ht="12.75" customHeight="1">
       <c r="B262" s="3"/>
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
@@ -4285,7 +4572,7 @@
       <c r="M262" s="6"/>
       <c r="N262" s="6"/>
     </row>
-    <row r="263" ht="12.75" customHeight="1">
+    <row r="263" spans="2:14" ht="12.75" customHeight="1">
       <c r="B263" s="3"/>
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
@@ -4300,7 +4587,7 @@
       <c r="M263" s="6"/>
       <c r="N263" s="6"/>
     </row>
-    <row r="264" ht="12.75" customHeight="1">
+    <row r="264" spans="2:14" ht="12.75" customHeight="1">
       <c r="B264" s="3"/>
       <c r="C264" s="6"/>
       <c r="D264" s="6"/>
@@ -4315,7 +4602,7 @@
       <c r="M264" s="6"/>
       <c r="N264" s="6"/>
     </row>
-    <row r="265" ht="12.75" customHeight="1">
+    <row r="265" spans="2:14" ht="12.75" customHeight="1">
       <c r="B265" s="3"/>
       <c r="C265" s="6"/>
       <c r="D265" s="6"/>
@@ -4330,7 +4617,7 @@
       <c r="M265" s="6"/>
       <c r="N265" s="6"/>
     </row>
-    <row r="266" ht="12.75" customHeight="1">
+    <row r="266" spans="2:14" ht="12.75" customHeight="1">
       <c r="B266" s="3"/>
       <c r="C266" s="6"/>
       <c r="D266" s="6"/>
@@ -4345,7 +4632,7 @@
       <c r="M266" s="6"/>
       <c r="N266" s="6"/>
     </row>
-    <row r="267" ht="12.75" customHeight="1">
+    <row r="267" spans="2:14" ht="12.75" customHeight="1">
       <c r="B267" s="3"/>
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
@@ -4360,7 +4647,7 @@
       <c r="M267" s="6"/>
       <c r="N267" s="6"/>
     </row>
-    <row r="268" ht="12.75" customHeight="1">
+    <row r="268" spans="2:14" ht="12.75" customHeight="1">
       <c r="B268" s="3"/>
       <c r="C268" s="6"/>
       <c r="D268" s="6"/>
@@ -4375,7 +4662,7 @@
       <c r="M268" s="6"/>
       <c r="N268" s="6"/>
     </row>
-    <row r="269" ht="12.75" customHeight="1">
+    <row r="269" spans="2:14" ht="12.75" customHeight="1">
       <c r="B269" s="3"/>
       <c r="C269" s="6"/>
       <c r="D269" s="6"/>
@@ -4390,7 +4677,7 @@
       <c r="M269" s="6"/>
       <c r="N269" s="6"/>
     </row>
-    <row r="270" ht="12.75" customHeight="1">
+    <row r="270" spans="2:14" ht="12.75" customHeight="1">
       <c r="B270" s="3"/>
       <c r="C270" s="6"/>
       <c r="D270" s="6"/>
@@ -4405,7 +4692,7 @@
       <c r="M270" s="6"/>
       <c r="N270" s="6"/>
     </row>
-    <row r="271" ht="12.75" customHeight="1">
+    <row r="271" spans="2:14" ht="12.75" customHeight="1">
       <c r="B271" s="3"/>
       <c r="C271" s="6"/>
       <c r="D271" s="6"/>
@@ -4420,7 +4707,7 @@
       <c r="M271" s="6"/>
       <c r="N271" s="6"/>
     </row>
-    <row r="272" ht="12.75" customHeight="1">
+    <row r="272" spans="2:14" ht="12.75" customHeight="1">
       <c r="B272" s="3"/>
       <c r="C272" s="6"/>
       <c r="D272" s="6"/>
@@ -4435,7 +4722,7 @@
       <c r="M272" s="6"/>
       <c r="N272" s="6"/>
     </row>
-    <row r="273" ht="12.75" customHeight="1">
+    <row r="273" spans="2:14" ht="12.75" customHeight="1">
       <c r="B273" s="3"/>
       <c r="C273" s="6"/>
       <c r="D273" s="6"/>
@@ -4450,7 +4737,7 @@
       <c r="M273" s="6"/>
       <c r="N273" s="6"/>
     </row>
-    <row r="274" ht="12.75" customHeight="1">
+    <row r="274" spans="2:14" ht="12.75" customHeight="1">
       <c r="B274" s="3"/>
       <c r="C274" s="6"/>
       <c r="D274" s="6"/>
@@ -4465,7 +4752,7 @@
       <c r="M274" s="6"/>
       <c r="N274" s="6"/>
     </row>
-    <row r="275" ht="12.75" customHeight="1">
+    <row r="275" spans="2:14" ht="12.75" customHeight="1">
       <c r="B275" s="3"/>
       <c r="C275" s="6"/>
       <c r="D275" s="6"/>
@@ -4480,7 +4767,7 @@
       <c r="M275" s="6"/>
       <c r="N275" s="6"/>
     </row>
-    <row r="276" ht="12.75" customHeight="1">
+    <row r="276" spans="2:14" ht="12.75" customHeight="1">
       <c r="B276" s="3"/>
       <c r="C276" s="6"/>
       <c r="D276" s="6"/>
@@ -4495,7 +4782,7 @@
       <c r="M276" s="6"/>
       <c r="N276" s="6"/>
     </row>
-    <row r="277" ht="12.75" customHeight="1">
+    <row r="277" spans="2:14" ht="12.75" customHeight="1">
       <c r="B277" s="3"/>
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
@@ -4510,7 +4797,7 @@
       <c r="M277" s="6"/>
       <c r="N277" s="6"/>
     </row>
-    <row r="278" ht="12.75" customHeight="1">
+    <row r="278" spans="2:14" ht="12.75" customHeight="1">
       <c r="B278" s="3"/>
       <c r="C278" s="6"/>
       <c r="D278" s="6"/>
@@ -4525,7 +4812,7 @@
       <c r="M278" s="6"/>
       <c r="N278" s="6"/>
     </row>
-    <row r="279" ht="12.75" customHeight="1">
+    <row r="279" spans="2:14" ht="12.75" customHeight="1">
       <c r="B279" s="3"/>
       <c r="C279" s="6"/>
       <c r="D279" s="6"/>
@@ -4540,7 +4827,7 @@
       <c r="M279" s="6"/>
       <c r="N279" s="6"/>
     </row>
-    <row r="280" ht="12.75" customHeight="1">
+    <row r="280" spans="2:14" ht="12.75" customHeight="1">
       <c r="B280" s="3"/>
       <c r="C280" s="6"/>
       <c r="D280" s="6"/>
@@ -4555,7 +4842,7 @@
       <c r="M280" s="6"/>
       <c r="N280" s="6"/>
     </row>
-    <row r="281" ht="12.75" customHeight="1">
+    <row r="281" spans="2:14" ht="12.75" customHeight="1">
       <c r="B281" s="3"/>
       <c r="C281" s="6"/>
       <c r="D281" s="6"/>
@@ -4570,7 +4857,7 @@
       <c r="M281" s="6"/>
       <c r="N281" s="6"/>
     </row>
-    <row r="282" ht="12.75" customHeight="1">
+    <row r="282" spans="2:14" ht="12.75" customHeight="1">
       <c r="B282" s="3"/>
       <c r="C282" s="6"/>
       <c r="D282" s="6"/>
@@ -4585,7 +4872,7 @@
       <c r="M282" s="6"/>
       <c r="N282" s="6"/>
     </row>
-    <row r="283" ht="12.75" customHeight="1">
+    <row r="283" spans="2:14" ht="12.75" customHeight="1">
       <c r="B283" s="3"/>
       <c r="C283" s="6"/>
       <c r="D283" s="6"/>
@@ -4600,7 +4887,7 @@
       <c r="M283" s="6"/>
       <c r="N283" s="6"/>
     </row>
-    <row r="284" ht="12.75" customHeight="1">
+    <row r="284" spans="2:14" ht="12.75" customHeight="1">
       <c r="B284" s="3"/>
       <c r="C284" s="6"/>
       <c r="D284" s="6"/>
@@ -4615,7 +4902,7 @@
       <c r="M284" s="6"/>
       <c r="N284" s="6"/>
     </row>
-    <row r="285" ht="12.75" customHeight="1">
+    <row r="285" spans="2:14" ht="12.75" customHeight="1">
       <c r="B285" s="3"/>
       <c r="C285" s="6"/>
       <c r="D285" s="6"/>
@@ -4630,7 +4917,7 @@
       <c r="M285" s="6"/>
       <c r="N285" s="6"/>
     </row>
-    <row r="286" ht="12.75" customHeight="1">
+    <row r="286" spans="2:14" ht="12.75" customHeight="1">
       <c r="B286" s="3"/>
       <c r="C286" s="6"/>
       <c r="D286" s="6"/>
@@ -4645,7 +4932,7 @@
       <c r="M286" s="6"/>
       <c r="N286" s="6"/>
     </row>
-    <row r="287" ht="12.75" customHeight="1">
+    <row r="287" spans="2:14" ht="12.75" customHeight="1">
       <c r="B287" s="3"/>
       <c r="C287" s="6"/>
       <c r="D287" s="6"/>
@@ -4660,7 +4947,7 @@
       <c r="M287" s="6"/>
       <c r="N287" s="6"/>
     </row>
-    <row r="288" ht="12.75" customHeight="1">
+    <row r="288" spans="2:14" ht="12.75" customHeight="1">
       <c r="B288" s="3"/>
       <c r="C288" s="6"/>
       <c r="D288" s="6"/>
@@ -4675,7 +4962,7 @@
       <c r="M288" s="6"/>
       <c r="N288" s="6"/>
     </row>
-    <row r="289" ht="12.75" customHeight="1">
+    <row r="289" spans="2:14" ht="12.75" customHeight="1">
       <c r="B289" s="3"/>
       <c r="C289" s="6"/>
       <c r="D289" s="6"/>
@@ -4690,7 +4977,7 @@
       <c r="M289" s="6"/>
       <c r="N289" s="6"/>
     </row>
-    <row r="290" ht="12.75" customHeight="1">
+    <row r="290" spans="2:14" ht="12.75" customHeight="1">
       <c r="B290" s="3"/>
       <c r="C290" s="6"/>
       <c r="D290" s="6"/>
@@ -4705,7 +4992,7 @@
       <c r="M290" s="6"/>
       <c r="N290" s="6"/>
     </row>
-    <row r="291" ht="12.75" customHeight="1">
+    <row r="291" spans="2:14" ht="12.75" customHeight="1">
       <c r="B291" s="3"/>
       <c r="C291" s="6"/>
       <c r="D291" s="6"/>
@@ -4720,7 +5007,7 @@
       <c r="M291" s="6"/>
       <c r="N291" s="6"/>
     </row>
-    <row r="292" ht="12.75" customHeight="1">
+    <row r="292" spans="2:14" ht="12.75" customHeight="1">
       <c r="B292" s="3"/>
       <c r="C292" s="6"/>
       <c r="D292" s="6"/>
@@ -4735,7 +5022,7 @@
       <c r="M292" s="6"/>
       <c r="N292" s="6"/>
     </row>
-    <row r="293" ht="12.75" customHeight="1">
+    <row r="293" spans="2:14" ht="12.75" customHeight="1">
       <c r="B293" s="3"/>
       <c r="C293" s="6"/>
       <c r="D293" s="6"/>
@@ -4750,7 +5037,7 @@
       <c r="M293" s="6"/>
       <c r="N293" s="6"/>
     </row>
-    <row r="294" ht="12.75" customHeight="1">
+    <row r="294" spans="2:14" ht="12.75" customHeight="1">
       <c r="B294" s="3"/>
       <c r="C294" s="6"/>
       <c r="D294" s="6"/>
@@ -4765,7 +5052,7 @@
       <c r="M294" s="6"/>
       <c r="N294" s="6"/>
     </row>
-    <row r="295" ht="12.75" customHeight="1">
+    <row r="295" spans="2:14" ht="12.75" customHeight="1">
       <c r="B295" s="3"/>
       <c r="C295" s="6"/>
       <c r="D295" s="6"/>
@@ -4780,7 +5067,7 @@
       <c r="M295" s="6"/>
       <c r="N295" s="6"/>
     </row>
-    <row r="296" ht="12.75" customHeight="1">
+    <row r="296" spans="2:14" ht="12.75" customHeight="1">
       <c r="B296" s="3"/>
       <c r="C296" s="6"/>
       <c r="D296" s="6"/>
@@ -4795,7 +5082,7 @@
       <c r="M296" s="6"/>
       <c r="N296" s="6"/>
     </row>
-    <row r="297" ht="12.75" customHeight="1">
+    <row r="297" spans="2:14" ht="12.75" customHeight="1">
       <c r="B297" s="3"/>
       <c r="C297" s="6"/>
       <c r="D297" s="6"/>
@@ -4810,7 +5097,7 @@
       <c r="M297" s="6"/>
       <c r="N297" s="6"/>
     </row>
-    <row r="298" ht="12.75" customHeight="1">
+    <row r="298" spans="2:14" ht="12.75" customHeight="1">
       <c r="B298" s="3"/>
       <c r="C298" s="6"/>
       <c r="D298" s="6"/>
@@ -4825,7 +5112,7 @@
       <c r="M298" s="6"/>
       <c r="N298" s="6"/>
     </row>
-    <row r="299" ht="12.75" customHeight="1">
+    <row r="299" spans="2:14" ht="12.75" customHeight="1">
       <c r="B299" s="3"/>
       <c r="C299" s="6"/>
       <c r="D299" s="6"/>
@@ -4840,7 +5127,7 @@
       <c r="M299" s="6"/>
       <c r="N299" s="6"/>
     </row>
-    <row r="300" ht="12.75" customHeight="1">
+    <row r="300" spans="2:14" ht="12.75" customHeight="1">
       <c r="B300" s="3"/>
       <c r="C300" s="6"/>
       <c r="D300" s="6"/>
@@ -4855,7 +5142,7 @@
       <c r="M300" s="6"/>
       <c r="N300" s="6"/>
     </row>
-    <row r="301" ht="12.75" customHeight="1">
+    <row r="301" spans="2:14" ht="12.75" customHeight="1">
       <c r="B301" s="3"/>
       <c r="C301" s="6"/>
       <c r="D301" s="6"/>
@@ -4870,7 +5157,7 @@
       <c r="M301" s="6"/>
       <c r="N301" s="6"/>
     </row>
-    <row r="302" ht="12.75" customHeight="1">
+    <row r="302" spans="2:14" ht="12.75" customHeight="1">
       <c r="B302" s="3"/>
       <c r="C302" s="6"/>
       <c r="D302" s="6"/>
@@ -4885,7 +5172,7 @@
       <c r="M302" s="6"/>
       <c r="N302" s="6"/>
     </row>
-    <row r="303" ht="12.75" customHeight="1">
+    <row r="303" spans="2:14" ht="12.75" customHeight="1">
       <c r="B303" s="3"/>
       <c r="C303" s="6"/>
       <c r="D303" s="6"/>
@@ -4900,7 +5187,7 @@
       <c r="M303" s="6"/>
       <c r="N303" s="6"/>
     </row>
-    <row r="304" ht="12.75" customHeight="1">
+    <row r="304" spans="2:14" ht="12.75" customHeight="1">
       <c r="B304" s="3"/>
       <c r="C304" s="6"/>
       <c r="D304" s="6"/>
@@ -4915,7 +5202,7 @@
       <c r="M304" s="6"/>
       <c r="N304" s="6"/>
     </row>
-    <row r="305" ht="12.75" customHeight="1">
+    <row r="305" spans="2:14" ht="12.75" customHeight="1">
       <c r="B305" s="3"/>
       <c r="C305" s="6"/>
       <c r="D305" s="6"/>
@@ -4930,7 +5217,7 @@
       <c r="M305" s="6"/>
       <c r="N305" s="6"/>
     </row>
-    <row r="306" ht="12.75" customHeight="1">
+    <row r="306" spans="2:14" ht="12.75" customHeight="1">
       <c r="B306" s="3"/>
       <c r="C306" s="6"/>
       <c r="D306" s="6"/>
@@ -4945,7 +5232,7 @@
       <c r="M306" s="6"/>
       <c r="N306" s="6"/>
     </row>
-    <row r="307" ht="12.75" customHeight="1">
+    <row r="307" spans="2:14" ht="12.75" customHeight="1">
       <c r="B307" s="3"/>
       <c r="C307" s="6"/>
       <c r="D307" s="6"/>
@@ -4960,7 +5247,7 @@
       <c r="M307" s="6"/>
       <c r="N307" s="6"/>
     </row>
-    <row r="308" ht="12.75" customHeight="1">
+    <row r="308" spans="2:14" ht="12.75" customHeight="1">
       <c r="B308" s="3"/>
       <c r="C308" s="6"/>
       <c r="D308" s="6"/>
@@ -4975,7 +5262,7 @@
       <c r="M308" s="6"/>
       <c r="N308" s="6"/>
     </row>
-    <row r="309" ht="12.75" customHeight="1">
+    <row r="309" spans="2:14" ht="12.75" customHeight="1">
       <c r="B309" s="3"/>
       <c r="C309" s="6"/>
       <c r="D309" s="6"/>
@@ -4990,7 +5277,7 @@
       <c r="M309" s="6"/>
       <c r="N309" s="6"/>
     </row>
-    <row r="310" ht="12.75" customHeight="1">
+    <row r="310" spans="2:14" ht="12.75" customHeight="1">
       <c r="B310" s="3"/>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
@@ -5005,7 +5292,7 @@
       <c r="M310" s="6"/>
       <c r="N310" s="6"/>
     </row>
-    <row r="311" ht="12.75" customHeight="1">
+    <row r="311" spans="2:14" ht="12.75" customHeight="1">
       <c r="B311" s="3"/>
       <c r="C311" s="6"/>
       <c r="D311" s="6"/>
@@ -5020,7 +5307,7 @@
       <c r="M311" s="6"/>
       <c r="N311" s="6"/>
     </row>
-    <row r="312" ht="12.75" customHeight="1">
+    <row r="312" spans="2:14" ht="12.75" customHeight="1">
       <c r="B312" s="3"/>
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
@@ -5035,7 +5322,7 @@
       <c r="M312" s="6"/>
       <c r="N312" s="6"/>
     </row>
-    <row r="313" ht="12.75" customHeight="1">
+    <row r="313" spans="2:14" ht="12.75" customHeight="1">
       <c r="B313" s="3"/>
       <c r="C313" s="6"/>
       <c r="D313" s="6"/>
@@ -5050,7 +5337,7 @@
       <c r="M313" s="6"/>
       <c r="N313" s="6"/>
     </row>
-    <row r="314" ht="12.75" customHeight="1">
+    <row r="314" spans="2:14" ht="12.75" customHeight="1">
       <c r="B314" s="3"/>
       <c r="C314" s="6"/>
       <c r="D314" s="6"/>
@@ -5065,7 +5352,7 @@
       <c r="M314" s="6"/>
       <c r="N314" s="6"/>
     </row>
-    <row r="315" ht="12.75" customHeight="1">
+    <row r="315" spans="2:14" ht="12.75" customHeight="1">
       <c r="B315" s="3"/>
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
@@ -5080,7 +5367,7 @@
       <c r="M315" s="6"/>
       <c r="N315" s="6"/>
     </row>
-    <row r="316" ht="12.75" customHeight="1">
+    <row r="316" spans="2:14" ht="12.75" customHeight="1">
       <c r="B316" s="3"/>
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
@@ -5095,7 +5382,7 @@
       <c r="M316" s="6"/>
       <c r="N316" s="6"/>
     </row>
-    <row r="317" ht="12.75" customHeight="1">
+    <row r="317" spans="2:14" ht="12.75" customHeight="1">
       <c r="B317" s="3"/>
       <c r="C317" s="6"/>
       <c r="D317" s="6"/>
@@ -5110,7 +5397,7 @@
       <c r="M317" s="6"/>
       <c r="N317" s="6"/>
     </row>
-    <row r="318" ht="12.75" customHeight="1">
+    <row r="318" spans="2:14" ht="12.75" customHeight="1">
       <c r="B318" s="3"/>
       <c r="C318" s="6"/>
       <c r="D318" s="6"/>
@@ -5125,7 +5412,7 @@
       <c r="M318" s="6"/>
       <c r="N318" s="6"/>
     </row>
-    <row r="319" ht="12.75" customHeight="1">
+    <row r="319" spans="2:14" ht="12.75" customHeight="1">
       <c r="B319" s="3"/>
       <c r="C319" s="6"/>
       <c r="D319" s="6"/>
@@ -5140,7 +5427,7 @@
       <c r="M319" s="6"/>
       <c r="N319" s="6"/>
     </row>
-    <row r="320" ht="12.75" customHeight="1">
+    <row r="320" spans="2:14" ht="12.75" customHeight="1">
       <c r="B320" s="3"/>
       <c r="C320" s="6"/>
       <c r="D320" s="6"/>
@@ -5155,7 +5442,7 @@
       <c r="M320" s="6"/>
       <c r="N320" s="6"/>
     </row>
-    <row r="321" ht="12.75" customHeight="1">
+    <row r="321" spans="2:14" ht="12.75" customHeight="1">
       <c r="B321" s="3"/>
       <c r="C321" s="6"/>
       <c r="D321" s="6"/>
@@ -5170,7 +5457,7 @@
       <c r="M321" s="6"/>
       <c r="N321" s="6"/>
     </row>
-    <row r="322" ht="12.75" customHeight="1">
+    <row r="322" spans="2:14" ht="12.75" customHeight="1">
       <c r="B322" s="3"/>
       <c r="C322" s="6"/>
       <c r="D322" s="6"/>
@@ -5185,7 +5472,7 @@
       <c r="M322" s="6"/>
       <c r="N322" s="6"/>
     </row>
-    <row r="323" ht="12.75" customHeight="1">
+    <row r="323" spans="2:14" ht="12.75" customHeight="1">
       <c r="B323" s="3"/>
       <c r="C323" s="6"/>
       <c r="D323" s="6"/>
@@ -5200,7 +5487,7 @@
       <c r="M323" s="6"/>
       <c r="N323" s="6"/>
     </row>
-    <row r="324" ht="12.75" customHeight="1">
+    <row r="324" spans="2:14" ht="12.75" customHeight="1">
       <c r="B324" s="3"/>
       <c r="C324" s="6"/>
       <c r="D324" s="6"/>
@@ -5215,7 +5502,7 @@
       <c r="M324" s="6"/>
       <c r="N324" s="6"/>
     </row>
-    <row r="325" ht="12.75" customHeight="1">
+    <row r="325" spans="2:14" ht="12.75" customHeight="1">
       <c r="B325" s="3"/>
       <c r="C325" s="6"/>
       <c r="D325" s="6"/>
@@ -5230,7 +5517,7 @@
       <c r="M325" s="6"/>
       <c r="N325" s="6"/>
     </row>
-    <row r="326" ht="12.75" customHeight="1">
+    <row r="326" spans="2:14" ht="12.75" customHeight="1">
       <c r="B326" s="3"/>
       <c r="C326" s="6"/>
       <c r="D326" s="6"/>
@@ -5245,7 +5532,7 @@
       <c r="M326" s="6"/>
       <c r="N326" s="6"/>
     </row>
-    <row r="327" ht="12.75" customHeight="1">
+    <row r="327" spans="2:14" ht="12.75" customHeight="1">
       <c r="B327" s="3"/>
       <c r="C327" s="6"/>
       <c r="D327" s="6"/>
@@ -5260,7 +5547,7 @@
       <c r="M327" s="6"/>
       <c r="N327" s="6"/>
     </row>
-    <row r="328" ht="12.75" customHeight="1">
+    <row r="328" spans="2:14" ht="12.75" customHeight="1">
       <c r="B328" s="3"/>
       <c r="C328" s="6"/>
       <c r="D328" s="6"/>
@@ -5275,7 +5562,7 @@
       <c r="M328" s="6"/>
       <c r="N328" s="6"/>
     </row>
-    <row r="329" ht="12.75" customHeight="1">
+    <row r="329" spans="2:14" ht="12.75" customHeight="1">
       <c r="B329" s="3"/>
       <c r="C329" s="6"/>
       <c r="D329" s="6"/>
@@ -5290,7 +5577,7 @@
       <c r="M329" s="6"/>
       <c r="N329" s="6"/>
     </row>
-    <row r="330" ht="12.75" customHeight="1">
+    <row r="330" spans="2:14" ht="12.75" customHeight="1">
       <c r="B330" s="3"/>
       <c r="C330" s="6"/>
       <c r="D330" s="6"/>
@@ -5305,7 +5592,7 @@
       <c r="M330" s="6"/>
       <c r="N330" s="6"/>
     </row>
-    <row r="331" ht="12.75" customHeight="1">
+    <row r="331" spans="2:14" ht="12.75" customHeight="1">
       <c r="B331" s="3"/>
       <c r="C331" s="6"/>
       <c r="D331" s="6"/>
@@ -5320,7 +5607,7 @@
       <c r="M331" s="6"/>
       <c r="N331" s="6"/>
     </row>
-    <row r="332" ht="12.75" customHeight="1">
+    <row r="332" spans="2:14" ht="12.75" customHeight="1">
       <c r="B332" s="3"/>
       <c r="C332" s="6"/>
       <c r="D332" s="6"/>
@@ -5335,7 +5622,7 @@
       <c r="M332" s="6"/>
       <c r="N332" s="6"/>
     </row>
-    <row r="333" ht="12.75" customHeight="1">
+    <row r="333" spans="2:14" ht="12.75" customHeight="1">
       <c r="B333" s="3"/>
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
@@ -5350,7 +5637,7 @@
       <c r="M333" s="6"/>
       <c r="N333" s="6"/>
     </row>
-    <row r="334" ht="12.75" customHeight="1">
+    <row r="334" spans="2:14" ht="12.75" customHeight="1">
       <c r="B334" s="3"/>
       <c r="C334" s="6"/>
       <c r="D334" s="6"/>
@@ -5365,7 +5652,7 @@
       <c r="M334" s="6"/>
       <c r="N334" s="6"/>
     </row>
-    <row r="335" ht="12.75" customHeight="1">
+    <row r="335" spans="2:14" ht="12.75" customHeight="1">
       <c r="B335" s="3"/>
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
@@ -5380,7 +5667,7 @@
       <c r="M335" s="6"/>
       <c r="N335" s="6"/>
     </row>
-    <row r="336" ht="12.75" customHeight="1">
+    <row r="336" spans="2:14" ht="12.75" customHeight="1">
       <c r="B336" s="3"/>
       <c r="C336" s="6"/>
       <c r="D336" s="6"/>
@@ -5395,7 +5682,7 @@
       <c r="M336" s="6"/>
       <c r="N336" s="6"/>
     </row>
-    <row r="337" ht="12.75" customHeight="1">
+    <row r="337" spans="2:14" ht="12.75" customHeight="1">
       <c r="B337" s="3"/>
       <c r="C337" s="6"/>
       <c r="D337" s="6"/>
@@ -5410,7 +5697,7 @@
       <c r="M337" s="6"/>
       <c r="N337" s="6"/>
     </row>
-    <row r="338" ht="12.75" customHeight="1">
+    <row r="338" spans="2:14" ht="12.75" customHeight="1">
       <c r="B338" s="3"/>
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
@@ -5425,7 +5712,7 @@
       <c r="M338" s="6"/>
       <c r="N338" s="6"/>
     </row>
-    <row r="339" ht="12.75" customHeight="1">
+    <row r="339" spans="2:14" ht="12.75" customHeight="1">
       <c r="B339" s="3"/>
       <c r="C339" s="6"/>
       <c r="D339" s="6"/>
@@ -5440,7 +5727,7 @@
       <c r="M339" s="6"/>
       <c r="N339" s="6"/>
     </row>
-    <row r="340" ht="12.75" customHeight="1">
+    <row r="340" spans="2:14" ht="12.75" customHeight="1">
       <c r="B340" s="3"/>
       <c r="C340" s="6"/>
       <c r="D340" s="6"/>
@@ -5455,7 +5742,7 @@
       <c r="M340" s="6"/>
       <c r="N340" s="6"/>
     </row>
-    <row r="341" ht="12.75" customHeight="1">
+    <row r="341" spans="2:14" ht="12.75" customHeight="1">
       <c r="B341" s="3"/>
       <c r="C341" s="6"/>
       <c r="D341" s="6"/>
@@ -5470,7 +5757,7 @@
       <c r="M341" s="6"/>
       <c r="N341" s="6"/>
     </row>
-    <row r="342" ht="12.75" customHeight="1">
+    <row r="342" spans="2:14" ht="12.75" customHeight="1">
       <c r="B342" s="3"/>
       <c r="C342" s="6"/>
       <c r="D342" s="6"/>
@@ -5485,7 +5772,7 @@
       <c r="M342" s="6"/>
       <c r="N342" s="6"/>
     </row>
-    <row r="343" ht="12.75" customHeight="1">
+    <row r="343" spans="2:14" ht="12.75" customHeight="1">
       <c r="B343" s="3"/>
       <c r="C343" s="6"/>
       <c r="D343" s="6"/>
@@ -5500,7 +5787,7 @@
       <c r="M343" s="6"/>
       <c r="N343" s="6"/>
     </row>
-    <row r="344" ht="12.75" customHeight="1">
+    <row r="344" spans="2:14" ht="12.75" customHeight="1">
       <c r="B344" s="3"/>
       <c r="C344" s="6"/>
       <c r="D344" s="6"/>
@@ -5515,7 +5802,7 @@
       <c r="M344" s="6"/>
       <c r="N344" s="6"/>
     </row>
-    <row r="345" ht="12.75" customHeight="1">
+    <row r="345" spans="2:14" ht="12.75" customHeight="1">
       <c r="B345" s="3"/>
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
@@ -5530,7 +5817,7 @@
       <c r="M345" s="6"/>
       <c r="N345" s="6"/>
     </row>
-    <row r="346" ht="12.75" customHeight="1">
+    <row r="346" spans="2:14" ht="12.75" customHeight="1">
       <c r="B346" s="3"/>
       <c r="C346" s="6"/>
       <c r="D346" s="6"/>
@@ -5545,7 +5832,7 @@
       <c r="M346" s="6"/>
       <c r="N346" s="6"/>
     </row>
-    <row r="347" ht="12.75" customHeight="1">
+    <row r="347" spans="2:14" ht="12.75" customHeight="1">
       <c r="B347" s="3"/>
       <c r="C347" s="6"/>
       <c r="D347" s="6"/>
@@ -5560,7 +5847,7 @@
       <c r="M347" s="6"/>
       <c r="N347" s="6"/>
     </row>
-    <row r="348" ht="12.75" customHeight="1">
+    <row r="348" spans="2:14" ht="12.75" customHeight="1">
       <c r="B348" s="3"/>
       <c r="C348" s="6"/>
       <c r="D348" s="6"/>
@@ -5575,7 +5862,7 @@
       <c r="M348" s="6"/>
       <c r="N348" s="6"/>
     </row>
-    <row r="349" ht="12.75" customHeight="1">
+    <row r="349" spans="2:14" ht="12.75" customHeight="1">
       <c r="B349" s="3"/>
       <c r="C349" s="6"/>
       <c r="D349" s="6"/>
@@ -5590,7 +5877,7 @@
       <c r="M349" s="6"/>
       <c r="N349" s="6"/>
     </row>
-    <row r="350" ht="12.75" customHeight="1">
+    <row r="350" spans="2:14" ht="12.75" customHeight="1">
       <c r="B350" s="3"/>
       <c r="C350" s="6"/>
       <c r="D350" s="6"/>
@@ -5605,7 +5892,7 @@
       <c r="M350" s="6"/>
       <c r="N350" s="6"/>
     </row>
-    <row r="351" ht="12.75" customHeight="1">
+    <row r="351" spans="2:14" ht="12.75" customHeight="1">
       <c r="B351" s="3"/>
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
@@ -5620,7 +5907,7 @@
       <c r="M351" s="6"/>
       <c r="N351" s="6"/>
     </row>
-    <row r="352" ht="12.75" customHeight="1">
+    <row r="352" spans="2:14" ht="12.75" customHeight="1">
       <c r="B352" s="3"/>
       <c r="C352" s="6"/>
       <c r="D352" s="6"/>
@@ -5635,7 +5922,7 @@
       <c r="M352" s="6"/>
       <c r="N352" s="6"/>
     </row>
-    <row r="353" ht="12.75" customHeight="1">
+    <row r="353" spans="2:14" ht="12.75" customHeight="1">
       <c r="B353" s="3"/>
       <c r="C353" s="6"/>
       <c r="D353" s="6"/>
@@ -5650,7 +5937,7 @@
       <c r="M353" s="6"/>
       <c r="N353" s="6"/>
     </row>
-    <row r="354" ht="12.75" customHeight="1">
+    <row r="354" spans="2:14" ht="12.75" customHeight="1">
       <c r="B354" s="3"/>
       <c r="C354" s="6"/>
       <c r="D354" s="6"/>
@@ -5665,7 +5952,7 @@
       <c r="M354" s="6"/>
       <c r="N354" s="6"/>
     </row>
-    <row r="355" ht="12.75" customHeight="1">
+    <row r="355" spans="2:14" ht="12.75" customHeight="1">
       <c r="B355" s="3"/>
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
@@ -5680,7 +5967,7 @@
       <c r="M355" s="6"/>
       <c r="N355" s="6"/>
     </row>
-    <row r="356" ht="12.75" customHeight="1">
+    <row r="356" spans="2:14" ht="12.75" customHeight="1">
       <c r="B356" s="3"/>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
@@ -5695,7 +5982,7 @@
       <c r="M356" s="6"/>
       <c r="N356" s="6"/>
     </row>
-    <row r="357" ht="12.75" customHeight="1">
+    <row r="357" spans="2:14" ht="12.75" customHeight="1">
       <c r="B357" s="3"/>
       <c r="C357" s="6"/>
       <c r="D357" s="6"/>
@@ -5710,7 +5997,7 @@
       <c r="M357" s="6"/>
       <c r="N357" s="6"/>
     </row>
-    <row r="358" ht="12.75" customHeight="1">
+    <row r="358" spans="2:14" ht="12.75" customHeight="1">
       <c r="B358" s="3"/>
       <c r="C358" s="6"/>
       <c r="D358" s="6"/>
@@ -5725,7 +6012,7 @@
       <c r="M358" s="6"/>
       <c r="N358" s="6"/>
     </row>
-    <row r="359" ht="12.75" customHeight="1">
+    <row r="359" spans="2:14" ht="12.75" customHeight="1">
       <c r="B359" s="3"/>
       <c r="C359" s="6"/>
       <c r="D359" s="6"/>
@@ -5740,7 +6027,7 @@
       <c r="M359" s="6"/>
       <c r="N359" s="6"/>
     </row>
-    <row r="360" ht="12.75" customHeight="1">
+    <row r="360" spans="2:14" ht="12.75" customHeight="1">
       <c r="B360" s="3"/>
       <c r="C360" s="6"/>
       <c r="D360" s="6"/>
@@ -5755,7 +6042,7 @@
       <c r="M360" s="6"/>
       <c r="N360" s="6"/>
     </row>
-    <row r="361" ht="12.75" customHeight="1">
+    <row r="361" spans="2:14" ht="12.75" customHeight="1">
       <c r="B361" s="3"/>
       <c r="C361" s="6"/>
       <c r="D361" s="6"/>
@@ -5770,7 +6057,7 @@
       <c r="M361" s="6"/>
       <c r="N361" s="6"/>
     </row>
-    <row r="362" ht="12.75" customHeight="1">
+    <row r="362" spans="2:14" ht="12.75" customHeight="1">
       <c r="B362" s="3"/>
       <c r="C362" s="6"/>
       <c r="D362" s="6"/>
@@ -5785,7 +6072,7 @@
       <c r="M362" s="6"/>
       <c r="N362" s="6"/>
     </row>
-    <row r="363" ht="12.75" customHeight="1">
+    <row r="363" spans="2:14" ht="12.75" customHeight="1">
       <c r="B363" s="3"/>
       <c r="C363" s="6"/>
       <c r="D363" s="6"/>
@@ -5800,7 +6087,7 @@
       <c r="M363" s="6"/>
       <c r="N363" s="6"/>
     </row>
-    <row r="364" ht="12.75" customHeight="1">
+    <row r="364" spans="2:14" ht="12.75" customHeight="1">
       <c r="B364" s="3"/>
       <c r="C364" s="6"/>
       <c r="D364" s="6"/>
@@ -5815,7 +6102,7 @@
       <c r="M364" s="6"/>
       <c r="N364" s="6"/>
     </row>
-    <row r="365" ht="12.75" customHeight="1">
+    <row r="365" spans="2:14" ht="12.75" customHeight="1">
       <c r="B365" s="3"/>
       <c r="C365" s="6"/>
       <c r="D365" s="6"/>
@@ -5830,7 +6117,7 @@
       <c r="M365" s="6"/>
       <c r="N365" s="6"/>
     </row>
-    <row r="366" ht="12.75" customHeight="1">
+    <row r="366" spans="2:14" ht="12.75" customHeight="1">
       <c r="B366" s="3"/>
       <c r="C366" s="6"/>
       <c r="D366" s="6"/>
@@ -5845,7 +6132,7 @@
       <c r="M366" s="6"/>
       <c r="N366" s="6"/>
     </row>
-    <row r="367" ht="12.75" customHeight="1">
+    <row r="367" spans="2:14" ht="12.75" customHeight="1">
       <c r="B367" s="3"/>
       <c r="C367" s="6"/>
       <c r="D367" s="6"/>
@@ -5860,7 +6147,7 @@
       <c r="M367" s="6"/>
       <c r="N367" s="6"/>
     </row>
-    <row r="368" ht="12.75" customHeight="1">
+    <row r="368" spans="2:14" ht="12.75" customHeight="1">
       <c r="B368" s="3"/>
       <c r="C368" s="6"/>
       <c r="D368" s="6"/>
@@ -5875,7 +6162,7 @@
       <c r="M368" s="6"/>
       <c r="N368" s="6"/>
     </row>
-    <row r="369" ht="12.75" customHeight="1">
+    <row r="369" spans="2:14" ht="12.75" customHeight="1">
       <c r="B369" s="3"/>
       <c r="C369" s="6"/>
       <c r="D369" s="6"/>
@@ -5890,7 +6177,7 @@
       <c r="M369" s="6"/>
       <c r="N369" s="6"/>
     </row>
-    <row r="370" ht="12.75" customHeight="1">
+    <row r="370" spans="2:14" ht="12.75" customHeight="1">
       <c r="B370" s="3"/>
       <c r="C370" s="6"/>
       <c r="D370" s="6"/>
@@ -5905,7 +6192,7 @@
       <c r="M370" s="6"/>
       <c r="N370" s="6"/>
     </row>
-    <row r="371" ht="12.75" customHeight="1">
+    <row r="371" spans="2:14" ht="12.75" customHeight="1">
       <c r="B371" s="3"/>
       <c r="C371" s="6"/>
       <c r="D371" s="6"/>
@@ -5920,7 +6207,7 @@
       <c r="M371" s="6"/>
       <c r="N371" s="6"/>
     </row>
-    <row r="372" ht="12.75" customHeight="1">
+    <row r="372" spans="2:14" ht="12.75" customHeight="1">
       <c r="B372" s="3"/>
       <c r="C372" s="6"/>
       <c r="D372" s="6"/>
@@ -5935,7 +6222,7 @@
       <c r="M372" s="6"/>
       <c r="N372" s="6"/>
     </row>
-    <row r="373" ht="12.75" customHeight="1">
+    <row r="373" spans="2:14" ht="12.75" customHeight="1">
       <c r="B373" s="3"/>
       <c r="C373" s="6"/>
       <c r="D373" s="6"/>
@@ -5950,7 +6237,7 @@
       <c r="M373" s="6"/>
       <c r="N373" s="6"/>
     </row>
-    <row r="374" ht="12.75" customHeight="1">
+    <row r="374" spans="2:14" ht="12.75" customHeight="1">
       <c r="B374" s="3"/>
       <c r="C374" s="6"/>
       <c r="D374" s="6"/>
@@ -5965,7 +6252,7 @@
       <c r="M374" s="6"/>
       <c r="N374" s="6"/>
     </row>
-    <row r="375" ht="12.75" customHeight="1">
+    <row r="375" spans="2:14" ht="12.75" customHeight="1">
       <c r="B375" s="3"/>
       <c r="C375" s="6"/>
       <c r="D375" s="6"/>
@@ -5980,7 +6267,7 @@
       <c r="M375" s="6"/>
       <c r="N375" s="6"/>
     </row>
-    <row r="376" ht="12.75" customHeight="1">
+    <row r="376" spans="2:14" ht="12.75" customHeight="1">
       <c r="B376" s="3"/>
       <c r="C376" s="6"/>
       <c r="D376" s="6"/>
@@ -5995,7 +6282,7 @@
       <c r="M376" s="6"/>
       <c r="N376" s="6"/>
     </row>
-    <row r="377" ht="12.75" customHeight="1">
+    <row r="377" spans="2:14" ht="12.75" customHeight="1">
       <c r="B377" s="3"/>
       <c r="C377" s="6"/>
       <c r="D377" s="6"/>
@@ -6010,7 +6297,7 @@
       <c r="M377" s="6"/>
       <c r="N377" s="6"/>
     </row>
-    <row r="378" ht="12.75" customHeight="1">
+    <row r="378" spans="2:14" ht="12.75" customHeight="1">
       <c r="B378" s="3"/>
       <c r="C378" s="6"/>
       <c r="D378" s="6"/>
@@ -6025,7 +6312,7 @@
       <c r="M378" s="6"/>
       <c r="N378" s="6"/>
     </row>
-    <row r="379" ht="12.75" customHeight="1">
+    <row r="379" spans="2:14" ht="12.75" customHeight="1">
       <c r="B379" s="3"/>
       <c r="C379" s="6"/>
       <c r="D379" s="6"/>
@@ -6040,7 +6327,7 @@
       <c r="M379" s="6"/>
       <c r="N379" s="6"/>
     </row>
-    <row r="380" ht="12.75" customHeight="1">
+    <row r="380" spans="2:14" ht="12.75" customHeight="1">
       <c r="B380" s="3"/>
       <c r="C380" s="6"/>
       <c r="D380" s="6"/>
@@ -6055,7 +6342,7 @@
       <c r="M380" s="6"/>
       <c r="N380" s="6"/>
     </row>
-    <row r="381" ht="12.75" customHeight="1">
+    <row r="381" spans="2:14" ht="12.75" customHeight="1">
       <c r="B381" s="3"/>
       <c r="C381" s="6"/>
       <c r="D381" s="6"/>
@@ -6070,7 +6357,7 @@
       <c r="M381" s="6"/>
       <c r="N381" s="6"/>
     </row>
-    <row r="382" ht="12.75" customHeight="1">
+    <row r="382" spans="2:14" ht="12.75" customHeight="1">
       <c r="B382" s="3"/>
       <c r="C382" s="6"/>
       <c r="D382" s="6"/>
@@ -6085,7 +6372,7 @@
       <c r="M382" s="6"/>
       <c r="N382" s="6"/>
     </row>
-    <row r="383" ht="12.75" customHeight="1">
+    <row r="383" spans="2:14" ht="12.75" customHeight="1">
       <c r="B383" s="3"/>
       <c r="C383" s="6"/>
       <c r="D383" s="6"/>
@@ -6100,7 +6387,7 @@
       <c r="M383" s="6"/>
       <c r="N383" s="6"/>
     </row>
-    <row r="384" ht="12.75" customHeight="1">
+    <row r="384" spans="2:14" ht="12.75" customHeight="1">
       <c r="B384" s="3"/>
       <c r="C384" s="6"/>
       <c r="D384" s="6"/>
@@ -6115,7 +6402,7 @@
       <c r="M384" s="6"/>
       <c r="N384" s="6"/>
     </row>
-    <row r="385" ht="12.75" customHeight="1">
+    <row r="385" spans="2:14" ht="12.75" customHeight="1">
       <c r="B385" s="3"/>
       <c r="C385" s="6"/>
       <c r="D385" s="6"/>
@@ -6130,7 +6417,7 @@
       <c r="M385" s="6"/>
       <c r="N385" s="6"/>
     </row>
-    <row r="386" ht="12.75" customHeight="1">
+    <row r="386" spans="2:14" ht="12.75" customHeight="1">
       <c r="B386" s="3"/>
       <c r="C386" s="6"/>
       <c r="D386" s="6"/>
@@ -6145,7 +6432,7 @@
       <c r="M386" s="6"/>
       <c r="N386" s="6"/>
     </row>
-    <row r="387" ht="12.75" customHeight="1">
+    <row r="387" spans="2:14" ht="12.75" customHeight="1">
       <c r="B387" s="3"/>
       <c r="C387" s="6"/>
       <c r="D387" s="6"/>
@@ -6160,7 +6447,7 @@
       <c r="M387" s="6"/>
       <c r="N387" s="6"/>
     </row>
-    <row r="388" ht="12.75" customHeight="1">
+    <row r="388" spans="2:14" ht="12.75" customHeight="1">
       <c r="B388" s="3"/>
       <c r="C388" s="6"/>
       <c r="D388" s="6"/>
@@ -6175,7 +6462,7 @@
       <c r="M388" s="6"/>
       <c r="N388" s="6"/>
     </row>
-    <row r="389" ht="12.75" customHeight="1">
+    <row r="389" spans="2:14" ht="12.75" customHeight="1">
       <c r="B389" s="3"/>
       <c r="C389" s="6"/>
       <c r="D389" s="6"/>
@@ -6190,7 +6477,7 @@
       <c r="M389" s="6"/>
       <c r="N389" s="6"/>
     </row>
-    <row r="390" ht="12.75" customHeight="1">
+    <row r="390" spans="2:14" ht="12.75" customHeight="1">
       <c r="B390" s="3"/>
       <c r="C390" s="6"/>
       <c r="D390" s="6"/>
@@ -6205,7 +6492,7 @@
       <c r="M390" s="6"/>
       <c r="N390" s="6"/>
     </row>
-    <row r="391" ht="12.75" customHeight="1">
+    <row r="391" spans="2:14" ht="12.75" customHeight="1">
       <c r="B391" s="3"/>
       <c r="C391" s="6"/>
       <c r="D391" s="6"/>
@@ -6220,7 +6507,7 @@
       <c r="M391" s="6"/>
       <c r="N391" s="6"/>
     </row>
-    <row r="392" ht="12.75" customHeight="1">
+    <row r="392" spans="2:14" ht="12.75" customHeight="1">
       <c r="B392" s="3"/>
       <c r="C392" s="6"/>
       <c r="D392" s="6"/>
@@ -6235,7 +6522,7 @@
       <c r="M392" s="6"/>
       <c r="N392" s="6"/>
     </row>
-    <row r="393" ht="12.75" customHeight="1">
+    <row r="393" spans="2:14" ht="12.75" customHeight="1">
       <c r="B393" s="3"/>
       <c r="C393" s="6"/>
       <c r="D393" s="6"/>
@@ -6250,7 +6537,7 @@
       <c r="M393" s="6"/>
       <c r="N393" s="6"/>
     </row>
-    <row r="394" ht="12.75" customHeight="1">
+    <row r="394" spans="2:14" ht="12.75" customHeight="1">
       <c r="B394" s="3"/>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
@@ -6265,7 +6552,7 @@
       <c r="M394" s="6"/>
       <c r="N394" s="6"/>
     </row>
-    <row r="395" ht="12.75" customHeight="1">
+    <row r="395" spans="2:14" ht="12.75" customHeight="1">
       <c r="B395" s="3"/>
       <c r="C395" s="6"/>
       <c r="D395" s="6"/>
@@ -6280,7 +6567,7 @@
       <c r="M395" s="6"/>
       <c r="N395" s="6"/>
     </row>
-    <row r="396" ht="12.75" customHeight="1">
+    <row r="396" spans="2:14" ht="12.75" customHeight="1">
       <c r="B396" s="3"/>
       <c r="C396" s="6"/>
       <c r="D396" s="6"/>
@@ -6295,7 +6582,7 @@
       <c r="M396" s="6"/>
       <c r="N396" s="6"/>
     </row>
-    <row r="397" ht="12.75" customHeight="1">
+    <row r="397" spans="2:14" ht="12.75" customHeight="1">
       <c r="B397" s="3"/>
       <c r="C397" s="6"/>
       <c r="D397" s="6"/>
@@ -6310,7 +6597,7 @@
       <c r="M397" s="6"/>
       <c r="N397" s="6"/>
     </row>
-    <row r="398" ht="12.75" customHeight="1">
+    <row r="398" spans="2:14" ht="12.75" customHeight="1">
       <c r="B398" s="3"/>
       <c r="C398" s="6"/>
       <c r="D398" s="6"/>
@@ -6325,7 +6612,7 @@
       <c r="M398" s="6"/>
       <c r="N398" s="6"/>
     </row>
-    <row r="399" ht="12.75" customHeight="1">
+    <row r="399" spans="2:14" ht="12.75" customHeight="1">
       <c r="B399" s="3"/>
       <c r="C399" s="6"/>
       <c r="D399" s="6"/>
@@ -6340,7 +6627,7 @@
       <c r="M399" s="6"/>
       <c r="N399" s="6"/>
     </row>
-    <row r="400" ht="12.75" customHeight="1">
+    <row r="400" spans="2:14" ht="12.75" customHeight="1">
       <c r="B400" s="3"/>
       <c r="C400" s="6"/>
       <c r="D400" s="6"/>
@@ -6355,7 +6642,7 @@
       <c r="M400" s="6"/>
       <c r="N400" s="6"/>
     </row>
-    <row r="401" ht="12.75" customHeight="1">
+    <row r="401" spans="2:14" ht="12.75" customHeight="1">
       <c r="B401" s="3"/>
       <c r="C401" s="6"/>
       <c r="D401" s="6"/>
@@ -6370,7 +6657,7 @@
       <c r="M401" s="6"/>
       <c r="N401" s="6"/>
     </row>
-    <row r="402" ht="12.75" customHeight="1">
+    <row r="402" spans="2:14" ht="12.75" customHeight="1">
       <c r="B402" s="3"/>
       <c r="C402" s="6"/>
       <c r="D402" s="6"/>
@@ -6385,7 +6672,7 @@
       <c r="M402" s="6"/>
       <c r="N402" s="6"/>
     </row>
-    <row r="403" ht="12.75" customHeight="1">
+    <row r="403" spans="2:14" ht="12.75" customHeight="1">
       <c r="B403" s="3"/>
       <c r="C403" s="6"/>
       <c r="D403" s="6"/>
@@ -6400,7 +6687,7 @@
       <c r="M403" s="6"/>
       <c r="N403" s="6"/>
     </row>
-    <row r="404" ht="12.75" customHeight="1">
+    <row r="404" spans="2:14" ht="12.75" customHeight="1">
       <c r="B404" s="3"/>
       <c r="C404" s="6"/>
       <c r="D404" s="6"/>
@@ -6415,7 +6702,7 @@
       <c r="M404" s="6"/>
       <c r="N404" s="6"/>
     </row>
-    <row r="405" ht="12.75" customHeight="1">
+    <row r="405" spans="2:14" ht="12.75" customHeight="1">
       <c r="B405" s="3"/>
       <c r="C405" s="6"/>
       <c r="D405" s="6"/>
@@ -6430,7 +6717,7 @@
       <c r="M405" s="6"/>
       <c r="N405" s="6"/>
     </row>
-    <row r="406" ht="12.75" customHeight="1">
+    <row r="406" spans="2:14" ht="12.75" customHeight="1">
       <c r="B406" s="3"/>
       <c r="C406" s="6"/>
       <c r="D406" s="6"/>
@@ -6445,7 +6732,7 @@
       <c r="M406" s="6"/>
       <c r="N406" s="6"/>
     </row>
-    <row r="407" ht="12.75" customHeight="1">
+    <row r="407" spans="2:14" ht="12.75" customHeight="1">
       <c r="B407" s="3"/>
       <c r="C407" s="6"/>
       <c r="D407" s="6"/>
@@ -6460,7 +6747,7 @@
       <c r="M407" s="6"/>
       <c r="N407" s="6"/>
     </row>
-    <row r="408" ht="12.75" customHeight="1">
+    <row r="408" spans="2:14" ht="12.75" customHeight="1">
       <c r="B408" s="3"/>
       <c r="C408" s="6"/>
       <c r="D408" s="6"/>
@@ -6475,7 +6762,7 @@
       <c r="M408" s="6"/>
       <c r="N408" s="6"/>
     </row>
-    <row r="409" ht="12.75" customHeight="1">
+    <row r="409" spans="2:14" ht="12.75" customHeight="1">
       <c r="B409" s="3"/>
       <c r="C409" s="6"/>
       <c r="D409" s="6"/>
@@ -6490,7 +6777,7 @@
       <c r="M409" s="6"/>
       <c r="N409" s="6"/>
     </row>
-    <row r="410" ht="12.75" customHeight="1">
+    <row r="410" spans="2:14" ht="12.75" customHeight="1">
       <c r="B410" s="3"/>
       <c r="C410" s="6"/>
       <c r="D410" s="6"/>
@@ -6505,7 +6792,7 @@
       <c r="M410" s="6"/>
       <c r="N410" s="6"/>
     </row>
-    <row r="411" ht="12.75" customHeight="1">
+    <row r="411" spans="2:14" ht="12.75" customHeight="1">
       <c r="B411" s="3"/>
       <c r="C411" s="6"/>
       <c r="D411" s="6"/>
@@ -6520,7 +6807,7 @@
       <c r="M411" s="6"/>
       <c r="N411" s="6"/>
     </row>
-    <row r="412" ht="12.75" customHeight="1">
+    <row r="412" spans="2:14" ht="12.75" customHeight="1">
       <c r="B412" s="3"/>
       <c r="C412" s="6"/>
       <c r="D412" s="6"/>
@@ -6535,7 +6822,7 @@
       <c r="M412" s="6"/>
       <c r="N412" s="6"/>
     </row>
-    <row r="413" ht="12.75" customHeight="1">
+    <row r="413" spans="2:14" ht="12.75" customHeight="1">
       <c r="B413" s="3"/>
       <c r="C413" s="6"/>
       <c r="D413" s="6"/>
@@ -6550,7 +6837,7 @@
       <c r="M413" s="6"/>
       <c r="N413" s="6"/>
     </row>
-    <row r="414" ht="12.75" customHeight="1">
+    <row r="414" spans="2:14" ht="12.75" customHeight="1">
       <c r="B414" s="3"/>
       <c r="C414" s="6"/>
       <c r="D414" s="6"/>
@@ -6565,7 +6852,7 @@
       <c r="M414" s="6"/>
       <c r="N414" s="6"/>
     </row>
-    <row r="415" ht="12.75" customHeight="1">
+    <row r="415" spans="2:14" ht="12.75" customHeight="1">
       <c r="B415" s="3"/>
       <c r="C415" s="6"/>
       <c r="D415" s="6"/>
@@ -6580,7 +6867,7 @@
       <c r="M415" s="6"/>
       <c r="N415" s="6"/>
     </row>
-    <row r="416" ht="12.75" customHeight="1">
+    <row r="416" spans="2:14" ht="12.75" customHeight="1">
       <c r="B416" s="3"/>
       <c r="C416" s="6"/>
       <c r="D416" s="6"/>
@@ -6595,7 +6882,7 @@
       <c r="M416" s="6"/>
       <c r="N416" s="6"/>
     </row>
-    <row r="417" ht="12.75" customHeight="1">
+    <row r="417" spans="2:14" ht="12.75" customHeight="1">
       <c r="B417" s="3"/>
       <c r="C417" s="6"/>
       <c r="D417" s="6"/>
@@ -6610,7 +6897,7 @@
       <c r="M417" s="6"/>
       <c r="N417" s="6"/>
     </row>
-    <row r="418" ht="12.75" customHeight="1">
+    <row r="418" spans="2:14" ht="12.75" customHeight="1">
       <c r="B418" s="3"/>
       <c r="C418" s="6"/>
       <c r="D418" s="6"/>
@@ -6625,7 +6912,7 @@
       <c r="M418" s="6"/>
       <c r="N418" s="6"/>
     </row>
-    <row r="419" ht="12.75" customHeight="1">
+    <row r="419" spans="2:14" ht="12.75" customHeight="1">
       <c r="B419" s="3"/>
       <c r="C419" s="6"/>
       <c r="D419" s="6"/>
@@ -6640,7 +6927,7 @@
       <c r="M419" s="6"/>
       <c r="N419" s="6"/>
     </row>
-    <row r="420" ht="12.75" customHeight="1">
+    <row r="420" spans="2:14" ht="12.75" customHeight="1">
       <c r="B420" s="3"/>
       <c r="C420" s="6"/>
       <c r="D420" s="6"/>
@@ -6655,7 +6942,7 @@
       <c r="M420" s="6"/>
       <c r="N420" s="6"/>
     </row>
-    <row r="421" ht="12.75" customHeight="1">
+    <row r="421" spans="2:14" ht="12.75" customHeight="1">
       <c r="B421" s="3"/>
       <c r="C421" s="6"/>
       <c r="D421" s="6"/>
@@ -6670,7 +6957,7 @@
       <c r="M421" s="6"/>
       <c r="N421" s="6"/>
     </row>
-    <row r="422" ht="12.75" customHeight="1">
+    <row r="422" spans="2:14" ht="12.75" customHeight="1">
       <c r="B422" s="3"/>
       <c r="C422" s="6"/>
       <c r="D422" s="6"/>
@@ -6685,7 +6972,7 @@
       <c r="M422" s="6"/>
       <c r="N422" s="6"/>
     </row>
-    <row r="423" ht="12.75" customHeight="1">
+    <row r="423" spans="2:14" ht="12.75" customHeight="1">
       <c r="B423" s="3"/>
       <c r="C423" s="6"/>
       <c r="D423" s="6"/>
@@ -6700,7 +6987,7 @@
       <c r="M423" s="6"/>
       <c r="N423" s="6"/>
     </row>
-    <row r="424" ht="12.75" customHeight="1">
+    <row r="424" spans="2:14" ht="12.75" customHeight="1">
       <c r="B424" s="3"/>
       <c r="C424" s="6"/>
       <c r="D424" s="6"/>
@@ -6715,7 +7002,7 @@
       <c r="M424" s="6"/>
       <c r="N424" s="6"/>
     </row>
-    <row r="425" ht="12.75" customHeight="1">
+    <row r="425" spans="2:14" ht="12.75" customHeight="1">
       <c r="B425" s="3"/>
       <c r="C425" s="6"/>
       <c r="D425" s="6"/>
@@ -6730,7 +7017,7 @@
       <c r="M425" s="6"/>
       <c r="N425" s="6"/>
     </row>
-    <row r="426" ht="12.75" customHeight="1">
+    <row r="426" spans="2:14" ht="12.75" customHeight="1">
       <c r="B426" s="3"/>
       <c r="C426" s="6"/>
       <c r="D426" s="6"/>
@@ -6745,7 +7032,7 @@
       <c r="M426" s="6"/>
       <c r="N426" s="6"/>
     </row>
-    <row r="427" ht="12.75" customHeight="1">
+    <row r="427" spans="2:14" ht="12.75" customHeight="1">
       <c r="B427" s="3"/>
       <c r="C427" s="6"/>
       <c r="D427" s="6"/>
@@ -6760,7 +7047,7 @@
       <c r="M427" s="6"/>
       <c r="N427" s="6"/>
     </row>
-    <row r="428" ht="12.75" customHeight="1">
+    <row r="428" spans="2:14" ht="12.75" customHeight="1">
       <c r="B428" s="3"/>
       <c r="C428" s="6"/>
       <c r="D428" s="6"/>
@@ -6775,7 +7062,7 @@
       <c r="M428" s="6"/>
       <c r="N428" s="6"/>
     </row>
-    <row r="429" ht="12.75" customHeight="1">
+    <row r="429" spans="2:14" ht="12.75" customHeight="1">
       <c r="B429" s="3"/>
       <c r="C429" s="6"/>
       <c r="D429" s="6"/>
@@ -6790,7 +7077,7 @@
       <c r="M429" s="6"/>
       <c r="N429" s="6"/>
     </row>
-    <row r="430" ht="12.75" customHeight="1">
+    <row r="430" spans="2:14" ht="12.75" customHeight="1">
       <c r="B430" s="3"/>
       <c r="C430" s="6"/>
       <c r="D430" s="6"/>
@@ -6805,7 +7092,7 @@
       <c r="M430" s="6"/>
       <c r="N430" s="6"/>
     </row>
-    <row r="431" ht="12.75" customHeight="1">
+    <row r="431" spans="2:14" ht="12.75" customHeight="1">
       <c r="B431" s="3"/>
       <c r="C431" s="6"/>
       <c r="D431" s="6"/>
@@ -6820,7 +7107,7 @@
       <c r="M431" s="6"/>
       <c r="N431" s="6"/>
     </row>
-    <row r="432" ht="12.75" customHeight="1">
+    <row r="432" spans="2:14" ht="12.75" customHeight="1">
       <c r="B432" s="3"/>
       <c r="C432" s="6"/>
       <c r="D432" s="6"/>
@@ -6835,7 +7122,7 @@
       <c r="M432" s="6"/>
       <c r="N432" s="6"/>
     </row>
-    <row r="433" ht="12.75" customHeight="1">
+    <row r="433" spans="2:14" ht="12.75" customHeight="1">
       <c r="B433" s="3"/>
       <c r="C433" s="6"/>
       <c r="D433" s="6"/>
@@ -6850,7 +7137,7 @@
       <c r="M433" s="6"/>
       <c r="N433" s="6"/>
     </row>
-    <row r="434" ht="12.75" customHeight="1">
+    <row r="434" spans="2:14" ht="12.75" customHeight="1">
       <c r="B434" s="3"/>
       <c r="C434" s="6"/>
       <c r="D434" s="6"/>
@@ -6865,7 +7152,7 @@
       <c r="M434" s="6"/>
       <c r="N434" s="6"/>
     </row>
-    <row r="435" ht="12.75" customHeight="1">
+    <row r="435" spans="2:14" ht="12.75" customHeight="1">
       <c r="B435" s="3"/>
       <c r="C435" s="6"/>
       <c r="D435" s="6"/>
@@ -6880,7 +7167,7 @@
       <c r="M435" s="6"/>
       <c r="N435" s="6"/>
     </row>
-    <row r="436" ht="12.75" customHeight="1">
+    <row r="436" spans="2:14" ht="12.75" customHeight="1">
       <c r="B436" s="3"/>
       <c r="C436" s="6"/>
       <c r="D436" s="6"/>
@@ -6895,7 +7182,7 @@
       <c r="M436" s="6"/>
       <c r="N436" s="6"/>
     </row>
-    <row r="437" ht="12.75" customHeight="1">
+    <row r="437" spans="2:14" ht="12.75" customHeight="1">
       <c r="B437" s="3"/>
       <c r="C437" s="6"/>
       <c r="D437" s="6"/>
@@ -6910,7 +7197,7 @@
       <c r="M437" s="6"/>
       <c r="N437" s="6"/>
     </row>
-    <row r="438" ht="12.75" customHeight="1">
+    <row r="438" spans="2:14" ht="12.75" customHeight="1">
       <c r="B438" s="3"/>
       <c r="C438" s="6"/>
       <c r="D438" s="6"/>
@@ -6925,7 +7212,7 @@
       <c r="M438" s="6"/>
       <c r="N438" s="6"/>
     </row>
-    <row r="439" ht="12.75" customHeight="1">
+    <row r="439" spans="2:14" ht="12.75" customHeight="1">
       <c r="B439" s="3"/>
       <c r="C439" s="6"/>
       <c r="D439" s="6"/>
@@ -6940,7 +7227,7 @@
       <c r="M439" s="6"/>
       <c r="N439" s="6"/>
     </row>
-    <row r="440" ht="12.75" customHeight="1">
+    <row r="440" spans="2:14" ht="12.75" customHeight="1">
       <c r="B440" s="3"/>
       <c r="C440" s="6"/>
       <c r="D440" s="6"/>
@@ -6955,7 +7242,7 @@
       <c r="M440" s="6"/>
       <c r="N440" s="6"/>
     </row>
-    <row r="441" ht="12.75" customHeight="1">
+    <row r="441" spans="2:14" ht="12.75" customHeight="1">
       <c r="B441" s="3"/>
       <c r="C441" s="6"/>
       <c r="D441" s="6"/>
@@ -6970,7 +7257,7 @@
       <c r="M441" s="6"/>
       <c r="N441" s="6"/>
     </row>
-    <row r="442" ht="12.75" customHeight="1">
+    <row r="442" spans="2:14" ht="12.75" customHeight="1">
       <c r="B442" s="3"/>
       <c r="C442" s="6"/>
       <c r="D442" s="6"/>
@@ -6985,7 +7272,7 @@
       <c r="M442" s="6"/>
       <c r="N442" s="6"/>
     </row>
-    <row r="443" ht="12.75" customHeight="1">
+    <row r="443" spans="2:14" ht="12.75" customHeight="1">
       <c r="B443" s="3"/>
       <c r="C443" s="6"/>
       <c r="D443" s="6"/>
@@ -7000,7 +7287,7 @@
       <c r="M443" s="6"/>
       <c r="N443" s="6"/>
     </row>
-    <row r="444" ht="12.75" customHeight="1">
+    <row r="444" spans="2:14" ht="12.75" customHeight="1">
       <c r="B444" s="3"/>
       <c r="C444" s="6"/>
       <c r="D444" s="6"/>
@@ -7015,7 +7302,7 @@
       <c r="M444" s="6"/>
       <c r="N444" s="6"/>
     </row>
-    <row r="445" ht="12.75" customHeight="1">
+    <row r="445" spans="2:14" ht="12.75" customHeight="1">
       <c r="B445" s="3"/>
       <c r="C445" s="6"/>
       <c r="D445" s="6"/>
@@ -7030,7 +7317,7 @@
       <c r="M445" s="6"/>
       <c r="N445" s="6"/>
     </row>
-    <row r="446" ht="12.75" customHeight="1">
+    <row r="446" spans="2:14" ht="12.75" customHeight="1">
       <c r="B446" s="3"/>
       <c r="C446" s="6"/>
       <c r="D446" s="6"/>
@@ -7045,7 +7332,7 @@
       <c r="M446" s="6"/>
       <c r="N446" s="6"/>
     </row>
-    <row r="447" ht="12.75" customHeight="1">
+    <row r="447" spans="2:14" ht="12.75" customHeight="1">
       <c r="B447" s="3"/>
       <c r="C447" s="6"/>
       <c r="D447" s="6"/>
@@ -7060,7 +7347,7 @@
       <c r="M447" s="6"/>
       <c r="N447" s="6"/>
     </row>
-    <row r="448" ht="12.75" customHeight="1">
+    <row r="448" spans="2:14" ht="12.75" customHeight="1">
       <c r="B448" s="3"/>
       <c r="C448" s="6"/>
       <c r="D448" s="6"/>
@@ -7075,7 +7362,7 @@
       <c r="M448" s="6"/>
       <c r="N448" s="6"/>
     </row>
-    <row r="449" ht="12.75" customHeight="1">
+    <row r="449" spans="2:14" ht="12.75" customHeight="1">
       <c r="B449" s="3"/>
       <c r="C449" s="6"/>
       <c r="D449" s="6"/>
@@ -7090,7 +7377,7 @@
       <c r="M449" s="6"/>
       <c r="N449" s="6"/>
     </row>
-    <row r="450" ht="12.75" customHeight="1">
+    <row r="450" spans="2:14" ht="12.75" customHeight="1">
       <c r="B450" s="3"/>
       <c r="C450" s="6"/>
       <c r="D450" s="6"/>
@@ -7105,7 +7392,7 @@
       <c r="M450" s="6"/>
       <c r="N450" s="6"/>
     </row>
-    <row r="451" ht="12.75" customHeight="1">
+    <row r="451" spans="2:14" ht="12.75" customHeight="1">
       <c r="B451" s="3"/>
       <c r="C451" s="6"/>
       <c r="D451" s="6"/>
@@ -7120,7 +7407,7 @@
       <c r="M451" s="6"/>
       <c r="N451" s="6"/>
     </row>
-    <row r="452" ht="12.75" customHeight="1">
+    <row r="452" spans="2:14" ht="12.75" customHeight="1">
       <c r="B452" s="3"/>
       <c r="C452" s="6"/>
       <c r="D452" s="6"/>
@@ -7135,7 +7422,7 @@
       <c r="M452" s="6"/>
       <c r="N452" s="6"/>
     </row>
-    <row r="453" ht="12.75" customHeight="1">
+    <row r="453" spans="2:14" ht="12.75" customHeight="1">
       <c r="B453" s="3"/>
       <c r="C453" s="6"/>
       <c r="D453" s="6"/>
@@ -7150,7 +7437,7 @@
       <c r="M453" s="6"/>
       <c r="N453" s="6"/>
     </row>
-    <row r="454" ht="12.75" customHeight="1">
+    <row r="454" spans="2:14" ht="12.75" customHeight="1">
       <c r="B454" s="3"/>
       <c r="C454" s="6"/>
       <c r="D454" s="6"/>
@@ -7165,7 +7452,7 @@
       <c r="M454" s="6"/>
       <c r="N454" s="6"/>
     </row>
-    <row r="455" ht="12.75" customHeight="1">
+    <row r="455" spans="2:14" ht="12.75" customHeight="1">
       <c r="B455" s="3"/>
       <c r="C455" s="6"/>
       <c r="D455" s="6"/>
@@ -7180,7 +7467,7 @@
       <c r="M455" s="6"/>
       <c r="N455" s="6"/>
     </row>
-    <row r="456" ht="12.75" customHeight="1">
+    <row r="456" spans="2:14" ht="12.75" customHeight="1">
       <c r="B456" s="3"/>
       <c r="C456" s="6"/>
       <c r="D456" s="6"/>
@@ -7195,7 +7482,7 @@
       <c r="M456" s="6"/>
       <c r="N456" s="6"/>
     </row>
-    <row r="457" ht="12.75" customHeight="1">
+    <row r="457" spans="2:14" ht="12.75" customHeight="1">
       <c r="B457" s="3"/>
       <c r="C457" s="6"/>
       <c r="D457" s="6"/>
@@ -7210,7 +7497,7 @@
       <c r="M457" s="6"/>
       <c r="N457" s="6"/>
     </row>
-    <row r="458" ht="12.75" customHeight="1">
+    <row r="458" spans="2:14" ht="12.75" customHeight="1">
       <c r="B458" s="3"/>
       <c r="C458" s="6"/>
       <c r="D458" s="6"/>
@@ -7225,7 +7512,7 @@
       <c r="M458" s="6"/>
       <c r="N458" s="6"/>
     </row>
-    <row r="459" ht="12.75" customHeight="1">
+    <row r="459" spans="2:14" ht="12.75" customHeight="1">
       <c r="B459" s="3"/>
       <c r="C459" s="6"/>
       <c r="D459" s="6"/>
@@ -7240,7 +7527,7 @@
       <c r="M459" s="6"/>
       <c r="N459" s="6"/>
     </row>
-    <row r="460" ht="12.75" customHeight="1">
+    <row r="460" spans="2:14" ht="12.75" customHeight="1">
       <c r="B460" s="3"/>
       <c r="C460" s="6"/>
       <c r="D460" s="6"/>
@@ -7255,7 +7542,7 @@
       <c r="M460" s="6"/>
       <c r="N460" s="6"/>
     </row>
-    <row r="461" ht="12.75" customHeight="1">
+    <row r="461" spans="2:14" ht="12.75" customHeight="1">
       <c r="B461" s="3"/>
       <c r="C461" s="6"/>
       <c r="D461" s="6"/>
@@ -7270,7 +7557,7 @@
       <c r="M461" s="6"/>
       <c r="N461" s="6"/>
     </row>
-    <row r="462" ht="12.75" customHeight="1">
+    <row r="462" spans="2:14" ht="12.75" customHeight="1">
       <c r="B462" s="3"/>
       <c r="C462" s="6"/>
       <c r="D462" s="6"/>
@@ -7285,7 +7572,7 @@
       <c r="M462" s="6"/>
       <c r="N462" s="6"/>
     </row>
-    <row r="463" ht="12.75" customHeight="1">
+    <row r="463" spans="2:14" ht="12.75" customHeight="1">
       <c r="B463" s="3"/>
       <c r="C463" s="6"/>
       <c r="D463" s="6"/>
@@ -7300,7 +7587,7 @@
       <c r="M463" s="6"/>
       <c r="N463" s="6"/>
     </row>
-    <row r="464" ht="12.75" customHeight="1">
+    <row r="464" spans="2:14" ht="12.75" customHeight="1">
       <c r="B464" s="3"/>
       <c r="C464" s="6"/>
       <c r="D464" s="6"/>
@@ -7315,7 +7602,7 @@
       <c r="M464" s="6"/>
       <c r="N464" s="6"/>
     </row>
-    <row r="465" ht="12.75" customHeight="1">
+    <row r="465" spans="2:14" ht="12.75" customHeight="1">
       <c r="B465" s="3"/>
       <c r="C465" s="6"/>
       <c r="D465" s="6"/>
@@ -7330,7 +7617,7 @@
       <c r="M465" s="6"/>
       <c r="N465" s="6"/>
     </row>
-    <row r="466" ht="12.75" customHeight="1">
+    <row r="466" spans="2:14" ht="12.75" customHeight="1">
       <c r="B466" s="3"/>
       <c r="C466" s="6"/>
       <c r="D466" s="6"/>
@@ -7345,7 +7632,7 @@
       <c r="M466" s="6"/>
       <c r="N466" s="6"/>
     </row>
-    <row r="467" ht="12.75" customHeight="1">
+    <row r="467" spans="2:14" ht="12.75" customHeight="1">
       <c r="B467" s="3"/>
       <c r="C467" s="6"/>
       <c r="D467" s="6"/>
@@ -7360,7 +7647,7 @@
       <c r="M467" s="6"/>
       <c r="N467" s="6"/>
     </row>
-    <row r="468" ht="12.75" customHeight="1">
+    <row r="468" spans="2:14" ht="12.75" customHeight="1">
       <c r="B468" s="3"/>
       <c r="C468" s="6"/>
       <c r="D468" s="6"/>
@@ -7375,7 +7662,7 @@
       <c r="M468" s="6"/>
       <c r="N468" s="6"/>
     </row>
-    <row r="469" ht="12.75" customHeight="1">
+    <row r="469" spans="2:14" ht="12.75" customHeight="1">
       <c r="B469" s="3"/>
       <c r="C469" s="6"/>
       <c r="D469" s="6"/>
@@ -7390,7 +7677,7 @@
       <c r="M469" s="6"/>
       <c r="N469" s="6"/>
     </row>
-    <row r="470" ht="12.75" customHeight="1">
+    <row r="470" spans="2:14" ht="12.75" customHeight="1">
       <c r="B470" s="3"/>
       <c r="C470" s="6"/>
       <c r="D470" s="6"/>
@@ -7405,7 +7692,7 @@
       <c r="M470" s="6"/>
       <c r="N470" s="6"/>
     </row>
-    <row r="471" ht="12.75" customHeight="1">
+    <row r="471" spans="2:14" ht="12.75" customHeight="1">
       <c r="B471" s="3"/>
       <c r="C471" s="6"/>
       <c r="D471" s="6"/>
@@ -7420,7 +7707,7 @@
       <c r="M471" s="6"/>
       <c r="N471" s="6"/>
     </row>
-    <row r="472" ht="12.75" customHeight="1">
+    <row r="472" spans="2:14" ht="12.75" customHeight="1">
       <c r="B472" s="3"/>
       <c r="C472" s="6"/>
       <c r="D472" s="6"/>
@@ -7435,7 +7722,7 @@
       <c r="M472" s="6"/>
       <c r="N472" s="6"/>
     </row>
-    <row r="473" ht="12.75" customHeight="1">
+    <row r="473" spans="2:14" ht="12.75" customHeight="1">
       <c r="B473" s="3"/>
       <c r="C473" s="6"/>
       <c r="D473" s="6"/>
@@ -7450,7 +7737,7 @@
       <c r="M473" s="6"/>
       <c r="N473" s="6"/>
     </row>
-    <row r="474" ht="12.75" customHeight="1">
+    <row r="474" spans="2:14" ht="12.75" customHeight="1">
       <c r="B474" s="3"/>
       <c r="C474" s="6"/>
       <c r="D474" s="6"/>
@@ -7465,7 +7752,7 @@
       <c r="M474" s="6"/>
       <c r="N474" s="6"/>
     </row>
-    <row r="475" ht="12.75" customHeight="1">
+    <row r="475" spans="2:14" ht="12.75" customHeight="1">
       <c r="B475" s="3"/>
       <c r="C475" s="6"/>
       <c r="D475" s="6"/>
@@ -7480,7 +7767,7 @@
       <c r="M475" s="6"/>
       <c r="N475" s="6"/>
     </row>
-    <row r="476" ht="12.75" customHeight="1">
+    <row r="476" spans="2:14" ht="12.75" customHeight="1">
       <c r="B476" s="3"/>
       <c r="C476" s="6"/>
       <c r="D476" s="6"/>
@@ -7495,7 +7782,7 @@
       <c r="M476" s="6"/>
       <c r="N476" s="6"/>
     </row>
-    <row r="477" ht="12.75" customHeight="1">
+    <row r="477" spans="2:14" ht="12.75" customHeight="1">
       <c r="B477" s="3"/>
       <c r="C477" s="6"/>
       <c r="D477" s="6"/>
@@ -7510,7 +7797,7 @@
       <c r="M477" s="6"/>
       <c r="N477" s="6"/>
     </row>
-    <row r="478" ht="12.75" customHeight="1">
+    <row r="478" spans="2:14" ht="12.75" customHeight="1">
       <c r="B478" s="3"/>
       <c r="C478" s="6"/>
       <c r="D478" s="6"/>
@@ -7525,7 +7812,7 @@
       <c r="M478" s="6"/>
       <c r="N478" s="6"/>
     </row>
-    <row r="479" ht="12.75" customHeight="1">
+    <row r="479" spans="2:14" ht="12.75" customHeight="1">
       <c r="B479" s="3"/>
       <c r="C479" s="6"/>
       <c r="D479" s="6"/>
@@ -7540,7 +7827,7 @@
       <c r="M479" s="6"/>
       <c r="N479" s="6"/>
     </row>
-    <row r="480" ht="12.75" customHeight="1">
+    <row r="480" spans="2:14" ht="12.75" customHeight="1">
       <c r="B480" s="3"/>
       <c r="C480" s="6"/>
       <c r="D480" s="6"/>
@@ -7555,7 +7842,7 @@
       <c r="M480" s="6"/>
       <c r="N480" s="6"/>
     </row>
-    <row r="481" ht="12.75" customHeight="1">
+    <row r="481" spans="2:14" ht="12.75" customHeight="1">
       <c r="B481" s="3"/>
       <c r="C481" s="6"/>
       <c r="D481" s="6"/>
@@ -7570,7 +7857,7 @@
       <c r="M481" s="6"/>
       <c r="N481" s="6"/>
     </row>
-    <row r="482" ht="12.75" customHeight="1">
+    <row r="482" spans="2:14" ht="12.75" customHeight="1">
       <c r="B482" s="3"/>
       <c r="C482" s="6"/>
       <c r="D482" s="6"/>
@@ -7585,7 +7872,7 @@
       <c r="M482" s="6"/>
       <c r="N482" s="6"/>
     </row>
-    <row r="483" ht="12.75" customHeight="1">
+    <row r="483" spans="2:14" ht="12.75" customHeight="1">
       <c r="B483" s="3"/>
       <c r="C483" s="6"/>
       <c r="D483" s="6"/>
@@ -7600,7 +7887,7 @@
       <c r="M483" s="6"/>
       <c r="N483" s="6"/>
     </row>
-    <row r="484" ht="12.75" customHeight="1">
+    <row r="484" spans="2:14" ht="12.75" customHeight="1">
       <c r="B484" s="3"/>
       <c r="C484" s="6"/>
       <c r="D484" s="6"/>
@@ -7615,7 +7902,7 @@
       <c r="M484" s="6"/>
       <c r="N484" s="6"/>
     </row>
-    <row r="485" ht="12.75" customHeight="1">
+    <row r="485" spans="2:14" ht="12.75" customHeight="1">
       <c r="B485" s="3"/>
       <c r="C485" s="6"/>
       <c r="D485" s="6"/>
@@ -7630,7 +7917,7 @@
       <c r="M485" s="6"/>
       <c r="N485" s="6"/>
     </row>
-    <row r="486" ht="12.75" customHeight="1">
+    <row r="486" spans="2:14" ht="12.75" customHeight="1">
       <c r="B486" s="3"/>
       <c r="C486" s="6"/>
       <c r="D486" s="6"/>
@@ -7645,7 +7932,7 @@
       <c r="M486" s="6"/>
       <c r="N486" s="6"/>
     </row>
-    <row r="487" ht="12.75" customHeight="1">
+    <row r="487" spans="2:14" ht="12.75" customHeight="1">
       <c r="B487" s="3"/>
       <c r="C487" s="6"/>
       <c r="D487" s="6"/>
@@ -7660,7 +7947,7 @@
       <c r="M487" s="6"/>
       <c r="N487" s="6"/>
     </row>
-    <row r="488" ht="12.75" customHeight="1">
+    <row r="488" spans="2:14" ht="12.75" customHeight="1">
       <c r="B488" s="3"/>
       <c r="C488" s="6"/>
       <c r="D488" s="6"/>
@@ -7675,7 +7962,7 @@
       <c r="M488" s="6"/>
       <c r="N488" s="6"/>
     </row>
-    <row r="489" ht="12.75" customHeight="1">
+    <row r="489" spans="2:14" ht="12.75" customHeight="1">
       <c r="B489" s="3"/>
       <c r="C489" s="6"/>
       <c r="D489" s="6"/>
@@ -7690,7 +7977,7 @@
       <c r="M489" s="6"/>
       <c r="N489" s="6"/>
     </row>
-    <row r="490" ht="12.75" customHeight="1">
+    <row r="490" spans="2:14" ht="12.75" customHeight="1">
       <c r="B490" s="3"/>
       <c r="C490" s="6"/>
       <c r="D490" s="6"/>
@@ -7705,7 +7992,7 @@
       <c r="M490" s="6"/>
       <c r="N490" s="6"/>
     </row>
-    <row r="491" ht="12.75" customHeight="1">
+    <row r="491" spans="2:14" ht="12.75" customHeight="1">
       <c r="B491" s="3"/>
       <c r="C491" s="6"/>
       <c r="D491" s="6"/>
@@ -7720,7 +8007,7 @@
       <c r="M491" s="6"/>
       <c r="N491" s="6"/>
     </row>
-    <row r="492" ht="12.75" customHeight="1">
+    <row r="492" spans="2:14" ht="12.75" customHeight="1">
       <c r="B492" s="3"/>
       <c r="C492" s="6"/>
       <c r="D492" s="6"/>
@@ -7735,7 +8022,7 @@
       <c r="M492" s="6"/>
       <c r="N492" s="6"/>
     </row>
-    <row r="493" ht="12.75" customHeight="1">
+    <row r="493" spans="2:14" ht="12.75" customHeight="1">
       <c r="B493" s="3"/>
       <c r="C493" s="6"/>
       <c r="D493" s="6"/>
@@ -7750,7 +8037,7 @@
       <c r="M493" s="6"/>
       <c r="N493" s="6"/>
     </row>
-    <row r="494" ht="12.75" customHeight="1">
+    <row r="494" spans="2:14" ht="12.75" customHeight="1">
       <c r="B494" s="3"/>
       <c r="C494" s="6"/>
       <c r="D494" s="6"/>
@@ -7765,7 +8052,7 @@
       <c r="M494" s="6"/>
       <c r="N494" s="6"/>
     </row>
-    <row r="495" ht="12.75" customHeight="1">
+    <row r="495" spans="2:14" ht="12.75" customHeight="1">
       <c r="B495" s="3"/>
       <c r="C495" s="6"/>
       <c r="D495" s="6"/>
@@ -7780,7 +8067,7 @@
       <c r="M495" s="6"/>
       <c r="N495" s="6"/>
     </row>
-    <row r="496" ht="12.75" customHeight="1">
+    <row r="496" spans="2:14" ht="12.75" customHeight="1">
       <c r="B496" s="3"/>
       <c r="C496" s="6"/>
       <c r="D496" s="6"/>
@@ -7795,7 +8082,7 @@
       <c r="M496" s="6"/>
       <c r="N496" s="6"/>
     </row>
-    <row r="497" ht="12.75" customHeight="1">
+    <row r="497" spans="2:14" ht="12.75" customHeight="1">
       <c r="B497" s="3"/>
       <c r="C497" s="6"/>
       <c r="D497" s="6"/>
@@ -7810,7 +8097,7 @@
       <c r="M497" s="6"/>
       <c r="N497" s="6"/>
     </row>
-    <row r="498" ht="12.75" customHeight="1">
+    <row r="498" spans="2:14" ht="12.75" customHeight="1">
       <c r="B498" s="3"/>
       <c r="C498" s="6"/>
       <c r="D498" s="6"/>
@@ -7825,7 +8112,7 @@
       <c r="M498" s="6"/>
       <c r="N498" s="6"/>
     </row>
-    <row r="499" ht="12.75" customHeight="1">
+    <row r="499" spans="2:14" ht="12.75" customHeight="1">
       <c r="B499" s="3"/>
       <c r="C499" s="6"/>
       <c r="D499" s="6"/>
@@ -7840,7 +8127,7 @@
       <c r="M499" s="6"/>
       <c r="N499" s="6"/>
     </row>
-    <row r="500" ht="12.75" customHeight="1">
+    <row r="500" spans="2:14" ht="12.75" customHeight="1">
       <c r="B500" s="3"/>
       <c r="C500" s="6"/>
       <c r="D500" s="6"/>
@@ -7855,7 +8142,7 @@
       <c r="M500" s="6"/>
       <c r="N500" s="6"/>
     </row>
-    <row r="501" ht="12.75" customHeight="1">
+    <row r="501" spans="2:14" ht="12.75" customHeight="1">
       <c r="B501" s="3"/>
       <c r="C501" s="6"/>
       <c r="D501" s="6"/>
@@ -7870,7 +8157,7 @@
       <c r="M501" s="6"/>
       <c r="N501" s="6"/>
     </row>
-    <row r="502" ht="12.75" customHeight="1">
+    <row r="502" spans="2:14" ht="12.75" customHeight="1">
       <c r="B502" s="3"/>
       <c r="C502" s="6"/>
       <c r="D502" s="6"/>
@@ -7885,7 +8172,7 @@
       <c r="M502" s="6"/>
       <c r="N502" s="6"/>
     </row>
-    <row r="503" ht="12.75" customHeight="1">
+    <row r="503" spans="2:14" ht="12.75" customHeight="1">
       <c r="B503" s="3"/>
       <c r="C503" s="6"/>
       <c r="D503" s="6"/>
@@ -7900,7 +8187,7 @@
       <c r="M503" s="6"/>
       <c r="N503" s="6"/>
     </row>
-    <row r="504" ht="12.75" customHeight="1">
+    <row r="504" spans="2:14" ht="12.75" customHeight="1">
       <c r="B504" s="3"/>
       <c r="C504" s="6"/>
       <c r="D504" s="6"/>
@@ -7915,7 +8202,7 @@
       <c r="M504" s="6"/>
       <c r="N504" s="6"/>
     </row>
-    <row r="505" ht="12.75" customHeight="1">
+    <row r="505" spans="2:14" ht="12.75" customHeight="1">
       <c r="B505" s="3"/>
       <c r="C505" s="6"/>
       <c r="D505" s="6"/>
@@ -7930,7 +8217,7 @@
       <c r="M505" s="6"/>
       <c r="N505" s="6"/>
     </row>
-    <row r="506" ht="12.75" customHeight="1">
+    <row r="506" spans="2:14" ht="12.75" customHeight="1">
       <c r="B506" s="3"/>
       <c r="C506" s="6"/>
       <c r="D506" s="6"/>
@@ -7945,7 +8232,7 @@
       <c r="M506" s="6"/>
       <c r="N506" s="6"/>
     </row>
-    <row r="507" ht="12.75" customHeight="1">
+    <row r="507" spans="2:14" ht="12.75" customHeight="1">
       <c r="B507" s="3"/>
       <c r="C507" s="6"/>
       <c r="D507" s="6"/>
@@ -7960,7 +8247,7 @@
       <c r="M507" s="6"/>
       <c r="N507" s="6"/>
     </row>
-    <row r="508" ht="12.75" customHeight="1">
+    <row r="508" spans="2:14" ht="12.75" customHeight="1">
       <c r="B508" s="3"/>
       <c r="C508" s="6"/>
       <c r="D508" s="6"/>
@@ -7975,7 +8262,7 @@
       <c r="M508" s="6"/>
       <c r="N508" s="6"/>
     </row>
-    <row r="509" ht="12.75" customHeight="1">
+    <row r="509" spans="2:14" ht="12.75" customHeight="1">
       <c r="B509" s="3"/>
       <c r="C509" s="6"/>
       <c r="D509" s="6"/>
@@ -7990,7 +8277,7 @@
       <c r="M509" s="6"/>
       <c r="N509" s="6"/>
     </row>
-    <row r="510" ht="12.75" customHeight="1">
+    <row r="510" spans="2:14" ht="12.75" customHeight="1">
       <c r="B510" s="3"/>
       <c r="C510" s="6"/>
       <c r="D510" s="6"/>
@@ -8005,7 +8292,7 @@
       <c r="M510" s="6"/>
       <c r="N510" s="6"/>
     </row>
-    <row r="511" ht="12.75" customHeight="1">
+    <row r="511" spans="2:14" ht="12.75" customHeight="1">
       <c r="B511" s="3"/>
       <c r="C511" s="6"/>
       <c r="D511" s="6"/>
@@ -8020,7 +8307,7 @@
       <c r="M511" s="6"/>
       <c r="N511" s="6"/>
     </row>
-    <row r="512" ht="12.75" customHeight="1">
+    <row r="512" spans="2:14" ht="12.75" customHeight="1">
       <c r="B512" s="3"/>
       <c r="C512" s="6"/>
       <c r="D512" s="6"/>
@@ -8035,7 +8322,7 @@
       <c r="M512" s="6"/>
       <c r="N512" s="6"/>
     </row>
-    <row r="513" ht="12.75" customHeight="1">
+    <row r="513" spans="2:14" ht="12.75" customHeight="1">
       <c r="B513" s="3"/>
       <c r="C513" s="6"/>
       <c r="D513" s="6"/>
@@ -8050,7 +8337,7 @@
       <c r="M513" s="6"/>
       <c r="N513" s="6"/>
     </row>
-    <row r="514" ht="12.75" customHeight="1">
+    <row r="514" spans="2:14" ht="12.75" customHeight="1">
       <c r="B514" s="3"/>
       <c r="C514" s="6"/>
       <c r="D514" s="6"/>
@@ -8065,7 +8352,7 @@
       <c r="M514" s="6"/>
       <c r="N514" s="6"/>
     </row>
-    <row r="515" ht="12.75" customHeight="1">
+    <row r="515" spans="2:14" ht="12.75" customHeight="1">
       <c r="B515" s="3"/>
       <c r="C515" s="6"/>
       <c r="D515" s="6"/>
@@ -8080,7 +8367,7 @@
       <c r="M515" s="6"/>
       <c r="N515" s="6"/>
     </row>
-    <row r="516" ht="12.75" customHeight="1">
+    <row r="516" spans="2:14" ht="12.75" customHeight="1">
       <c r="B516" s="3"/>
       <c r="C516" s="6"/>
       <c r="D516" s="6"/>
@@ -8095,7 +8382,7 @@
       <c r="M516" s="6"/>
       <c r="N516" s="6"/>
     </row>
-    <row r="517" ht="12.75" customHeight="1">
+    <row r="517" spans="2:14" ht="12.75" customHeight="1">
       <c r="B517" s="3"/>
       <c r="C517" s="6"/>
       <c r="D517" s="6"/>
@@ -8110,7 +8397,7 @@
       <c r="M517" s="6"/>
       <c r="N517" s="6"/>
     </row>
-    <row r="518" ht="12.75" customHeight="1">
+    <row r="518" spans="2:14" ht="12.75" customHeight="1">
       <c r="B518" s="3"/>
       <c r="C518" s="6"/>
       <c r="D518" s="6"/>
@@ -8125,7 +8412,7 @@
       <c r="M518" s="6"/>
       <c r="N518" s="6"/>
     </row>
-    <row r="519" ht="12.75" customHeight="1">
+    <row r="519" spans="2:14" ht="12.75" customHeight="1">
       <c r="B519" s="3"/>
       <c r="C519" s="6"/>
       <c r="D519" s="6"/>
@@ -8140,7 +8427,7 @@
       <c r="M519" s="6"/>
       <c r="N519" s="6"/>
     </row>
-    <row r="520" ht="12.75" customHeight="1">
+    <row r="520" spans="2:14" ht="12.75" customHeight="1">
       <c r="B520" s="3"/>
       <c r="C520" s="6"/>
       <c r="D520" s="6"/>
@@ -8155,7 +8442,7 @@
       <c r="M520" s="6"/>
       <c r="N520" s="6"/>
     </row>
-    <row r="521" ht="12.75" customHeight="1">
+    <row r="521" spans="2:14" ht="12.75" customHeight="1">
       <c r="B521" s="3"/>
       <c r="C521" s="6"/>
       <c r="D521" s="6"/>
@@ -8170,7 +8457,7 @@
       <c r="M521" s="6"/>
       <c r="N521" s="6"/>
     </row>
-    <row r="522" ht="12.75" customHeight="1">
+    <row r="522" spans="2:14" ht="12.75" customHeight="1">
       <c r="B522" s="3"/>
       <c r="C522" s="6"/>
       <c r="D522" s="6"/>
@@ -8185,7 +8472,7 @@
       <c r="M522" s="6"/>
       <c r="N522" s="6"/>
     </row>
-    <row r="523" ht="12.75" customHeight="1">
+    <row r="523" spans="2:14" ht="12.75" customHeight="1">
       <c r="B523" s="3"/>
       <c r="C523" s="6"/>
       <c r="D523" s="6"/>
@@ -8200,7 +8487,7 @@
       <c r="M523" s="6"/>
       <c r="N523" s="6"/>
     </row>
-    <row r="524" ht="12.75" customHeight="1">
+    <row r="524" spans="2:14" ht="12.75" customHeight="1">
       <c r="B524" s="3"/>
       <c r="C524" s="6"/>
       <c r="D524" s="6"/>
@@ -8215,7 +8502,7 @@
       <c r="M524" s="6"/>
       <c r="N524" s="6"/>
     </row>
-    <row r="525" ht="12.75" customHeight="1">
+    <row r="525" spans="2:14" ht="12.75" customHeight="1">
       <c r="B525" s="3"/>
       <c r="C525" s="6"/>
       <c r="D525" s="6"/>
@@ -8230,7 +8517,7 @@
       <c r="M525" s="6"/>
       <c r="N525" s="6"/>
     </row>
-    <row r="526" ht="12.75" customHeight="1">
+    <row r="526" spans="2:14" ht="12.75" customHeight="1">
       <c r="B526" s="3"/>
       <c r="C526" s="6"/>
       <c r="D526" s="6"/>
@@ -8245,7 +8532,7 @@
       <c r="M526" s="6"/>
       <c r="N526" s="6"/>
     </row>
-    <row r="527" ht="12.75" customHeight="1">
+    <row r="527" spans="2:14" ht="12.75" customHeight="1">
       <c r="B527" s="3"/>
       <c r="C527" s="6"/>
       <c r="D527" s="6"/>
@@ -8260,7 +8547,7 @@
       <c r="M527" s="6"/>
       <c r="N527" s="6"/>
     </row>
-    <row r="528" ht="12.75" customHeight="1">
+    <row r="528" spans="2:14" ht="12.75" customHeight="1">
       <c r="B528" s="3"/>
       <c r="C528" s="6"/>
       <c r="D528" s="6"/>
@@ -8275,7 +8562,7 @@
       <c r="M528" s="6"/>
       <c r="N528" s="6"/>
     </row>
-    <row r="529" ht="12.75" customHeight="1">
+    <row r="529" spans="2:14" ht="12.75" customHeight="1">
       <c r="B529" s="3"/>
       <c r="C529" s="6"/>
       <c r="D529" s="6"/>
@@ -8290,7 +8577,7 @@
       <c r="M529" s="6"/>
       <c r="N529" s="6"/>
     </row>
-    <row r="530" ht="12.75" customHeight="1">
+    <row r="530" spans="2:14" ht="12.75" customHeight="1">
       <c r="B530" s="3"/>
       <c r="C530" s="6"/>
       <c r="D530" s="6"/>
@@ -8305,7 +8592,7 @@
       <c r="M530" s="6"/>
       <c r="N530" s="6"/>
     </row>
-    <row r="531" ht="12.75" customHeight="1">
+    <row r="531" spans="2:14" ht="12.75" customHeight="1">
       <c r="B531" s="3"/>
       <c r="C531" s="6"/>
       <c r="D531" s="6"/>
@@ -8320,7 +8607,7 @@
       <c r="M531" s="6"/>
       <c r="N531" s="6"/>
     </row>
-    <row r="532" ht="12.75" customHeight="1">
+    <row r="532" spans="2:14" ht="12.75" customHeight="1">
       <c r="B532" s="3"/>
       <c r="C532" s="6"/>
       <c r="D532" s="6"/>
@@ -8335,7 +8622,7 @@
       <c r="M532" s="6"/>
       <c r="N532" s="6"/>
     </row>
-    <row r="533" ht="12.75" customHeight="1">
+    <row r="533" spans="2:14" ht="12.75" customHeight="1">
       <c r="B533" s="3"/>
       <c r="C533" s="6"/>
       <c r="D533" s="6"/>
@@ -8350,7 +8637,7 @@
       <c r="M533" s="6"/>
       <c r="N533" s="6"/>
     </row>
-    <row r="534" ht="12.75" customHeight="1">
+    <row r="534" spans="2:14" ht="12.75" customHeight="1">
       <c r="B534" s="3"/>
       <c r="C534" s="6"/>
       <c r="D534" s="6"/>
@@ -8365,7 +8652,7 @@
       <c r="M534" s="6"/>
       <c r="N534" s="6"/>
     </row>
-    <row r="535" ht="12.75" customHeight="1">
+    <row r="535" spans="2:14" ht="12.75" customHeight="1">
       <c r="B535" s="3"/>
       <c r="C535" s="6"/>
       <c r="D535" s="6"/>
@@ -8380,7 +8667,7 @@
       <c r="M535" s="6"/>
       <c r="N535" s="6"/>
     </row>
-    <row r="536" ht="12.75" customHeight="1">
+    <row r="536" spans="2:14" ht="12.75" customHeight="1">
       <c r="B536" s="3"/>
       <c r="C536" s="6"/>
       <c r="D536" s="6"/>
@@ -8395,7 +8682,7 @@
       <c r="M536" s="6"/>
       <c r="N536" s="6"/>
     </row>
-    <row r="537" ht="12.75" customHeight="1">
+    <row r="537" spans="2:14" ht="12.75" customHeight="1">
       <c r="B537" s="3"/>
       <c r="C537" s="6"/>
       <c r="D537" s="6"/>
@@ -8410,7 +8697,7 @@
       <c r="M537" s="6"/>
       <c r="N537" s="6"/>
     </row>
-    <row r="538" ht="12.75" customHeight="1">
+    <row r="538" spans="2:14" ht="12.75" customHeight="1">
       <c r="B538" s="3"/>
       <c r="C538" s="6"/>
       <c r="D538" s="6"/>
@@ -8425,7 +8712,7 @@
       <c r="M538" s="6"/>
       <c r="N538" s="6"/>
     </row>
-    <row r="539" ht="12.75" customHeight="1">
+    <row r="539" spans="2:14" ht="12.75" customHeight="1">
       <c r="B539" s="3"/>
       <c r="C539" s="6"/>
       <c r="D539" s="6"/>
@@ -8440,7 +8727,7 @@
       <c r="M539" s="6"/>
       <c r="N539" s="6"/>
     </row>
-    <row r="540" ht="12.75" customHeight="1">
+    <row r="540" spans="2:14" ht="12.75" customHeight="1">
       <c r="B540" s="3"/>
       <c r="C540" s="6"/>
       <c r="D540" s="6"/>
@@ -8455,7 +8742,7 @@
       <c r="M540" s="6"/>
       <c r="N540" s="6"/>
     </row>
-    <row r="541" ht="12.75" customHeight="1">
+    <row r="541" spans="2:14" ht="12.75" customHeight="1">
       <c r="B541" s="3"/>
       <c r="C541" s="6"/>
       <c r="D541" s="6"/>
@@ -8470,7 +8757,7 @@
       <c r="M541" s="6"/>
       <c r="N541" s="6"/>
     </row>
-    <row r="542" ht="12.75" customHeight="1">
+    <row r="542" spans="2:14" ht="12.75" customHeight="1">
       <c r="B542" s="3"/>
       <c r="C542" s="6"/>
       <c r="D542" s="6"/>
@@ -8485,7 +8772,7 @@
       <c r="M542" s="6"/>
       <c r="N542" s="6"/>
     </row>
-    <row r="543" ht="12.75" customHeight="1">
+    <row r="543" spans="2:14" ht="12.75" customHeight="1">
       <c r="B543" s="3"/>
       <c r="C543" s="6"/>
       <c r="D543" s="6"/>
@@ -8500,7 +8787,7 @@
       <c r="M543" s="6"/>
       <c r="N543" s="6"/>
     </row>
-    <row r="544" ht="12.75" customHeight="1">
+    <row r="544" spans="2:14" ht="12.75" customHeight="1">
       <c r="B544" s="3"/>
       <c r="C544" s="6"/>
       <c r="D544" s="6"/>
@@ -8515,7 +8802,7 @@
       <c r="M544" s="6"/>
       <c r="N544" s="6"/>
     </row>
-    <row r="545" ht="12.75" customHeight="1">
+    <row r="545" spans="2:14" ht="12.75" customHeight="1">
       <c r="B545" s="3"/>
       <c r="C545" s="6"/>
       <c r="D545" s="6"/>
@@ -8530,7 +8817,7 @@
       <c r="M545" s="6"/>
       <c r="N545" s="6"/>
     </row>
-    <row r="546" ht="12.75" customHeight="1">
+    <row r="546" spans="2:14" ht="12.75" customHeight="1">
       <c r="B546" s="3"/>
       <c r="C546" s="6"/>
       <c r="D546" s="6"/>
@@ -8545,7 +8832,7 @@
       <c r="M546" s="6"/>
       <c r="N546" s="6"/>
     </row>
-    <row r="547" ht="12.75" customHeight="1">
+    <row r="547" spans="2:14" ht="12.75" customHeight="1">
       <c r="B547" s="3"/>
       <c r="C547" s="6"/>
       <c r="D547" s="6"/>
@@ -8560,7 +8847,7 @@
       <c r="M547" s="6"/>
       <c r="N547" s="6"/>
     </row>
-    <row r="548" ht="12.75" customHeight="1">
+    <row r="548" spans="2:14" ht="12.75" customHeight="1">
       <c r="B548" s="3"/>
       <c r="C548" s="6"/>
       <c r="D548" s="6"/>
@@ -8575,7 +8862,7 @@
       <c r="M548" s="6"/>
       <c r="N548" s="6"/>
     </row>
-    <row r="549" ht="12.75" customHeight="1">
+    <row r="549" spans="2:14" ht="12.75" customHeight="1">
       <c r="B549" s="3"/>
       <c r="C549" s="6"/>
       <c r="D549" s="6"/>
@@ -8590,7 +8877,7 @@
       <c r="M549" s="6"/>
       <c r="N549" s="6"/>
     </row>
-    <row r="550" ht="12.75" customHeight="1">
+    <row r="550" spans="2:14" ht="12.75" customHeight="1">
       <c r="B550" s="3"/>
       <c r="C550" s="6"/>
       <c r="D550" s="6"/>
@@ -8605,7 +8892,7 @@
       <c r="M550" s="6"/>
       <c r="N550" s="6"/>
     </row>
-    <row r="551" ht="12.75" customHeight="1">
+    <row r="551" spans="2:14" ht="12.75" customHeight="1">
       <c r="B551" s="3"/>
       <c r="C551" s="6"/>
       <c r="D551" s="6"/>
@@ -8620,7 +8907,7 @@
       <c r="M551" s="6"/>
       <c r="N551" s="6"/>
     </row>
-    <row r="552" ht="12.75" customHeight="1">
+    <row r="552" spans="2:14" ht="12.75" customHeight="1">
       <c r="B552" s="3"/>
       <c r="C552" s="6"/>
       <c r="D552" s="6"/>
@@ -8635,7 +8922,7 @@
       <c r="M552" s="6"/>
       <c r="N552" s="6"/>
     </row>
-    <row r="553" ht="12.75" customHeight="1">
+    <row r="553" spans="2:14" ht="12.75" customHeight="1">
       <c r="B553" s="3"/>
       <c r="C553" s="6"/>
       <c r="D553" s="6"/>
@@ -8650,7 +8937,7 @@
       <c r="M553" s="6"/>
       <c r="N553" s="6"/>
     </row>
-    <row r="554" ht="12.75" customHeight="1">
+    <row r="554" spans="2:14" ht="12.75" customHeight="1">
       <c r="B554" s="3"/>
       <c r="C554" s="6"/>
       <c r="D554" s="6"/>
@@ -8665,7 +8952,7 @@
       <c r="M554" s="6"/>
       <c r="N554" s="6"/>
     </row>
-    <row r="555" ht="12.75" customHeight="1">
+    <row r="555" spans="2:14" ht="12.75" customHeight="1">
       <c r="B555" s="3"/>
       <c r="C555" s="6"/>
       <c r="D555" s="6"/>
@@ -8680,7 +8967,7 @@
       <c r="M555" s="6"/>
       <c r="N555" s="6"/>
     </row>
-    <row r="556" ht="12.75" customHeight="1">
+    <row r="556" spans="2:14" ht="12.75" customHeight="1">
       <c r="B556" s="3"/>
       <c r="C556" s="6"/>
       <c r="D556" s="6"/>
@@ -8695,7 +8982,7 @@
       <c r="M556" s="6"/>
       <c r="N556" s="6"/>
     </row>
-    <row r="557" ht="12.75" customHeight="1">
+    <row r="557" spans="2:14" ht="12.75" customHeight="1">
       <c r="B557" s="3"/>
       <c r="C557" s="6"/>
       <c r="D557" s="6"/>
@@ -8710,7 +8997,7 @@
       <c r="M557" s="6"/>
       <c r="N557" s="6"/>
     </row>
-    <row r="558" ht="12.75" customHeight="1">
+    <row r="558" spans="2:14" ht="12.75" customHeight="1">
       <c r="B558" s="3"/>
       <c r="C558" s="6"/>
       <c r="D558" s="6"/>
@@ -8725,7 +9012,7 @@
       <c r="M558" s="6"/>
       <c r="N558" s="6"/>
     </row>
-    <row r="559" ht="12.75" customHeight="1">
+    <row r="559" spans="2:14" ht="12.75" customHeight="1">
       <c r="B559" s="3"/>
       <c r="C559" s="6"/>
       <c r="D559" s="6"/>
@@ -8740,7 +9027,7 @@
       <c r="M559" s="6"/>
       <c r="N559" s="6"/>
     </row>
-    <row r="560" ht="12.75" customHeight="1">
+    <row r="560" spans="2:14" ht="12.75" customHeight="1">
       <c r="B560" s="3"/>
       <c r="C560" s="6"/>
       <c r="D560" s="6"/>
@@ -8755,7 +9042,7 @@
       <c r="M560" s="6"/>
       <c r="N560" s="6"/>
     </row>
-    <row r="561" ht="12.75" customHeight="1">
+    <row r="561" spans="2:14" ht="12.75" customHeight="1">
       <c r="B561" s="3"/>
       <c r="C561" s="6"/>
       <c r="D561" s="6"/>
@@ -8770,7 +9057,7 @@
       <c r="M561" s="6"/>
       <c r="N561" s="6"/>
     </row>
-    <row r="562" ht="12.75" customHeight="1">
+    <row r="562" spans="2:14" ht="12.75" customHeight="1">
       <c r="B562" s="3"/>
       <c r="C562" s="6"/>
       <c r="D562" s="6"/>
@@ -8785,7 +9072,7 @@
       <c r="M562" s="6"/>
       <c r="N562" s="6"/>
     </row>
-    <row r="563" ht="12.75" customHeight="1">
+    <row r="563" spans="2:14" ht="12.75" customHeight="1">
       <c r="B563" s="3"/>
       <c r="C563" s="6"/>
       <c r="D563" s="6"/>
@@ -8800,7 +9087,7 @@
       <c r="M563" s="6"/>
       <c r="N563" s="6"/>
     </row>
-    <row r="564" ht="12.75" customHeight="1">
+    <row r="564" spans="2:14" ht="12.75" customHeight="1">
       <c r="B564" s="3"/>
       <c r="C564" s="6"/>
       <c r="D564" s="6"/>
@@ -8815,7 +9102,7 @@
       <c r="M564" s="6"/>
       <c r="N564" s="6"/>
     </row>
-    <row r="565" ht="12.75" customHeight="1">
+    <row r="565" spans="2:14" ht="12.75" customHeight="1">
       <c r="B565" s="3"/>
       <c r="C565" s="6"/>
       <c r="D565" s="6"/>
@@ -8830,7 +9117,7 @@
       <c r="M565" s="6"/>
       <c r="N565" s="6"/>
     </row>
-    <row r="566" ht="12.75" customHeight="1">
+    <row r="566" spans="2:14" ht="12.75" customHeight="1">
       <c r="B566" s="3"/>
       <c r="C566" s="6"/>
       <c r="D566" s="6"/>
@@ -8845,7 +9132,7 @@
       <c r="M566" s="6"/>
       <c r="N566" s="6"/>
     </row>
-    <row r="567" ht="12.75" customHeight="1">
+    <row r="567" spans="2:14" ht="12.75" customHeight="1">
       <c r="B567" s="3"/>
       <c r="C567" s="6"/>
       <c r="D567" s="6"/>
@@ -8860,7 +9147,7 @@
       <c r="M567" s="6"/>
       <c r="N567" s="6"/>
     </row>
-    <row r="568" ht="12.75" customHeight="1">
+    <row r="568" spans="2:14" ht="12.75" customHeight="1">
       <c r="B568" s="3"/>
       <c r="C568" s="6"/>
       <c r="D568" s="6"/>
@@ -8875,7 +9162,7 @@
       <c r="M568" s="6"/>
       <c r="N568" s="6"/>
     </row>
-    <row r="569" ht="12.75" customHeight="1">
+    <row r="569" spans="2:14" ht="12.75" customHeight="1">
       <c r="B569" s="3"/>
       <c r="C569" s="6"/>
       <c r="D569" s="6"/>
@@ -8890,7 +9177,7 @@
       <c r="M569" s="6"/>
       <c r="N569" s="6"/>
     </row>
-    <row r="570" ht="12.75" customHeight="1">
+    <row r="570" spans="2:14" ht="12.75" customHeight="1">
       <c r="B570" s="3"/>
       <c r="C570" s="6"/>
       <c r="D570" s="6"/>
@@ -8905,7 +9192,7 @@
       <c r="M570" s="6"/>
       <c r="N570" s="6"/>
     </row>
-    <row r="571" ht="12.75" customHeight="1">
+    <row r="571" spans="2:14" ht="12.75" customHeight="1">
       <c r="B571" s="3"/>
       <c r="C571" s="6"/>
       <c r="D571" s="6"/>
@@ -8920,7 +9207,7 @@
       <c r="M571" s="6"/>
       <c r="N571" s="6"/>
     </row>
-    <row r="572" ht="12.75" customHeight="1">
+    <row r="572" spans="2:14" ht="12.75" customHeight="1">
       <c r="B572" s="3"/>
       <c r="C572" s="6"/>
       <c r="D572" s="6"/>
@@ -8935,7 +9222,7 @@
       <c r="M572" s="6"/>
       <c r="N572" s="6"/>
     </row>
-    <row r="573" ht="12.75" customHeight="1">
+    <row r="573" spans="2:14" ht="12.75" customHeight="1">
       <c r="B573" s="3"/>
       <c r="C573" s="6"/>
       <c r="D573" s="6"/>
@@ -8950,7 +9237,7 @@
       <c r="M573" s="6"/>
       <c r="N573" s="6"/>
     </row>
-    <row r="574" ht="12.75" customHeight="1">
+    <row r="574" spans="2:14" ht="12.75" customHeight="1">
       <c r="B574" s="3"/>
       <c r="C574" s="6"/>
       <c r="D574" s="6"/>
@@ -8965,7 +9252,7 @@
       <c r="M574" s="6"/>
       <c r="N574" s="6"/>
     </row>
-    <row r="575" ht="12.75" customHeight="1">
+    <row r="575" spans="2:14" ht="12.75" customHeight="1">
       <c r="B575" s="3"/>
       <c r="C575" s="6"/>
       <c r="D575" s="6"/>
@@ -8980,7 +9267,7 @@
       <c r="M575" s="6"/>
       <c r="N575" s="6"/>
     </row>
-    <row r="576" ht="12.75" customHeight="1">
+    <row r="576" spans="2:14" ht="12.75" customHeight="1">
       <c r="B576" s="3"/>
       <c r="C576" s="6"/>
       <c r="D576" s="6"/>
@@ -8995,7 +9282,7 @@
       <c r="M576" s="6"/>
       <c r="N576" s="6"/>
     </row>
-    <row r="577" ht="12.75" customHeight="1">
+    <row r="577" spans="2:14" ht="12.75" customHeight="1">
       <c r="B577" s="3"/>
       <c r="C577" s="6"/>
       <c r="D577" s="6"/>
@@ -9010,7 +9297,7 @@
       <c r="M577" s="6"/>
       <c r="N577" s="6"/>
     </row>
-    <row r="578" ht="12.75" customHeight="1">
+    <row r="578" spans="2:14" ht="12.75" customHeight="1">
       <c r="B578" s="3"/>
       <c r="C578" s="6"/>
       <c r="D578" s="6"/>
@@ -9025,7 +9312,7 @@
       <c r="M578" s="6"/>
       <c r="N578" s="6"/>
     </row>
-    <row r="579" ht="12.75" customHeight="1">
+    <row r="579" spans="2:14" ht="12.75" customHeight="1">
       <c r="B579" s="3"/>
       <c r="C579" s="6"/>
       <c r="D579" s="6"/>
@@ -9040,7 +9327,7 @@
       <c r="M579" s="6"/>
       <c r="N579" s="6"/>
     </row>
-    <row r="580" ht="12.75" customHeight="1">
+    <row r="580" spans="2:14" ht="12.75" customHeight="1">
       <c r="B580" s="3"/>
       <c r="C580" s="6"/>
       <c r="D580" s="6"/>
@@ -9055,7 +9342,7 @@
       <c r="M580" s="6"/>
       <c r="N580" s="6"/>
     </row>
-    <row r="581" ht="12.75" customHeight="1">
+    <row r="581" spans="2:14" ht="12.75" customHeight="1">
       <c r="B581" s="3"/>
       <c r="C581" s="6"/>
       <c r="D581" s="6"/>
@@ -9070,7 +9357,7 @@
       <c r="M581" s="6"/>
       <c r="N581" s="6"/>
     </row>
-    <row r="582" ht="12.75" customHeight="1">
+    <row r="582" spans="2:14" ht="12.75" customHeight="1">
       <c r="B582" s="3"/>
       <c r="C582" s="6"/>
       <c r="D582" s="6"/>
@@ -9085,7 +9372,7 @@
       <c r="M582" s="6"/>
       <c r="N582" s="6"/>
     </row>
-    <row r="583" ht="12.75" customHeight="1">
+    <row r="583" spans="2:14" ht="12.75" customHeight="1">
       <c r="B583" s="3"/>
       <c r="C583" s="6"/>
       <c r="D583" s="6"/>
@@ -9100,7 +9387,7 @@
       <c r="M583" s="6"/>
       <c r="N583" s="6"/>
     </row>
-    <row r="584" ht="12.75" customHeight="1">
+    <row r="584" spans="2:14" ht="12.75" customHeight="1">
       <c r="B584" s="3"/>
       <c r="C584" s="6"/>
       <c r="D584" s="6"/>
@@ -9115,7 +9402,7 @@
       <c r="M584" s="6"/>
       <c r="N584" s="6"/>
     </row>
-    <row r="585" ht="12.75" customHeight="1">
+    <row r="585" spans="2:14" ht="12.75" customHeight="1">
       <c r="B585" s="3"/>
       <c r="C585" s="6"/>
       <c r="D585" s="6"/>
@@ -9130,7 +9417,7 @@
       <c r="M585" s="6"/>
       <c r="N585" s="6"/>
     </row>
-    <row r="586" ht="12.75" customHeight="1">
+    <row r="586" spans="2:14" ht="12.75" customHeight="1">
       <c r="B586" s="3"/>
       <c r="C586" s="6"/>
       <c r="D586" s="6"/>
@@ -9145,7 +9432,7 @@
       <c r="M586" s="6"/>
       <c r="N586" s="6"/>
     </row>
-    <row r="587" ht="12.75" customHeight="1">
+    <row r="587" spans="2:14" ht="12.75" customHeight="1">
       <c r="B587" s="3"/>
       <c r="C587" s="6"/>
       <c r="D587" s="6"/>
@@ -9160,7 +9447,7 @@
       <c r="M587" s="6"/>
       <c r="N587" s="6"/>
     </row>
-    <row r="588" ht="12.75" customHeight="1">
+    <row r="588" spans="2:14" ht="12.75" customHeight="1">
       <c r="B588" s="3"/>
       <c r="C588" s="6"/>
       <c r="D588" s="6"/>
@@ -9175,7 +9462,7 @@
       <c r="M588" s="6"/>
       <c r="N588" s="6"/>
     </row>
-    <row r="589" ht="12.75" customHeight="1">
+    <row r="589" spans="2:14" ht="12.75" customHeight="1">
       <c r="B589" s="3"/>
       <c r="C589" s="6"/>
       <c r="D589" s="6"/>
@@ -9190,7 +9477,7 @@
       <c r="M589" s="6"/>
       <c r="N589" s="6"/>
     </row>
-    <row r="590" ht="12.75" customHeight="1">
+    <row r="590" spans="2:14" ht="12.75" customHeight="1">
       <c r="B590" s="3"/>
       <c r="C590" s="6"/>
       <c r="D590" s="6"/>
@@ -9205,7 +9492,7 @@
       <c r="M590" s="6"/>
       <c r="N590" s="6"/>
     </row>
-    <row r="591" ht="12.75" customHeight="1">
+    <row r="591" spans="2:14" ht="12.75" customHeight="1">
       <c r="B591" s="3"/>
       <c r="C591" s="6"/>
       <c r="D591" s="6"/>
@@ -9220,7 +9507,7 @@
       <c r="M591" s="6"/>
       <c r="N591" s="6"/>
     </row>
-    <row r="592" ht="12.75" customHeight="1">
+    <row r="592" spans="2:14" ht="12.75" customHeight="1">
       <c r="B592" s="3"/>
       <c r="C592" s="6"/>
       <c r="D592" s="6"/>
@@ -9235,7 +9522,7 @@
       <c r="M592" s="6"/>
       <c r="N592" s="6"/>
     </row>
-    <row r="593" ht="12.75" customHeight="1">
+    <row r="593" spans="2:14" ht="12.75" customHeight="1">
       <c r="B593" s="3"/>
       <c r="C593" s="6"/>
       <c r="D593" s="6"/>
@@ -9250,7 +9537,7 @@
       <c r="M593" s="6"/>
       <c r="N593" s="6"/>
     </row>
-    <row r="594" ht="12.75" customHeight="1">
+    <row r="594" spans="2:14" ht="12.75" customHeight="1">
       <c r="B594" s="3"/>
       <c r="C594" s="6"/>
       <c r="D594" s="6"/>
@@ -9265,7 +9552,7 @@
       <c r="M594" s="6"/>
       <c r="N594" s="6"/>
     </row>
-    <row r="595" ht="12.75" customHeight="1">
+    <row r="595" spans="2:14" ht="12.75" customHeight="1">
       <c r="B595" s="3"/>
       <c r="C595" s="6"/>
       <c r="D595" s="6"/>
@@ -9280,7 +9567,7 @@
       <c r="M595" s="6"/>
       <c r="N595" s="6"/>
     </row>
-    <row r="596" ht="12.75" customHeight="1">
+    <row r="596" spans="2:14" ht="12.75" customHeight="1">
       <c r="B596" s="3"/>
       <c r="C596" s="6"/>
       <c r="D596" s="6"/>
@@ -9295,7 +9582,7 @@
       <c r="M596" s="6"/>
       <c r="N596" s="6"/>
     </row>
-    <row r="597" ht="12.75" customHeight="1">
+    <row r="597" spans="2:14" ht="12.75" customHeight="1">
       <c r="B597" s="3"/>
       <c r="C597" s="6"/>
       <c r="D597" s="6"/>
@@ -9310,7 +9597,7 @@
       <c r="M597" s="6"/>
       <c r="N597" s="6"/>
     </row>
-    <row r="598" ht="12.75" customHeight="1">
+    <row r="598" spans="2:14" ht="12.75" customHeight="1">
       <c r="B598" s="3"/>
       <c r="C598" s="6"/>
       <c r="D598" s="6"/>
@@ -9325,7 +9612,7 @@
       <c r="M598" s="6"/>
       <c r="N598" s="6"/>
     </row>
-    <row r="599" ht="12.75" customHeight="1">
+    <row r="599" spans="2:14" ht="12.75" customHeight="1">
       <c r="B599" s="3"/>
       <c r="C599" s="6"/>
       <c r="D599" s="6"/>
@@ -9340,7 +9627,7 @@
       <c r="M599" s="6"/>
       <c r="N599" s="6"/>
     </row>
-    <row r="600" ht="12.75" customHeight="1">
+    <row r="600" spans="2:14" ht="12.75" customHeight="1">
       <c r="B600" s="3"/>
       <c r="C600" s="6"/>
       <c r="D600" s="6"/>
@@ -9355,7 +9642,7 @@
       <c r="M600" s="6"/>
       <c r="N600" s="6"/>
     </row>
-    <row r="601" ht="12.75" customHeight="1">
+    <row r="601" spans="2:14" ht="12.75" customHeight="1">
       <c r="B601" s="3"/>
       <c r="C601" s="6"/>
       <c r="D601" s="6"/>
@@ -9370,7 +9657,7 @@
       <c r="M601" s="6"/>
       <c r="N601" s="6"/>
     </row>
-    <row r="602" ht="12.75" customHeight="1">
+    <row r="602" spans="2:14" ht="12.75" customHeight="1">
       <c r="B602" s="3"/>
       <c r="C602" s="6"/>
       <c r="D602" s="6"/>
@@ -9385,7 +9672,7 @@
       <c r="M602" s="6"/>
       <c r="N602" s="6"/>
     </row>
-    <row r="603" ht="12.75" customHeight="1">
+    <row r="603" spans="2:14" ht="12.75" customHeight="1">
       <c r="B603" s="3"/>
       <c r="C603" s="6"/>
       <c r="D603" s="6"/>
@@ -9400,7 +9687,7 @@
       <c r="M603" s="6"/>
       <c r="N603" s="6"/>
     </row>
-    <row r="604" ht="12.75" customHeight="1">
+    <row r="604" spans="2:14" ht="12.75" customHeight="1">
       <c r="B604" s="3"/>
       <c r="C604" s="6"/>
       <c r="D604" s="6"/>
@@ -9415,7 +9702,7 @@
       <c r="M604" s="6"/>
       <c r="N604" s="6"/>
     </row>
-    <row r="605" ht="12.75" customHeight="1">
+    <row r="605" spans="2:14" ht="12.75" customHeight="1">
       <c r="B605" s="3"/>
       <c r="C605" s="6"/>
       <c r="D605" s="6"/>
@@ -9430,7 +9717,7 @@
       <c r="M605" s="6"/>
       <c r="N605" s="6"/>
     </row>
-    <row r="606" ht="12.75" customHeight="1">
+    <row r="606" spans="2:14" ht="12.75" customHeight="1">
       <c r="B606" s="3"/>
       <c r="C606" s="6"/>
       <c r="D606" s="6"/>
@@ -9445,7 +9732,7 @@
       <c r="M606" s="6"/>
       <c r="N606" s="6"/>
     </row>
-    <row r="607" ht="12.75" customHeight="1">
+    <row r="607" spans="2:14" ht="12.75" customHeight="1">
       <c r="B607" s="3"/>
       <c r="C607" s="6"/>
       <c r="D607" s="6"/>
@@ -9460,7 +9747,7 @@
       <c r="M607" s="6"/>
       <c r="N607" s="6"/>
     </row>
-    <row r="608" ht="12.75" customHeight="1">
+    <row r="608" spans="2:14" ht="12.75" customHeight="1">
       <c r="B608" s="3"/>
       <c r="C608" s="6"/>
       <c r="D608" s="6"/>
@@ -9475,7 +9762,7 @@
       <c r="M608" s="6"/>
       <c r="N608" s="6"/>
     </row>
-    <row r="609" ht="12.75" customHeight="1">
+    <row r="609" spans="2:14" ht="12.75" customHeight="1">
       <c r="B609" s="3"/>
       <c r="C609" s="6"/>
       <c r="D609" s="6"/>
@@ -9490,7 +9777,7 @@
       <c r="M609" s="6"/>
       <c r="N609" s="6"/>
     </row>
-    <row r="610" ht="12.75" customHeight="1">
+    <row r="610" spans="2:14" ht="12.75" customHeight="1">
       <c r="B610" s="3"/>
       <c r="C610" s="6"/>
       <c r="D610" s="6"/>
@@ -9505,7 +9792,7 @@
       <c r="M610" s="6"/>
       <c r="N610" s="6"/>
     </row>
-    <row r="611" ht="12.75" customHeight="1">
+    <row r="611" spans="2:14" ht="12.75" customHeight="1">
       <c r="B611" s="3"/>
       <c r="C611" s="6"/>
       <c r="D611" s="6"/>
@@ -9520,7 +9807,7 @@
       <c r="M611" s="6"/>
       <c r="N611" s="6"/>
     </row>
-    <row r="612" ht="12.75" customHeight="1">
+    <row r="612" spans="2:14" ht="12.75" customHeight="1">
       <c r="B612" s="3"/>
       <c r="C612" s="6"/>
       <c r="D612" s="6"/>
@@ -9535,7 +9822,7 @@
       <c r="M612" s="6"/>
       <c r="N612" s="6"/>
     </row>
-    <row r="613" ht="12.75" customHeight="1">
+    <row r="613" spans="2:14" ht="12.75" customHeight="1">
       <c r="B613" s="3"/>
       <c r="C613" s="6"/>
       <c r="D613" s="6"/>
@@ -9550,7 +9837,7 @@
       <c r="M613" s="6"/>
       <c r="N613" s="6"/>
     </row>
-    <row r="614" ht="12.75" customHeight="1">
+    <row r="614" spans="2:14" ht="12.75" customHeight="1">
       <c r="B614" s="3"/>
       <c r="C614" s="6"/>
       <c r="D614" s="6"/>
@@ -9565,7 +9852,7 @@
       <c r="M614" s="6"/>
       <c r="N614" s="6"/>
     </row>
-    <row r="615" ht="12.75" customHeight="1">
+    <row r="615" spans="2:14" ht="12.75" customHeight="1">
       <c r="B615" s="3"/>
       <c r="C615" s="6"/>
       <c r="D615" s="6"/>
@@ -9580,7 +9867,7 @@
       <c r="M615" s="6"/>
       <c r="N615" s="6"/>
     </row>
-    <row r="616" ht="12.75" customHeight="1">
+    <row r="616" spans="2:14" ht="12.75" customHeight="1">
       <c r="B616" s="3"/>
       <c r="C616" s="6"/>
       <c r="D616" s="6"/>
@@ -9595,7 +9882,7 @@
       <c r="M616" s="6"/>
       <c r="N616" s="6"/>
     </row>
-    <row r="617" ht="12.75" customHeight="1">
+    <row r="617" spans="2:14" ht="12.75" customHeight="1">
       <c r="B617" s="3"/>
       <c r="C617" s="6"/>
       <c r="D617" s="6"/>
@@ -9610,7 +9897,7 @@
       <c r="M617" s="6"/>
       <c r="N617" s="6"/>
     </row>
-    <row r="618" ht="12.75" customHeight="1">
+    <row r="618" spans="2:14" ht="12.75" customHeight="1">
       <c r="B618" s="3"/>
       <c r="C618" s="6"/>
       <c r="D618" s="6"/>
@@ -9625,7 +9912,7 @@
       <c r="M618" s="6"/>
       <c r="N618" s="6"/>
     </row>
-    <row r="619" ht="12.75" customHeight="1">
+    <row r="619" spans="2:14" ht="12.75" customHeight="1">
       <c r="B619" s="3"/>
       <c r="C619" s="6"/>
       <c r="D619" s="6"/>
@@ -9640,7 +9927,7 @@
       <c r="M619" s="6"/>
       <c r="N619" s="6"/>
     </row>
-    <row r="620" ht="12.75" customHeight="1">
+    <row r="620" spans="2:14" ht="12.75" customHeight="1">
       <c r="B620" s="3"/>
       <c r="C620" s="6"/>
       <c r="D620" s="6"/>
@@ -9655,7 +9942,7 @@
       <c r="M620" s="6"/>
       <c r="N620" s="6"/>
     </row>
-    <row r="621" ht="12.75" customHeight="1">
+    <row r="621" spans="2:14" ht="12.75" customHeight="1">
       <c r="B621" s="3"/>
       <c r="C621" s="6"/>
       <c r="D621" s="6"/>
@@ -9670,7 +9957,7 @@
       <c r="M621" s="6"/>
       <c r="N621" s="6"/>
     </row>
-    <row r="622" ht="12.75" customHeight="1">
+    <row r="622" spans="2:14" ht="12.75" customHeight="1">
       <c r="B622" s="3"/>
       <c r="C622" s="6"/>
       <c r="D622" s="6"/>
@@ -9685,7 +9972,7 @@
       <c r="M622" s="6"/>
       <c r="N622" s="6"/>
     </row>
-    <row r="623" ht="12.75" customHeight="1">
+    <row r="623" spans="2:14" ht="12.75" customHeight="1">
       <c r="B623" s="3"/>
       <c r="C623" s="6"/>
       <c r="D623" s="6"/>
@@ -9700,7 +9987,7 @@
       <c r="M623" s="6"/>
       <c r="N623" s="6"/>
     </row>
-    <row r="624" ht="12.75" customHeight="1">
+    <row r="624" spans="2:14" ht="12.75" customHeight="1">
       <c r="B624" s="3"/>
       <c r="C624" s="6"/>
       <c r="D624" s="6"/>
@@ -9715,7 +10002,7 @@
       <c r="M624" s="6"/>
       <c r="N624" s="6"/>
     </row>
-    <row r="625" ht="12.75" customHeight="1">
+    <row r="625" spans="2:14" ht="12.75" customHeight="1">
       <c r="B625" s="3"/>
       <c r="C625" s="6"/>
       <c r="D625" s="6"/>
@@ -9730,7 +10017,7 @@
       <c r="M625" s="6"/>
       <c r="N625" s="6"/>
     </row>
-    <row r="626" ht="12.75" customHeight="1">
+    <row r="626" spans="2:14" ht="12.75" customHeight="1">
       <c r="B626" s="3"/>
       <c r="C626" s="6"/>
       <c r="D626" s="6"/>
@@ -9745,7 +10032,7 @@
       <c r="M626" s="6"/>
       <c r="N626" s="6"/>
     </row>
-    <row r="627" ht="12.75" customHeight="1">
+    <row r="627" spans="2:14" ht="12.75" customHeight="1">
       <c r="B627" s="3"/>
       <c r="C627" s="6"/>
       <c r="D627" s="6"/>
@@ -9760,7 +10047,7 @@
       <c r="M627" s="6"/>
       <c r="N627" s="6"/>
     </row>
-    <row r="628" ht="12.75" customHeight="1">
+    <row r="628" spans="2:14" ht="12.75" customHeight="1">
       <c r="B628" s="3"/>
       <c r="C628" s="6"/>
       <c r="D628" s="6"/>
@@ -9775,7 +10062,7 @@
       <c r="M628" s="6"/>
       <c r="N628" s="6"/>
     </row>
-    <row r="629" ht="12.75" customHeight="1">
+    <row r="629" spans="2:14" ht="12.75" customHeight="1">
       <c r="B629" s="3"/>
       <c r="C629" s="6"/>
       <c r="D629" s="6"/>
@@ -9790,7 +10077,7 @@
       <c r="M629" s="6"/>
       <c r="N629" s="6"/>
     </row>
-    <row r="630" ht="12.75" customHeight="1">
+    <row r="630" spans="2:14" ht="12.75" customHeight="1">
       <c r="B630" s="3"/>
       <c r="C630" s="6"/>
       <c r="D630" s="6"/>
@@ -9805,7 +10092,7 @@
       <c r="M630" s="6"/>
       <c r="N630" s="6"/>
     </row>
-    <row r="631" ht="12.75" customHeight="1">
+    <row r="631" spans="2:14" ht="12.75" customHeight="1">
       <c r="B631" s="3"/>
       <c r="C631" s="6"/>
       <c r="D631" s="6"/>
@@ -9820,7 +10107,7 @@
       <c r="M631" s="6"/>
       <c r="N631" s="6"/>
     </row>
-    <row r="632" ht="12.75" customHeight="1">
+    <row r="632" spans="2:14" ht="12.75" customHeight="1">
       <c r="B632" s="3"/>
       <c r="C632" s="6"/>
       <c r="D632" s="6"/>
@@ -9835,7 +10122,7 @@
       <c r="M632" s="6"/>
       <c r="N632" s="6"/>
     </row>
-    <row r="633" ht="12.75" customHeight="1">
+    <row r="633" spans="2:14" ht="12.75" customHeight="1">
       <c r="B633" s="3"/>
       <c r="C633" s="6"/>
       <c r="D633" s="6"/>
@@ -9850,7 +10137,7 @@
       <c r="M633" s="6"/>
       <c r="N633" s="6"/>
     </row>
-    <row r="634" ht="12.75" customHeight="1">
+    <row r="634" spans="2:14" ht="12.75" customHeight="1">
       <c r="B634" s="3"/>
       <c r="C634" s="6"/>
       <c r="D634" s="6"/>
@@ -9865,7 +10152,7 @@
       <c r="M634" s="6"/>
       <c r="N634" s="6"/>
     </row>
-    <row r="635" ht="12.75" customHeight="1">
+    <row r="635" spans="2:14" ht="12.75" customHeight="1">
       <c r="B635" s="3"/>
       <c r="C635" s="6"/>
       <c r="D635" s="6"/>
@@ -9880,7 +10167,7 @@
       <c r="M635" s="6"/>
       <c r="N635" s="6"/>
     </row>
-    <row r="636" ht="12.75" customHeight="1">
+    <row r="636" spans="2:14" ht="12.75" customHeight="1">
       <c r="B636" s="3"/>
       <c r="C636" s="6"/>
       <c r="D636" s="6"/>
@@ -9895,7 +10182,7 @@
       <c r="M636" s="6"/>
       <c r="N636" s="6"/>
     </row>
-    <row r="637" ht="12.75" customHeight="1">
+    <row r="637" spans="2:14" ht="12.75" customHeight="1">
       <c r="B637" s="3"/>
       <c r="C637" s="6"/>
       <c r="D637" s="6"/>
@@ -9910,7 +10197,7 @@
       <c r="M637" s="6"/>
       <c r="N637" s="6"/>
     </row>
-    <row r="638" ht="12.75" customHeight="1">
+    <row r="638" spans="2:14" ht="12.75" customHeight="1">
       <c r="B638" s="3"/>
       <c r="C638" s="6"/>
       <c r="D638" s="6"/>
@@ -9925,7 +10212,7 @@
       <c r="M638" s="6"/>
       <c r="N638" s="6"/>
     </row>
-    <row r="639" ht="12.75" customHeight="1">
+    <row r="639" spans="2:14" ht="12.75" customHeight="1">
       <c r="B639" s="3"/>
       <c r="C639" s="6"/>
       <c r="D639" s="6"/>
@@ -9940,7 +10227,7 @@
       <c r="M639" s="6"/>
       <c r="N639" s="6"/>
     </row>
-    <row r="640" ht="12.75" customHeight="1">
+    <row r="640" spans="2:14" ht="12.75" customHeight="1">
       <c r="B640" s="3"/>
       <c r="C640" s="6"/>
       <c r="D640" s="6"/>
@@ -9955,7 +10242,7 @@
       <c r="M640" s="6"/>
       <c r="N640" s="6"/>
     </row>
-    <row r="641" ht="12.75" customHeight="1">
+    <row r="641" spans="2:14" ht="12.75" customHeight="1">
       <c r="B641" s="3"/>
       <c r="C641" s="6"/>
       <c r="D641" s="6"/>
@@ -9970,7 +10257,7 @@
       <c r="M641" s="6"/>
       <c r="N641" s="6"/>
     </row>
-    <row r="642" ht="12.75" customHeight="1">
+    <row r="642" spans="2:14" ht="12.75" customHeight="1">
       <c r="B642" s="3"/>
       <c r="C642" s="6"/>
       <c r="D642" s="6"/>
@@ -9985,7 +10272,7 @@
       <c r="M642" s="6"/>
       <c r="N642" s="6"/>
     </row>
-    <row r="643" ht="12.75" customHeight="1">
+    <row r="643" spans="2:14" ht="12.75" customHeight="1">
       <c r="B643" s="3"/>
       <c r="C643" s="6"/>
       <c r="D643" s="6"/>
@@ -10000,7 +10287,7 @@
       <c r="M643" s="6"/>
       <c r="N643" s="6"/>
     </row>
-    <row r="644" ht="12.75" customHeight="1">
+    <row r="644" spans="2:14" ht="12.75" customHeight="1">
       <c r="B644" s="3"/>
       <c r="C644" s="6"/>
       <c r="D644" s="6"/>
@@ -10015,7 +10302,7 @@
       <c r="M644" s="6"/>
       <c r="N644" s="6"/>
     </row>
-    <row r="645" ht="12.75" customHeight="1">
+    <row r="645" spans="2:14" ht="12.75" customHeight="1">
       <c r="B645" s="3"/>
       <c r="C645" s="6"/>
       <c r="D645" s="6"/>
@@ -10030,7 +10317,7 @@
       <c r="M645" s="6"/>
       <c r="N645" s="6"/>
     </row>
-    <row r="646" ht="12.75" customHeight="1">
+    <row r="646" spans="2:14" ht="12.75" customHeight="1">
       <c r="B646" s="3"/>
       <c r="C646" s="6"/>
       <c r="D646" s="6"/>
@@ -10045,7 +10332,7 @@
       <c r="M646" s="6"/>
       <c r="N646" s="6"/>
     </row>
-    <row r="647" ht="12.75" customHeight="1">
+    <row r="647" spans="2:14" ht="12.75" customHeight="1">
       <c r="B647" s="3"/>
       <c r="C647" s="6"/>
       <c r="D647" s="6"/>
@@ -10060,7 +10347,7 @@
       <c r="M647" s="6"/>
       <c r="N647" s="6"/>
     </row>
-    <row r="648" ht="12.75" customHeight="1">
+    <row r="648" spans="2:14" ht="12.75" customHeight="1">
       <c r="B648" s="3"/>
       <c r="C648" s="6"/>
       <c r="D648" s="6"/>
@@ -10075,7 +10362,7 @@
       <c r="M648" s="6"/>
       <c r="N648" s="6"/>
     </row>
-    <row r="649" ht="12.75" customHeight="1">
+    <row r="649" spans="2:14" ht="12.75" customHeight="1">
       <c r="B649" s="3"/>
       <c r="C649" s="6"/>
       <c r="D649" s="6"/>
@@ -10090,7 +10377,7 @@
       <c r="M649" s="6"/>
       <c r="N649" s="6"/>
     </row>
-    <row r="650" ht="12.75" customHeight="1">
+    <row r="650" spans="2:14" ht="12.75" customHeight="1">
       <c r="B650" s="3"/>
       <c r="C650" s="6"/>
       <c r="D650" s="6"/>
@@ -10105,7 +10392,7 @@
       <c r="M650" s="6"/>
       <c r="N650" s="6"/>
     </row>
-    <row r="651" ht="12.75" customHeight="1">
+    <row r="651" spans="2:14" ht="12.75" customHeight="1">
       <c r="B651" s="3"/>
       <c r="C651" s="6"/>
       <c r="D651" s="6"/>
@@ -10120,7 +10407,7 @@
       <c r="M651" s="6"/>
       <c r="N651" s="6"/>
     </row>
-    <row r="652" ht="12.75" customHeight="1">
+    <row r="652" spans="2:14" ht="12.75" customHeight="1">
       <c r="B652" s="3"/>
       <c r="C652" s="6"/>
       <c r="D652" s="6"/>
@@ -10135,7 +10422,7 @@
       <c r="M652" s="6"/>
       <c r="N652" s="6"/>
     </row>
-    <row r="653" ht="12.75" customHeight="1">
+    <row r="653" spans="2:14" ht="12.75" customHeight="1">
       <c r="B653" s="3"/>
       <c r="C653" s="6"/>
       <c r="D653" s="6"/>
@@ -10150,7 +10437,7 @@
       <c r="M653" s="6"/>
       <c r="N653" s="6"/>
     </row>
-    <row r="654" ht="12.75" customHeight="1">
+    <row r="654" spans="2:14" ht="12.75" customHeight="1">
       <c r="B654" s="3"/>
       <c r="C654" s="6"/>
       <c r="D654" s="6"/>
@@ -10165,7 +10452,7 @@
       <c r="M654" s="6"/>
       <c r="N654" s="6"/>
     </row>
-    <row r="655" ht="12.75" customHeight="1">
+    <row r="655" spans="2:14" ht="12.75" customHeight="1">
       <c r="B655" s="3"/>
       <c r="C655" s="6"/>
       <c r="D655" s="6"/>
@@ -10180,7 +10467,7 @@
       <c r="M655" s="6"/>
       <c r="N655" s="6"/>
     </row>
-    <row r="656" ht="12.75" customHeight="1">
+    <row r="656" spans="2:14" ht="12.75" customHeight="1">
       <c r="B656" s="3"/>
       <c r="C656" s="6"/>
       <c r="D656" s="6"/>
@@ -10195,7 +10482,7 @@
       <c r="M656" s="6"/>
       <c r="N656" s="6"/>
     </row>
-    <row r="657" ht="12.75" customHeight="1">
+    <row r="657" spans="2:14" ht="12.75" customHeight="1">
       <c r="B657" s="3"/>
       <c r="C657" s="6"/>
       <c r="D657" s="6"/>
@@ -10210,7 +10497,7 @@
       <c r="M657" s="6"/>
       <c r="N657" s="6"/>
     </row>
-    <row r="658" ht="12.75" customHeight="1">
+    <row r="658" spans="2:14" ht="12.75" customHeight="1">
       <c r="B658" s="3"/>
       <c r="C658" s="6"/>
       <c r="D658" s="6"/>
@@ -10225,7 +10512,7 @@
       <c r="M658" s="6"/>
       <c r="N658" s="6"/>
     </row>
-    <row r="659" ht="12.75" customHeight="1">
+    <row r="659" spans="2:14" ht="12.75" customHeight="1">
       <c r="B659" s="3"/>
       <c r="C659" s="6"/>
       <c r="D659" s="6"/>
@@ -10240,7 +10527,7 @@
       <c r="M659" s="6"/>
       <c r="N659" s="6"/>
     </row>
-    <row r="660" ht="12.75" customHeight="1">
+    <row r="660" spans="2:14" ht="12.75" customHeight="1">
       <c r="B660" s="3"/>
       <c r="C660" s="6"/>
       <c r="D660" s="6"/>
@@ -10255,7 +10542,7 @@
       <c r="M660" s="6"/>
       <c r="N660" s="6"/>
     </row>
-    <row r="661" ht="12.75" customHeight="1">
+    <row r="661" spans="2:14" ht="12.75" customHeight="1">
       <c r="B661" s="3"/>
       <c r="C661" s="6"/>
       <c r="D661" s="6"/>
@@ -10270,7 +10557,7 @@
       <c r="M661" s="6"/>
       <c r="N661" s="6"/>
     </row>
-    <row r="662" ht="12.75" customHeight="1">
+    <row r="662" spans="2:14" ht="12.75" customHeight="1">
       <c r="B662" s="3"/>
       <c r="C662" s="6"/>
       <c r="D662" s="6"/>
@@ -10285,7 +10572,7 @@
       <c r="M662" s="6"/>
       <c r="N662" s="6"/>
     </row>
-    <row r="663" ht="12.75" customHeight="1">
+    <row r="663" spans="2:14" ht="12.75" customHeight="1">
       <c r="B663" s="3"/>
       <c r="C663" s="6"/>
       <c r="D663" s="6"/>
@@ -10300,7 +10587,7 @@
       <c r="M663" s="6"/>
       <c r="N663" s="6"/>
     </row>
-    <row r="664" ht="12.75" customHeight="1">
+    <row r="664" spans="2:14" ht="12.75" customHeight="1">
       <c r="B664" s="3"/>
       <c r="C664" s="6"/>
       <c r="D664" s="6"/>
@@ -10315,7 +10602,7 @@
       <c r="M664" s="6"/>
       <c r="N664" s="6"/>
     </row>
-    <row r="665" ht="12.75" customHeight="1">
+    <row r="665" spans="2:14" ht="12.75" customHeight="1">
       <c r="B665" s="3"/>
       <c r="C665" s="6"/>
       <c r="D665" s="6"/>
@@ -10330,7 +10617,7 @@
       <c r="M665" s="6"/>
       <c r="N665" s="6"/>
     </row>
-    <row r="666" ht="12.75" customHeight="1">
+    <row r="666" spans="2:14" ht="12.75" customHeight="1">
       <c r="B666" s="3"/>
       <c r="C666" s="6"/>
       <c r="D666" s="6"/>
@@ -10345,7 +10632,7 @@
       <c r="M666" s="6"/>
       <c r="N666" s="6"/>
     </row>
-    <row r="667" ht="12.75" customHeight="1">
+    <row r="667" spans="2:14" ht="12.75" customHeight="1">
       <c r="B667" s="3"/>
       <c r="C667" s="6"/>
       <c r="D667" s="6"/>
@@ -10360,7 +10647,7 @@
       <c r="M667" s="6"/>
       <c r="N667" s="6"/>
     </row>
-    <row r="668" ht="12.75" customHeight="1">
+    <row r="668" spans="2:14" ht="12.75" customHeight="1">
       <c r="B668" s="3"/>
       <c r="C668" s="6"/>
       <c r="D668" s="6"/>
@@ -10375,7 +10662,7 @@
       <c r="M668" s="6"/>
       <c r="N668" s="6"/>
     </row>
-    <row r="669" ht="12.75" customHeight="1">
+    <row r="669" spans="2:14" ht="12.75" customHeight="1">
       <c r="B669" s="3"/>
       <c r="C669" s="6"/>
       <c r="D669" s="6"/>
@@ -10390,7 +10677,7 @@
       <c r="M669" s="6"/>
       <c r="N669" s="6"/>
     </row>
-    <row r="670" ht="12.75" customHeight="1">
+    <row r="670" spans="2:14" ht="12.75" customHeight="1">
       <c r="B670" s="3"/>
       <c r="C670" s="6"/>
       <c r="D670" s="6"/>
@@ -10405,7 +10692,7 @@
       <c r="M670" s="6"/>
       <c r="N670" s="6"/>
     </row>
-    <row r="671" ht="12.75" customHeight="1">
+    <row r="671" spans="2:14" ht="12.75" customHeight="1">
       <c r="B671" s="3"/>
       <c r="C671" s="6"/>
       <c r="D671" s="6"/>
@@ -10420,7 +10707,7 @@
       <c r="M671" s="6"/>
       <c r="N671" s="6"/>
     </row>
-    <row r="672" ht="12.75" customHeight="1">
+    <row r="672" spans="2:14" ht="12.75" customHeight="1">
       <c r="B672" s="3"/>
       <c r="C672" s="6"/>
       <c r="D672" s="6"/>
@@ -10435,7 +10722,7 @@
       <c r="M672" s="6"/>
       <c r="N672" s="6"/>
     </row>
-    <row r="673" ht="12.75" customHeight="1">
+    <row r="673" spans="2:14" ht="12.75" customHeight="1">
       <c r="B673" s="3"/>
       <c r="C673" s="6"/>
       <c r="D673" s="6"/>
@@ -10450,7 +10737,7 @@
       <c r="M673" s="6"/>
       <c r="N673" s="6"/>
     </row>
-    <row r="674" ht="12.75" customHeight="1">
+    <row r="674" spans="2:14" ht="12.75" customHeight="1">
       <c r="B674" s="3"/>
       <c r="C674" s="6"/>
       <c r="D674" s="6"/>
@@ -10465,7 +10752,7 @@
       <c r="M674" s="6"/>
       <c r="N674" s="6"/>
     </row>
-    <row r="675" ht="12.75" customHeight="1">
+    <row r="675" spans="2:14" ht="12.75" customHeight="1">
       <c r="B675" s="3"/>
       <c r="C675" s="6"/>
       <c r="D675" s="6"/>
@@ -10480,7 +10767,7 @@
       <c r="M675" s="6"/>
       <c r="N675" s="6"/>
     </row>
-    <row r="676" ht="12.75" customHeight="1">
+    <row r="676" spans="2:14" ht="12.75" customHeight="1">
       <c r="B676" s="3"/>
       <c r="C676" s="6"/>
       <c r="D676" s="6"/>
@@ -10495,7 +10782,7 @@
       <c r="M676" s="6"/>
       <c r="N676" s="6"/>
     </row>
-    <row r="677" ht="12.75" customHeight="1">
+    <row r="677" spans="2:14" ht="12.75" customHeight="1">
       <c r="B677" s="3"/>
       <c r="C677" s="6"/>
       <c r="D677" s="6"/>
@@ -10510,7 +10797,7 @@
       <c r="M677" s="6"/>
       <c r="N677" s="6"/>
     </row>
-    <row r="678" ht="12.75" customHeight="1">
+    <row r="678" spans="2:14" ht="12.75" customHeight="1">
       <c r="B678" s="3"/>
       <c r="C678" s="6"/>
       <c r="D678" s="6"/>
@@ -10525,7 +10812,7 @@
       <c r="M678" s="6"/>
       <c r="N678" s="6"/>
     </row>
-    <row r="679" ht="12.75" customHeight="1">
+    <row r="679" spans="2:14" ht="12.75" customHeight="1">
       <c r="B679" s="3"/>
       <c r="C679" s="6"/>
       <c r="D679" s="6"/>
@@ -10540,7 +10827,7 @@
       <c r="M679" s="6"/>
       <c r="N679" s="6"/>
     </row>
-    <row r="680" ht="12.75" customHeight="1">
+    <row r="680" spans="2:14" ht="12.75" customHeight="1">
       <c r="B680" s="3"/>
       <c r="C680" s="6"/>
       <c r="D680" s="6"/>
@@ -10555,7 +10842,7 @@
       <c r="M680" s="6"/>
       <c r="N680" s="6"/>
     </row>
-    <row r="681" ht="12.75" customHeight="1">
+    <row r="681" spans="2:14" ht="12.75" customHeight="1">
       <c r="B681" s="3"/>
       <c r="C681" s="6"/>
       <c r="D681" s="6"/>
@@ -10570,7 +10857,7 @@
       <c r="M681" s="6"/>
       <c r="N681" s="6"/>
     </row>
-    <row r="682" ht="12.75" customHeight="1">
+    <row r="682" spans="2:14" ht="12.75" customHeight="1">
       <c r="B682" s="3"/>
       <c r="C682" s="6"/>
       <c r="D682" s="6"/>
@@ -10585,7 +10872,7 @@
       <c r="M682" s="6"/>
       <c r="N682" s="6"/>
     </row>
-    <row r="683" ht="12.75" customHeight="1">
+    <row r="683" spans="2:14" ht="12.75" customHeight="1">
       <c r="B683" s="3"/>
       <c r="C683" s="6"/>
       <c r="D683" s="6"/>
@@ -10600,7 +10887,7 @@
       <c r="M683" s="6"/>
       <c r="N683" s="6"/>
     </row>
-    <row r="684" ht="12.75" customHeight="1">
+    <row r="684" spans="2:14" ht="12.75" customHeight="1">
       <c r="B684" s="3"/>
       <c r="C684" s="6"/>
       <c r="D684" s="6"/>
@@ -10615,7 +10902,7 @@
       <c r="M684" s="6"/>
       <c r="N684" s="6"/>
     </row>
-    <row r="685" ht="12.75" customHeight="1">
+    <row r="685" spans="2:14" ht="12.75" customHeight="1">
       <c r="B685" s="3"/>
       <c r="C685" s="6"/>
       <c r="D685" s="6"/>
@@ -10630,7 +10917,7 @@
       <c r="M685" s="6"/>
       <c r="N685" s="6"/>
     </row>
-    <row r="686" ht="12.75" customHeight="1">
+    <row r="686" spans="2:14" ht="12.75" customHeight="1">
       <c r="B686" s="3"/>
       <c r="C686" s="6"/>
       <c r="D686" s="6"/>
@@ -10645,7 +10932,7 @@
       <c r="M686" s="6"/>
       <c r="N686" s="6"/>
     </row>
-    <row r="687" ht="12.75" customHeight="1">
+    <row r="687" spans="2:14" ht="12.75" customHeight="1">
       <c r="B687" s="3"/>
       <c r="C687" s="6"/>
       <c r="D687" s="6"/>
@@ -10660,7 +10947,7 @@
       <c r="M687" s="6"/>
       <c r="N687" s="6"/>
     </row>
-    <row r="688" ht="12.75" customHeight="1">
+    <row r="688" spans="2:14" ht="12.75" customHeight="1">
       <c r="B688" s="3"/>
       <c r="C688" s="6"/>
       <c r="D688" s="6"/>
@@ -10675,7 +10962,7 @@
       <c r="M688" s="6"/>
       <c r="N688" s="6"/>
     </row>
-    <row r="689" ht="12.75" customHeight="1">
+    <row r="689" spans="2:14" ht="12.75" customHeight="1">
       <c r="B689" s="3"/>
       <c r="C689" s="6"/>
       <c r="D689" s="6"/>
@@ -10690,7 +10977,7 @@
       <c r="M689" s="6"/>
       <c r="N689" s="6"/>
     </row>
-    <row r="690" ht="12.75" customHeight="1">
+    <row r="690" spans="2:14" ht="12.75" customHeight="1">
       <c r="B690" s="3"/>
       <c r="C690" s="6"/>
       <c r="D690" s="6"/>
@@ -10705,7 +10992,7 @@
       <c r="M690" s="6"/>
       <c r="N690" s="6"/>
     </row>
-    <row r="691" ht="12.75" customHeight="1">
+    <row r="691" spans="2:14" ht="12.75" customHeight="1">
       <c r="B691" s="3"/>
       <c r="C691" s="6"/>
       <c r="D691" s="6"/>
@@ -10720,7 +11007,7 @@
       <c r="M691" s="6"/>
       <c r="N691" s="6"/>
     </row>
-    <row r="692" ht="12.75" customHeight="1">
+    <row r="692" spans="2:14" ht="12.75" customHeight="1">
       <c r="B692" s="3"/>
       <c r="C692" s="6"/>
       <c r="D692" s="6"/>
@@ -10735,7 +11022,7 @@
       <c r="M692" s="6"/>
       <c r="N692" s="6"/>
     </row>
-    <row r="693" ht="12.75" customHeight="1">
+    <row r="693" spans="2:14" ht="12.75" customHeight="1">
       <c r="B693" s="3"/>
       <c r="C693" s="6"/>
       <c r="D693" s="6"/>
@@ -10750,7 +11037,7 @@
       <c r="M693" s="6"/>
       <c r="N693" s="6"/>
     </row>
-    <row r="694" ht="12.75" customHeight="1">
+    <row r="694" spans="2:14" ht="12.75" customHeight="1">
       <c r="B694" s="3"/>
       <c r="C694" s="6"/>
       <c r="D694" s="6"/>
@@ -10765,7 +11052,7 @@
       <c r="M694" s="6"/>
       <c r="N694" s="6"/>
     </row>
-    <row r="695" ht="12.75" customHeight="1">
+    <row r="695" spans="2:14" ht="12.75" customHeight="1">
       <c r="B695" s="3"/>
       <c r="C695" s="6"/>
       <c r="D695" s="6"/>
@@ -10780,7 +11067,7 @@
       <c r="M695" s="6"/>
       <c r="N695" s="6"/>
     </row>
-    <row r="696" ht="12.75" customHeight="1">
+    <row r="696" spans="2:14" ht="12.75" customHeight="1">
       <c r="B696" s="3"/>
       <c r="C696" s="6"/>
       <c r="D696" s="6"/>
@@ -10795,7 +11082,7 @@
       <c r="M696" s="6"/>
       <c r="N696" s="6"/>
     </row>
-    <row r="697" ht="12.75" customHeight="1">
+    <row r="697" spans="2:14" ht="12.75" customHeight="1">
       <c r="B697" s="3"/>
       <c r="C697" s="6"/>
       <c r="D697" s="6"/>
@@ -10810,7 +11097,7 @@
       <c r="M697" s="6"/>
       <c r="N697" s="6"/>
     </row>
-    <row r="698" ht="12.75" customHeight="1">
+    <row r="698" spans="2:14" ht="12.75" customHeight="1">
       <c r="B698" s="3"/>
       <c r="C698" s="6"/>
       <c r="D698" s="6"/>
@@ -10825,7 +11112,7 @@
       <c r="M698" s="6"/>
       <c r="N698" s="6"/>
     </row>
-    <row r="699" ht="12.75" customHeight="1">
+    <row r="699" spans="2:14" ht="12.75" customHeight="1">
       <c r="B699" s="3"/>
       <c r="C699" s="6"/>
       <c r="D699" s="6"/>
@@ -10840,7 +11127,7 @@
       <c r="M699" s="6"/>
       <c r="N699" s="6"/>
     </row>
-    <row r="700" ht="12.75" customHeight="1">
+    <row r="700" spans="2:14" ht="12.75" customHeight="1">
       <c r="B700" s="3"/>
       <c r="C700" s="6"/>
       <c r="D700" s="6"/>
@@ -10855,7 +11142,7 @@
       <c r="M700" s="6"/>
       <c r="N700" s="6"/>
     </row>
-    <row r="701" ht="12.75" customHeight="1">
+    <row r="701" spans="2:14" ht="12.75" customHeight="1">
       <c r="B701" s="3"/>
       <c r="C701" s="6"/>
       <c r="D701" s="6"/>
@@ -10870,7 +11157,7 @@
       <c r="M701" s="6"/>
       <c r="N701" s="6"/>
     </row>
-    <row r="702" ht="12.75" customHeight="1">
+    <row r="702" spans="2:14" ht="12.75" customHeight="1">
       <c r="B702" s="3"/>
       <c r="C702" s="6"/>
       <c r="D702" s="6"/>
@@ -10885,7 +11172,7 @@
       <c r="M702" s="6"/>
       <c r="N702" s="6"/>
     </row>
-    <row r="703" ht="12.75" customHeight="1">
+    <row r="703" spans="2:14" ht="12.75" customHeight="1">
       <c r="B703" s="3"/>
       <c r="C703" s="6"/>
       <c r="D703" s="6"/>
@@ -10900,7 +11187,7 @@
       <c r="M703" s="6"/>
       <c r="N703" s="6"/>
     </row>
-    <row r="704" ht="12.75" customHeight="1">
+    <row r="704" spans="2:14" ht="12.75" customHeight="1">
       <c r="B704" s="3"/>
       <c r="C704" s="6"/>
       <c r="D704" s="6"/>
@@ -10915,7 +11202,7 @@
       <c r="M704" s="6"/>
       <c r="N704" s="6"/>
     </row>
-    <row r="705" ht="12.75" customHeight="1">
+    <row r="705" spans="2:14" ht="12.75" customHeight="1">
       <c r="B705" s="3"/>
       <c r="C705" s="6"/>
       <c r="D705" s="6"/>
@@ -10930,7 +11217,7 @@
       <c r="M705" s="6"/>
       <c r="N705" s="6"/>
     </row>
-    <row r="706" ht="12.75" customHeight="1">
+    <row r="706" spans="2:14" ht="12.75" customHeight="1">
       <c r="B706" s="3"/>
       <c r="C706" s="6"/>
       <c r="D706" s="6"/>
@@ -10945,7 +11232,7 @@
       <c r="M706" s="6"/>
       <c r="N706" s="6"/>
     </row>
-    <row r="707" ht="12.75" customHeight="1">
+    <row r="707" spans="2:14" ht="12.75" customHeight="1">
       <c r="B707" s="3"/>
       <c r="C707" s="6"/>
       <c r="D707" s="6"/>
@@ -10960,7 +11247,7 @@
       <c r="M707" s="6"/>
       <c r="N707" s="6"/>
     </row>
-    <row r="708" ht="12.75" customHeight="1">
+    <row r="708" spans="2:14" ht="12.75" customHeight="1">
       <c r="B708" s="3"/>
       <c r="C708" s="6"/>
       <c r="D708" s="6"/>
@@ -10975,7 +11262,7 @@
       <c r="M708" s="6"/>
       <c r="N708" s="6"/>
     </row>
-    <row r="709" ht="12.75" customHeight="1">
+    <row r="709" spans="2:14" ht="12.75" customHeight="1">
       <c r="B709" s="3"/>
       <c r="C709" s="6"/>
       <c r="D709" s="6"/>
@@ -10990,7 +11277,7 @@
       <c r="M709" s="6"/>
       <c r="N709" s="6"/>
     </row>
-    <row r="710" ht="12.75" customHeight="1">
+    <row r="710" spans="2:14" ht="12.75" customHeight="1">
       <c r="B710" s="3"/>
       <c r="C710" s="6"/>
       <c r="D710" s="6"/>
@@ -11005,7 +11292,7 @@
       <c r="M710" s="6"/>
       <c r="N710" s="6"/>
     </row>
-    <row r="711" ht="12.75" customHeight="1">
+    <row r="711" spans="2:14" ht="12.75" customHeight="1">
       <c r="B711" s="3"/>
       <c r="C711" s="6"/>
       <c r="D711" s="6"/>
@@ -11020,7 +11307,7 @@
       <c r="M711" s="6"/>
       <c r="N711" s="6"/>
     </row>
-    <row r="712" ht="12.75" customHeight="1">
+    <row r="712" spans="2:14" ht="12.75" customHeight="1">
       <c r="B712" s="3"/>
       <c r="C712" s="6"/>
       <c r="D712" s="6"/>
@@ -11035,7 +11322,7 @@
       <c r="M712" s="6"/>
       <c r="N712" s="6"/>
     </row>
-    <row r="713" ht="12.75" customHeight="1">
+    <row r="713" spans="2:14" ht="12.75" customHeight="1">
       <c r="B713" s="3"/>
       <c r="C713" s="6"/>
       <c r="D713" s="6"/>
@@ -11050,7 +11337,7 @@
       <c r="M713" s="6"/>
       <c r="N713" s="6"/>
     </row>
-    <row r="714" ht="12.75" customHeight="1">
+    <row r="714" spans="2:14" ht="12.75" customHeight="1">
       <c r="B714" s="3"/>
       <c r="C714" s="6"/>
       <c r="D714" s="6"/>
@@ -11065,7 +11352,7 @@
       <c r="M714" s="6"/>
       <c r="N714" s="6"/>
     </row>
-    <row r="715" ht="12.75" customHeight="1">
+    <row r="715" spans="2:14" ht="12.75" customHeight="1">
       <c r="B715" s="3"/>
       <c r="C715" s="6"/>
       <c r="D715" s="6"/>
@@ -11080,7 +11367,7 @@
       <c r="M715" s="6"/>
       <c r="N715" s="6"/>
     </row>
-    <row r="716" ht="12.75" customHeight="1">
+    <row r="716" spans="2:14" ht="12.75" customHeight="1">
       <c r="B716" s="3"/>
       <c r="C716" s="6"/>
       <c r="D716" s="6"/>
@@ -11095,7 +11382,7 @@
       <c r="M716" s="6"/>
       <c r="N716" s="6"/>
     </row>
-    <row r="717" ht="12.75" customHeight="1">
+    <row r="717" spans="2:14" ht="12.75" customHeight="1">
       <c r="B717" s="3"/>
       <c r="C717" s="6"/>
       <c r="D717" s="6"/>
@@ -11110,7 +11397,7 @@
       <c r="M717" s="6"/>
       <c r="N717" s="6"/>
     </row>
-    <row r="718" ht="12.75" customHeight="1">
+    <row r="718" spans="2:14" ht="12.75" customHeight="1">
       <c r="B718" s="3"/>
       <c r="C718" s="6"/>
       <c r="D718" s="6"/>
@@ -11125,7 +11412,7 @@
       <c r="M718" s="6"/>
       <c r="N718" s="6"/>
     </row>
-    <row r="719" ht="12.75" customHeight="1">
+    <row r="719" spans="2:14" ht="12.75" customHeight="1">
       <c r="B719" s="3"/>
       <c r="C719" s="6"/>
       <c r="D719" s="6"/>
@@ -11140,7 +11427,7 @@
       <c r="M719" s="6"/>
       <c r="N719" s="6"/>
     </row>
-    <row r="720" ht="12.75" customHeight="1">
+    <row r="720" spans="2:14" ht="12.75" customHeight="1">
       <c r="B720" s="3"/>
       <c r="C720" s="6"/>
       <c r="D720" s="6"/>
@@ -11155,7 +11442,7 @@
       <c r="M720" s="6"/>
       <c r="N720" s="6"/>
     </row>
-    <row r="721" ht="12.75" customHeight="1">
+    <row r="721" spans="2:14" ht="12.75" customHeight="1">
       <c r="B721" s="3"/>
       <c r="C721" s="6"/>
       <c r="D721" s="6"/>
@@ -11170,7 +11457,7 @@
       <c r="M721" s="6"/>
       <c r="N721" s="6"/>
     </row>
-    <row r="722" ht="12.75" customHeight="1">
+    <row r="722" spans="2:14" ht="12.75" customHeight="1">
       <c r="B722" s="3"/>
       <c r="C722" s="6"/>
       <c r="D722" s="6"/>
@@ -11185,7 +11472,7 @@
       <c r="M722" s="6"/>
       <c r="N722" s="6"/>
     </row>
-    <row r="723" ht="12.75" customHeight="1">
+    <row r="723" spans="2:14" ht="12.75" customHeight="1">
       <c r="B723" s="3"/>
       <c r="C723" s="6"/>
       <c r="D723" s="6"/>
@@ -11200,7 +11487,7 @@
       <c r="M723" s="6"/>
       <c r="N723" s="6"/>
     </row>
-    <row r="724" ht="12.75" customHeight="1">
+    <row r="724" spans="2:14" ht="12.75" customHeight="1">
       <c r="B724" s="3"/>
       <c r="C724" s="6"/>
       <c r="D724" s="6"/>
@@ -11215,7 +11502,7 @@
       <c r="M724" s="6"/>
       <c r="N724" s="6"/>
     </row>
-    <row r="725" ht="12.75" customHeight="1">
+    <row r="725" spans="2:14" ht="12.75" customHeight="1">
       <c r="B725" s="3"/>
       <c r="C725" s="6"/>
       <c r="D725" s="6"/>
@@ -11230,7 +11517,7 @@
       <c r="M725" s="6"/>
       <c r="N725" s="6"/>
     </row>
-    <row r="726" ht="12.75" customHeight="1">
+    <row r="726" spans="2:14" ht="12.75" customHeight="1">
       <c r="B726" s="3"/>
       <c r="C726" s="6"/>
       <c r="D726" s="6"/>
@@ -11245,7 +11532,7 @@
       <c r="M726" s="6"/>
       <c r="N726" s="6"/>
     </row>
-    <row r="727" ht="12.75" customHeight="1">
+    <row r="727" spans="2:14" ht="12.75" customHeight="1">
       <c r="B727" s="3"/>
       <c r="C727" s="6"/>
       <c r="D727" s="6"/>
@@ -11260,7 +11547,7 @@
       <c r="M727" s="6"/>
       <c r="N727" s="6"/>
     </row>
-    <row r="728" ht="12.75" customHeight="1">
+    <row r="728" spans="2:14" ht="12.75" customHeight="1">
       <c r="B728" s="3"/>
       <c r="C728" s="6"/>
       <c r="D728" s="6"/>
@@ -11275,7 +11562,7 @@
       <c r="M728" s="6"/>
       <c r="N728" s="6"/>
     </row>
-    <row r="729" ht="12.75" customHeight="1">
+    <row r="729" spans="2:14" ht="12.75" customHeight="1">
       <c r="B729" s="3"/>
       <c r="C729" s="6"/>
       <c r="D729" s="6"/>
@@ -11290,7 +11577,7 @@
       <c r="M729" s="6"/>
       <c r="N729" s="6"/>
     </row>
-    <row r="730" ht="12.75" customHeight="1">
+    <row r="730" spans="2:14" ht="12.75" customHeight="1">
       <c r="B730" s="3"/>
       <c r="C730" s="6"/>
       <c r="D730" s="6"/>
@@ -11305,7 +11592,7 @@
       <c r="M730" s="6"/>
       <c r="N730" s="6"/>
     </row>
-    <row r="731" ht="12.75" customHeight="1">
+    <row r="731" spans="2:14" ht="12.75" customHeight="1">
       <c r="B731" s="3"/>
       <c r="C731" s="6"/>
       <c r="D731" s="6"/>
@@ -11320,7 +11607,7 @@
       <c r="M731" s="6"/>
       <c r="N731" s="6"/>
     </row>
-    <row r="732" ht="12.75" customHeight="1">
+    <row r="732" spans="2:14" ht="12.75" customHeight="1">
       <c r="B732" s="3"/>
       <c r="C732" s="6"/>
       <c r="D732" s="6"/>
@@ -11335,7 +11622,7 @@
       <c r="M732" s="6"/>
       <c r="N732" s="6"/>
     </row>
-    <row r="733" ht="12.75" customHeight="1">
+    <row r="733" spans="2:14" ht="12.75" customHeight="1">
       <c r="B733" s="3"/>
       <c r="C733" s="6"/>
       <c r="D733" s="6"/>
@@ -11350,7 +11637,7 @@
       <c r="M733" s="6"/>
       <c r="N733" s="6"/>
     </row>
-    <row r="734" ht="12.75" customHeight="1">
+    <row r="734" spans="2:14" ht="12.75" customHeight="1">
       <c r="B734" s="3"/>
       <c r="C734" s="6"/>
       <c r="D734" s="6"/>
@@ -11365,7 +11652,7 @@
       <c r="M734" s="6"/>
       <c r="N734" s="6"/>
     </row>
-    <row r="735" ht="12.75" customHeight="1">
+    <row r="735" spans="2:14" ht="12.75" customHeight="1">
       <c r="B735" s="3"/>
       <c r="C735" s="6"/>
       <c r="D735" s="6"/>
@@ -11380,7 +11667,7 @@
       <c r="M735" s="6"/>
       <c r="N735" s="6"/>
     </row>
-    <row r="736" ht="12.75" customHeight="1">
+    <row r="736" spans="2:14" ht="12.75" customHeight="1">
       <c r="B736" s="3"/>
       <c r="C736" s="6"/>
       <c r="D736" s="6"/>
@@ -11395,7 +11682,7 @@
       <c r="M736" s="6"/>
       <c r="N736" s="6"/>
     </row>
-    <row r="737" ht="12.75" customHeight="1">
+    <row r="737" spans="2:14" ht="12.75" customHeight="1">
       <c r="B737" s="3"/>
       <c r="C737" s="6"/>
       <c r="D737" s="6"/>
@@ -11410,7 +11697,7 @@
       <c r="M737" s="6"/>
       <c r="N737" s="6"/>
     </row>
-    <row r="738" ht="12.75" customHeight="1">
+    <row r="738" spans="2:14" ht="12.75" customHeight="1">
       <c r="B738" s="3"/>
       <c r="C738" s="6"/>
       <c r="D738" s="6"/>
@@ -11425,7 +11712,7 @@
       <c r="M738" s="6"/>
       <c r="N738" s="6"/>
     </row>
-    <row r="739" ht="12.75" customHeight="1">
+    <row r="739" spans="2:14" ht="12.75" customHeight="1">
       <c r="B739" s="3"/>
       <c r="C739" s="6"/>
       <c r="D739" s="6"/>
@@ -11440,7 +11727,7 @@
       <c r="M739" s="6"/>
       <c r="N739" s="6"/>
     </row>
-    <row r="740" ht="12.75" customHeight="1">
+    <row r="740" spans="2:14" ht="12.75" customHeight="1">
       <c r="B740" s="3"/>
       <c r="C740" s="6"/>
       <c r="D740" s="6"/>
@@ -11455,7 +11742,7 @@
       <c r="M740" s="6"/>
       <c r="N740" s="6"/>
     </row>
-    <row r="741" ht="12.75" customHeight="1">
+    <row r="741" spans="2:14" ht="12.75" customHeight="1">
       <c r="B741" s="3"/>
       <c r="C741" s="6"/>
       <c r="D741" s="6"/>
@@ -11470,7 +11757,7 @@
       <c r="M741" s="6"/>
       <c r="N741" s="6"/>
     </row>
-    <row r="742" ht="12.75" customHeight="1">
+    <row r="742" spans="2:14" ht="12.75" customHeight="1">
       <c r="B742" s="3"/>
       <c r="C742" s="6"/>
       <c r="D742" s="6"/>
@@ -11485,7 +11772,7 @@
       <c r="M742" s="6"/>
       <c r="N742" s="6"/>
     </row>
-    <row r="743" ht="12.75" customHeight="1">
+    <row r="743" spans="2:14" ht="12.75" customHeight="1">
       <c r="B743" s="3"/>
       <c r="C743" s="6"/>
       <c r="D743" s="6"/>
@@ -11500,7 +11787,7 @@
       <c r="M743" s="6"/>
       <c r="N743" s="6"/>
     </row>
-    <row r="744" ht="12.75" customHeight="1">
+    <row r="744" spans="2:14" ht="12.75" customHeight="1">
       <c r="B744" s="3"/>
       <c r="C744" s="6"/>
       <c r="D744" s="6"/>
@@ -11515,7 +11802,7 @@
       <c r="M744" s="6"/>
       <c r="N744" s="6"/>
     </row>
-    <row r="745" ht="12.75" customHeight="1">
+    <row r="745" spans="2:14" ht="12.75" customHeight="1">
       <c r="B745" s="3"/>
       <c r="C745" s="6"/>
       <c r="D745" s="6"/>
@@ -11530,7 +11817,7 @@
       <c r="M745" s="6"/>
       <c r="N745" s="6"/>
     </row>
-    <row r="746" ht="12.75" customHeight="1">
+    <row r="746" spans="2:14" ht="12.75" customHeight="1">
       <c r="B746" s="3"/>
       <c r="C746" s="6"/>
       <c r="D746" s="6"/>
@@ -11545,7 +11832,7 @@
       <c r="M746" s="6"/>
       <c r="N746" s="6"/>
     </row>
-    <row r="747" ht="12.75" customHeight="1">
+    <row r="747" spans="2:14" ht="12.75" customHeight="1">
       <c r="B747" s="3"/>
       <c r="C747" s="6"/>
       <c r="D747" s="6"/>
@@ -11560,7 +11847,7 @@
       <c r="M747" s="6"/>
       <c r="N747" s="6"/>
     </row>
-    <row r="748" ht="12.75" customHeight="1">
+    <row r="748" spans="2:14" ht="12.75" customHeight="1">
       <c r="B748" s="3"/>
       <c r="C748" s="6"/>
       <c r="D748" s="6"/>
@@ -11575,7 +11862,7 @@
       <c r="M748" s="6"/>
       <c r="N748" s="6"/>
     </row>
-    <row r="749" ht="12.75" customHeight="1">
+    <row r="749" spans="2:14" ht="12.75" customHeight="1">
       <c r="B749" s="3"/>
       <c r="C749" s="6"/>
       <c r="D749" s="6"/>
@@ -11590,7 +11877,7 @@
       <c r="M749" s="6"/>
       <c r="N749" s="6"/>
     </row>
-    <row r="750" ht="12.75" customHeight="1">
+    <row r="750" spans="2:14" ht="12.75" customHeight="1">
       <c r="B750" s="3"/>
       <c r="C750" s="6"/>
       <c r="D750" s="6"/>
@@ -11605,7 +11892,7 @@
       <c r="M750" s="6"/>
       <c r="N750" s="6"/>
     </row>
-    <row r="751" ht="12.75" customHeight="1">
+    <row r="751" spans="2:14" ht="12.75" customHeight="1">
       <c r="B751" s="3"/>
       <c r="C751" s="6"/>
       <c r="D751" s="6"/>
@@ -11620,7 +11907,7 @@
       <c r="M751" s="6"/>
       <c r="N751" s="6"/>
     </row>
-    <row r="752" ht="12.75" customHeight="1">
+    <row r="752" spans="2:14" ht="12.75" customHeight="1">
       <c r="B752" s="3"/>
       <c r="C752" s="6"/>
       <c r="D752" s="6"/>
@@ -11635,7 +11922,7 @@
       <c r="M752" s="6"/>
       <c r="N752" s="6"/>
     </row>
-    <row r="753" ht="12.75" customHeight="1">
+    <row r="753" spans="2:14" ht="12.75" customHeight="1">
       <c r="B753" s="3"/>
       <c r="C753" s="6"/>
       <c r="D753" s="6"/>
@@ -11650,7 +11937,7 @@
       <c r="M753" s="6"/>
       <c r="N753" s="6"/>
     </row>
-    <row r="754" ht="12.75" customHeight="1">
+    <row r="754" spans="2:14" ht="12.75" customHeight="1">
       <c r="B754" s="3"/>
       <c r="C754" s="6"/>
       <c r="D754" s="6"/>
@@ -11665,7 +11952,7 @@
       <c r="M754" s="6"/>
       <c r="N754" s="6"/>
     </row>
-    <row r="755" ht="12.75" customHeight="1">
+    <row r="755" spans="2:14" ht="12.75" customHeight="1">
       <c r="B755" s="3"/>
       <c r="C755" s="6"/>
       <c r="D755" s="6"/>
@@ -11680,7 +11967,7 @@
       <c r="M755" s="6"/>
       <c r="N755" s="6"/>
     </row>
-    <row r="756" ht="12.75" customHeight="1">
+    <row r="756" spans="2:14" ht="12.75" customHeight="1">
       <c r="B756" s="3"/>
       <c r="C756" s="6"/>
       <c r="D756" s="6"/>
@@ -11695,7 +11982,7 @@
       <c r="M756" s="6"/>
       <c r="N756" s="6"/>
     </row>
-    <row r="757" ht="12.75" customHeight="1">
+    <row r="757" spans="2:14" ht="12.75" customHeight="1">
       <c r="B757" s="3"/>
       <c r="C757" s="6"/>
       <c r="D757" s="6"/>
@@ -11710,7 +11997,7 @@
       <c r="M757" s="6"/>
       <c r="N757" s="6"/>
     </row>
-    <row r="758" ht="12.75" customHeight="1">
+    <row r="758" spans="2:14" ht="12.75" customHeight="1">
       <c r="B758" s="3"/>
       <c r="C758" s="6"/>
       <c r="D758" s="6"/>
@@ -11725,7 +12012,7 @@
       <c r="M758" s="6"/>
       <c r="N758" s="6"/>
     </row>
-    <row r="759" ht="12.75" customHeight="1">
+    <row r="759" spans="2:14" ht="12.75" customHeight="1">
       <c r="B759" s="3"/>
       <c r="C759" s="6"/>
       <c r="D759" s="6"/>
@@ -11740,7 +12027,7 @@
       <c r="M759" s="6"/>
       <c r="N759" s="6"/>
     </row>
-    <row r="760" ht="12.75" customHeight="1">
+    <row r="760" spans="2:14" ht="12.75" customHeight="1">
       <c r="B760" s="3"/>
       <c r="C760" s="6"/>
       <c r="D760" s="6"/>
@@ -11755,7 +12042,7 @@
       <c r="M760" s="6"/>
       <c r="N760" s="6"/>
     </row>
-    <row r="761" ht="12.75" customHeight="1">
+    <row r="761" spans="2:14" ht="12.75" customHeight="1">
       <c r="B761" s="3"/>
       <c r="C761" s="6"/>
       <c r="D761" s="6"/>
@@ -11770,7 +12057,7 @@
       <c r="M761" s="6"/>
       <c r="N761" s="6"/>
     </row>
-    <row r="762" ht="12.75" customHeight="1">
+    <row r="762" spans="2:14" ht="12.75" customHeight="1">
       <c r="B762" s="3"/>
       <c r="C762" s="6"/>
       <c r="D762" s="6"/>
@@ -11785,7 +12072,7 @@
       <c r="M762" s="6"/>
       <c r="N762" s="6"/>
     </row>
-    <row r="763" ht="12.75" customHeight="1">
+    <row r="763" spans="2:14" ht="12.75" customHeight="1">
       <c r="B763" s="3"/>
       <c r="C763" s="6"/>
       <c r="D763" s="6"/>
@@ -11800,7 +12087,7 @@
       <c r="M763" s="6"/>
       <c r="N763" s="6"/>
     </row>
-    <row r="764" ht="12.75" customHeight="1">
+    <row r="764" spans="2:14" ht="12.75" customHeight="1">
       <c r="B764" s="3"/>
       <c r="C764" s="6"/>
       <c r="D764" s="6"/>
@@ -11815,7 +12102,7 @@
       <c r="M764" s="6"/>
       <c r="N764" s="6"/>
     </row>
-    <row r="765" ht="12.75" customHeight="1">
+    <row r="765" spans="2:14" ht="12.75" customHeight="1">
       <c r="B765" s="3"/>
       <c r="C765" s="6"/>
       <c r="D765" s="6"/>
@@ -11830,7 +12117,7 @@
       <c r="M765" s="6"/>
       <c r="N765" s="6"/>
     </row>
-    <row r="766" ht="12.75" customHeight="1">
+    <row r="766" spans="2:14" ht="12.75" customHeight="1">
       <c r="B766" s="3"/>
       <c r="C766" s="6"/>
       <c r="D766" s="6"/>
@@ -11845,7 +12132,7 @@
       <c r="M766" s="6"/>
       <c r="N766" s="6"/>
     </row>
-    <row r="767" ht="12.75" customHeight="1">
+    <row r="767" spans="2:14" ht="12.75" customHeight="1">
       <c r="B767" s="3"/>
       <c r="C767" s="6"/>
       <c r="D767" s="6"/>
@@ -11860,7 +12147,7 @@
       <c r="M767" s="6"/>
       <c r="N767" s="6"/>
     </row>
-    <row r="768" ht="12.75" customHeight="1">
+    <row r="768" spans="2:14" ht="12.75" customHeight="1">
       <c r="B768" s="3"/>
       <c r="C768" s="6"/>
       <c r="D768" s="6"/>
@@ -11875,7 +12162,7 @@
       <c r="M768" s="6"/>
       <c r="N768" s="6"/>
     </row>
-    <row r="769" ht="12.75" customHeight="1">
+    <row r="769" spans="2:14" ht="12.75" customHeight="1">
       <c r="B769" s="3"/>
       <c r="C769" s="6"/>
       <c r="D769" s="6"/>
@@ -11890,7 +12177,7 @@
       <c r="M769" s="6"/>
       <c r="N769" s="6"/>
     </row>
-    <row r="770" ht="12.75" customHeight="1">
+    <row r="770" spans="2:14" ht="12.75" customHeight="1">
       <c r="B770" s="3"/>
       <c r="C770" s="6"/>
       <c r="D770" s="6"/>
@@ -11905,7 +12192,7 @@
       <c r="M770" s="6"/>
       <c r="N770" s="6"/>
     </row>
-    <row r="771" ht="12.75" customHeight="1">
+    <row r="771" spans="2:14" ht="12.75" customHeight="1">
       <c r="B771" s="3"/>
       <c r="C771" s="6"/>
       <c r="D771" s="6"/>
@@ -11920,7 +12207,7 @@
       <c r="M771" s="6"/>
       <c r="N771" s="6"/>
     </row>
-    <row r="772" ht="12.75" customHeight="1">
+    <row r="772" spans="2:14" ht="12.75" customHeight="1">
       <c r="B772" s="3"/>
       <c r="C772" s="6"/>
       <c r="D772" s="6"/>
@@ -11935,7 +12222,7 @@
       <c r="M772" s="6"/>
       <c r="N772" s="6"/>
     </row>
-    <row r="773" ht="12.75" customHeight="1">
+    <row r="773" spans="2:14" ht="12.75" customHeight="1">
       <c r="B773" s="3"/>
       <c r="C773" s="6"/>
       <c r="D773" s="6"/>
@@ -11950,7 +12237,7 @@
       <c r="M773" s="6"/>
       <c r="N773" s="6"/>
     </row>
-    <row r="774" ht="12.75" customHeight="1">
+    <row r="774" spans="2:14" ht="12.75" customHeight="1">
       <c r="B774" s="3"/>
       <c r="C774" s="6"/>
       <c r="D774" s="6"/>
@@ -11965,7 +12252,7 @@
       <c r="M774" s="6"/>
       <c r="N774" s="6"/>
     </row>
-    <row r="775" ht="12.75" customHeight="1">
+    <row r="775" spans="2:14" ht="12.75" customHeight="1">
       <c r="B775" s="3"/>
       <c r="C775" s="6"/>
       <c r="D775" s="6"/>
@@ -11980,7 +12267,7 @@
       <c r="M775" s="6"/>
       <c r="N775" s="6"/>
     </row>
-    <row r="776" ht="12.75" customHeight="1">
+    <row r="776" spans="2:14" ht="12.75" customHeight="1">
       <c r="B776" s="3"/>
       <c r="C776" s="6"/>
       <c r="D776" s="6"/>
@@ -11995,7 +12282,7 @@
       <c r="M776" s="6"/>
       <c r="N776" s="6"/>
     </row>
-    <row r="777" ht="12.75" customHeight="1">
+    <row r="777" spans="2:14" ht="12.75" customHeight="1">
       <c r="B777" s="3"/>
       <c r="C777" s="6"/>
       <c r="D777" s="6"/>
@@ -12010,7 +12297,7 @@
       <c r="M777" s="6"/>
       <c r="N777" s="6"/>
     </row>
-    <row r="778" ht="12.75" customHeight="1">
+    <row r="778" spans="2:14" ht="12.75" customHeight="1">
       <c r="B778" s="3"/>
       <c r="C778" s="6"/>
       <c r="D778" s="6"/>
@@ -12025,7 +12312,7 @@
       <c r="M778" s="6"/>
       <c r="N778" s="6"/>
     </row>
-    <row r="779" ht="12.75" customHeight="1">
+    <row r="779" spans="2:14" ht="12.75" customHeight="1">
       <c r="B779" s="3"/>
       <c r="C779" s="6"/>
       <c r="D779" s="6"/>
@@ -12040,7 +12327,7 @@
       <c r="M779" s="6"/>
       <c r="N779" s="6"/>
     </row>
-    <row r="780" ht="12.75" customHeight="1">
+    <row r="780" spans="2:14" ht="12.75" customHeight="1">
       <c r="B780" s="3"/>
       <c r="C780" s="6"/>
       <c r="D780" s="6"/>
@@ -12055,7 +12342,7 @@
       <c r="M780" s="6"/>
       <c r="N780" s="6"/>
     </row>
-    <row r="781" ht="12.75" customHeight="1">
+    <row r="781" spans="2:14" ht="12.75" customHeight="1">
       <c r="B781" s="3"/>
       <c r="C781" s="6"/>
       <c r="D781" s="6"/>
@@ -12070,7 +12357,7 @@
       <c r="M781" s="6"/>
       <c r="N781" s="6"/>
     </row>
-    <row r="782" ht="12.75" customHeight="1">
+    <row r="782" spans="2:14" ht="12.75" customHeight="1">
       <c r="B782" s="3"/>
       <c r="C782" s="6"/>
       <c r="D782" s="6"/>
@@ -12085,7 +12372,7 @@
       <c r="M782" s="6"/>
       <c r="N782" s="6"/>
     </row>
-    <row r="783" ht="12.75" customHeight="1">
+    <row r="783" spans="2:14" ht="12.75" customHeight="1">
       <c r="B783" s="3"/>
       <c r="C783" s="6"/>
       <c r="D783" s="6"/>
@@ -12100,7 +12387,7 @@
       <c r="M783" s="6"/>
       <c r="N783" s="6"/>
     </row>
-    <row r="784" ht="12.75" customHeight="1">
+    <row r="784" spans="2:14" ht="12.75" customHeight="1">
       <c r="B784" s="3"/>
       <c r="C784" s="6"/>
       <c r="D784" s="6"/>
@@ -12115,7 +12402,7 @@
       <c r="M784" s="6"/>
       <c r="N784" s="6"/>
     </row>
-    <row r="785" ht="12.75" customHeight="1">
+    <row r="785" spans="2:14" ht="12.75" customHeight="1">
       <c r="B785" s="3"/>
       <c r="C785" s="6"/>
       <c r="D785" s="6"/>
@@ -12130,7 +12417,7 @@
       <c r="M785" s="6"/>
       <c r="N785" s="6"/>
     </row>
-    <row r="786" ht="12.75" customHeight="1">
+    <row r="786" spans="2:14" ht="12.75" customHeight="1">
       <c r="B786" s="3"/>
       <c r="C786" s="6"/>
       <c r="D786" s="6"/>
@@ -12145,7 +12432,7 @@
       <c r="M786" s="6"/>
       <c r="N786" s="6"/>
     </row>
-    <row r="787" ht="12.75" customHeight="1">
+    <row r="787" spans="2:14" ht="12.75" customHeight="1">
       <c r="B787" s="3"/>
       <c r="C787" s="6"/>
       <c r="D787" s="6"/>
@@ -12160,7 +12447,7 @@
       <c r="M787" s="6"/>
       <c r="N787" s="6"/>
     </row>
-    <row r="788" ht="12.75" customHeight="1">
+    <row r="788" spans="2:14" ht="12.75" customHeight="1">
       <c r="B788" s="3"/>
       <c r="C788" s="6"/>
       <c r="D788" s="6"/>
@@ -12175,7 +12462,7 @@
       <c r="M788" s="6"/>
       <c r="N788" s="6"/>
     </row>
-    <row r="789" ht="12.75" customHeight="1">
+    <row r="789" spans="2:14" ht="12.75" customHeight="1">
       <c r="B789" s="3"/>
       <c r="C789" s="6"/>
       <c r="D789" s="6"/>
@@ -12190,7 +12477,7 @@
       <c r="M789" s="6"/>
       <c r="N789" s="6"/>
     </row>
-    <row r="790" ht="12.75" customHeight="1">
+    <row r="790" spans="2:14" ht="12.75" customHeight="1">
       <c r="B790" s="3"/>
       <c r="C790" s="6"/>
       <c r="D790" s="6"/>
@@ -12205,7 +12492,7 @@
       <c r="M790" s="6"/>
       <c r="N790" s="6"/>
     </row>
-    <row r="791" ht="12.75" customHeight="1">
+    <row r="791" spans="2:14" ht="12.75" customHeight="1">
       <c r="B791" s="3"/>
       <c r="C791" s="6"/>
       <c r="D791" s="6"/>
@@ -12220,7 +12507,7 @@
       <c r="M791" s="6"/>
       <c r="N791" s="6"/>
     </row>
-    <row r="792" ht="12.75" customHeight="1">
+    <row r="792" spans="2:14" ht="12.75" customHeight="1">
       <c r="B792" s="3"/>
       <c r="C792" s="6"/>
       <c r="D792" s="6"/>
@@ -12235,7 +12522,7 @@
       <c r="M792" s="6"/>
       <c r="N792" s="6"/>
     </row>
-    <row r="793" ht="12.75" customHeight="1">
+    <row r="793" spans="2:14" ht="12.75" customHeight="1">
       <c r="B793" s="3"/>
       <c r="C793" s="6"/>
       <c r="D793" s="6"/>
@@ -12250,7 +12537,7 @@
       <c r="M793" s="6"/>
       <c r="N793" s="6"/>
     </row>
-    <row r="794" ht="12.75" customHeight="1">
+    <row r="794" spans="2:14" ht="12.75" customHeight="1">
       <c r="B794" s="3"/>
       <c r="C794" s="6"/>
       <c r="D794" s="6"/>
@@ -12265,7 +12552,7 @@
       <c r="M794" s="6"/>
       <c r="N794" s="6"/>
     </row>
-    <row r="795" ht="12.75" customHeight="1">
+    <row r="795" spans="2:14" ht="12.75" customHeight="1">
       <c r="B795" s="3"/>
       <c r="C795" s="6"/>
       <c r="D795" s="6"/>
@@ -12280,7 +12567,7 @@
       <c r="M795" s="6"/>
       <c r="N795" s="6"/>
     </row>
-    <row r="796" ht="12.75" customHeight="1">
+    <row r="796" spans="2:14" ht="12.75" customHeight="1">
       <c r="B796" s="3"/>
       <c r="C796" s="6"/>
       <c r="D796" s="6"/>
@@ -12295,7 +12582,7 @@
       <c r="M796" s="6"/>
       <c r="N796" s="6"/>
     </row>
-    <row r="797" ht="12.75" customHeight="1">
+    <row r="797" spans="2:14" ht="12.75" customHeight="1">
       <c r="B797" s="3"/>
       <c r="C797" s="6"/>
       <c r="D797" s="6"/>
@@ -12310,7 +12597,7 @@
       <c r="M797" s="6"/>
       <c r="N797" s="6"/>
     </row>
-    <row r="798" ht="12.75" customHeight="1">
+    <row r="798" spans="2:14" ht="12.75" customHeight="1">
       <c r="B798" s="3"/>
       <c r="C798" s="6"/>
       <c r="D798" s="6"/>
@@ -12325,7 +12612,7 @@
       <c r="M798" s="6"/>
       <c r="N798" s="6"/>
     </row>
-    <row r="799" ht="12.75" customHeight="1">
+    <row r="799" spans="2:14" ht="12.75" customHeight="1">
       <c r="B799" s="3"/>
       <c r="C799" s="6"/>
       <c r="D799" s="6"/>
@@ -12340,7 +12627,7 @@
       <c r="M799" s="6"/>
       <c r="N799" s="6"/>
     </row>
-    <row r="800" ht="12.75" customHeight="1">
+    <row r="800" spans="2:14" ht="12.75" customHeight="1">
       <c r="B800" s="3"/>
       <c r="C800" s="6"/>
       <c r="D800" s="6"/>
@@ -12355,7 +12642,7 @@
       <c r="M800" s="6"/>
       <c r="N800" s="6"/>
     </row>
-    <row r="801" ht="12.75" customHeight="1">
+    <row r="801" spans="2:14" ht="12.75" customHeight="1">
       <c r="B801" s="3"/>
       <c r="C801" s="6"/>
       <c r="D801" s="6"/>
@@ -12370,7 +12657,7 @@
       <c r="M801" s="6"/>
       <c r="N801" s="6"/>
     </row>
-    <row r="802" ht="12.75" customHeight="1">
+    <row r="802" spans="2:14" ht="12.75" customHeight="1">
       <c r="B802" s="3"/>
       <c r="C802" s="6"/>
       <c r="D802" s="6"/>
@@ -12385,7 +12672,7 @@
       <c r="M802" s="6"/>
       <c r="N802" s="6"/>
     </row>
-    <row r="803" ht="12.75" customHeight="1">
+    <row r="803" spans="2:14" ht="12.75" customHeight="1">
       <c r="B803" s="3"/>
       <c r="C803" s="6"/>
       <c r="D803" s="6"/>
@@ -12400,7 +12687,7 @@
       <c r="M803" s="6"/>
       <c r="N803" s="6"/>
     </row>
-    <row r="804" ht="12.75" customHeight="1">
+    <row r="804" spans="2:14" ht="12.75" customHeight="1">
       <c r="B804" s="3"/>
       <c r="C804" s="6"/>
       <c r="D804" s="6"/>
@@ -12415,7 +12702,7 @@
       <c r="M804" s="6"/>
       <c r="N804" s="6"/>
     </row>
-    <row r="805" ht="12.75" customHeight="1">
+    <row r="805" spans="2:14" ht="12.75" customHeight="1">
       <c r="B805" s="3"/>
       <c r="C805" s="6"/>
       <c r="D805" s="6"/>
@@ -12430,7 +12717,7 @@
       <c r="M805" s="6"/>
       <c r="N805" s="6"/>
     </row>
-    <row r="806" ht="12.75" customHeight="1">
+    <row r="806" spans="2:14" ht="12.75" customHeight="1">
       <c r="B806" s="3"/>
       <c r="C806" s="6"/>
       <c r="D806" s="6"/>
@@ -12445,7 +12732,7 @@
       <c r="M806" s="6"/>
       <c r="N806" s="6"/>
     </row>
-    <row r="807" ht="12.75" customHeight="1">
+    <row r="807" spans="2:14" ht="12.75" customHeight="1">
       <c r="B807" s="3"/>
       <c r="C807" s="6"/>
       <c r="D807" s="6"/>
@@ -12460,7 +12747,7 @@
       <c r="M807" s="6"/>
       <c r="N807" s="6"/>
     </row>
-    <row r="808" ht="12.75" customHeight="1">
+    <row r="808" spans="2:14" ht="12.75" customHeight="1">
       <c r="B808" s="3"/>
       <c r="C808" s="6"/>
       <c r="D808" s="6"/>
@@ -12475,7 +12762,7 @@
       <c r="M808" s="6"/>
       <c r="N808" s="6"/>
     </row>
-    <row r="809" ht="12.75" customHeight="1">
+    <row r="809" spans="2:14" ht="12.75" customHeight="1">
       <c r="B809" s="3"/>
       <c r="C809" s="6"/>
       <c r="D809" s="6"/>
@@ -12490,7 +12777,7 @@
       <c r="M809" s="6"/>
       <c r="N809" s="6"/>
     </row>
-    <row r="810" ht="12.75" customHeight="1">
+    <row r="810" spans="2:14" ht="12.75" customHeight="1">
       <c r="B810" s="3"/>
       <c r="C810" s="6"/>
       <c r="D810" s="6"/>
@@ -12505,7 +12792,7 @@
       <c r="M810" s="6"/>
       <c r="N810" s="6"/>
     </row>
-    <row r="811" ht="12.75" customHeight="1">
+    <row r="811" spans="2:14" ht="12.75" customHeight="1">
       <c r="B811" s="3"/>
       <c r="C811" s="6"/>
       <c r="D811" s="6"/>
@@ -12520,7 +12807,7 @@
       <c r="M811" s="6"/>
       <c r="N811" s="6"/>
     </row>
-    <row r="812" ht="12.75" customHeight="1">
+    <row r="812" spans="2:14" ht="12.75" customHeight="1">
       <c r="B812" s="3"/>
       <c r="C812" s="6"/>
       <c r="D812" s="6"/>
@@ -12535,7 +12822,7 @@
       <c r="M812" s="6"/>
       <c r="N812" s="6"/>
     </row>
-    <row r="813" ht="12.75" customHeight="1">
+    <row r="813" spans="2:14" ht="12.75" customHeight="1">
       <c r="B813" s="3"/>
       <c r="C813" s="6"/>
       <c r="D813" s="6"/>
@@ -12550,7 +12837,7 @@
       <c r="M813" s="6"/>
       <c r="N813" s="6"/>
     </row>
-    <row r="814" ht="12.75" customHeight="1">
+    <row r="814" spans="2:14" ht="12.75" customHeight="1">
       <c r="B814" s="3"/>
       <c r="C814" s="6"/>
       <c r="D814" s="6"/>
@@ -12565,7 +12852,7 @@
       <c r="M814" s="6"/>
       <c r="N814" s="6"/>
     </row>
-    <row r="815" ht="12.75" customHeight="1">
+    <row r="815" spans="2:14" ht="12.75" customHeight="1">
       <c r="B815" s="3"/>
       <c r="C815" s="6"/>
       <c r="D815" s="6"/>
@@ -12580,7 +12867,7 @@
       <c r="M815" s="6"/>
       <c r="N815" s="6"/>
     </row>
-    <row r="816" ht="12.75" customHeight="1">
+    <row r="816" spans="2:14" ht="12.75" customHeight="1">
       <c r="B816" s="3"/>
       <c r="C816" s="6"/>
       <c r="D816" s="6"/>
@@ -12595,7 +12882,7 @@
       <c r="M816" s="6"/>
       <c r="N816" s="6"/>
     </row>
-    <row r="817" ht="12.75" customHeight="1">
+    <row r="817" spans="2:14" ht="12.75" customHeight="1">
       <c r="B817" s="3"/>
       <c r="C817" s="6"/>
       <c r="D817" s="6"/>
@@ -12610,7 +12897,7 @@
       <c r="M817" s="6"/>
       <c r="N817" s="6"/>
     </row>
-    <row r="818" ht="12.75" customHeight="1">
+    <row r="818" spans="2:14" ht="12.75" customHeight="1">
       <c r="B818" s="3"/>
       <c r="C818" s="6"/>
       <c r="D818" s="6"/>
@@ -12625,7 +12912,7 @@
       <c r="M818" s="6"/>
       <c r="N818" s="6"/>
     </row>
-    <row r="819" ht="12.75" customHeight="1">
+    <row r="819" spans="2:14" ht="12.75" customHeight="1">
       <c r="B819" s="3"/>
       <c r="C819" s="6"/>
       <c r="D819" s="6"/>
@@ -12640,7 +12927,7 @@
       <c r="M819" s="6"/>
       <c r="N819" s="6"/>
     </row>
-    <row r="820" ht="12.75" customHeight="1">
+    <row r="820" spans="2:14" ht="12.75" customHeight="1">
       <c r="B820" s="3"/>
       <c r="C820" s="6"/>
       <c r="D820" s="6"/>
@@ -12655,7 +12942,7 @@
       <c r="M820" s="6"/>
       <c r="N820" s="6"/>
     </row>
-    <row r="821" ht="12.75" customHeight="1">
+    <row r="821" spans="2:14" ht="12.75" customHeight="1">
       <c r="B821" s="3"/>
       <c r="C821" s="6"/>
       <c r="D821" s="6"/>
@@ -12670,7 +12957,7 @@
       <c r="M821" s="6"/>
       <c r="N821" s="6"/>
     </row>
-    <row r="822" ht="12.75" customHeight="1">
+    <row r="822" spans="2:14" ht="12.75" customHeight="1">
       <c r="B822" s="3"/>
       <c r="C822" s="6"/>
       <c r="D822" s="6"/>
@@ -12685,7 +12972,7 @@
       <c r="M822" s="6"/>
       <c r="N822" s="6"/>
     </row>
-    <row r="823" ht="12.75" customHeight="1">
+    <row r="823" spans="2:14" ht="12.75" customHeight="1">
       <c r="B823" s="3"/>
       <c r="C823" s="6"/>
       <c r="D823" s="6"/>
@@ -12700,7 +12987,7 @@
       <c r="M823" s="6"/>
       <c r="N823" s="6"/>
     </row>
-    <row r="824" ht="12.75" customHeight="1">
+    <row r="824" spans="2:14" ht="12.75" customHeight="1">
       <c r="B824" s="3"/>
       <c r="C824" s="6"/>
       <c r="D824" s="6"/>
@@ -12715,7 +13002,7 @@
       <c r="M824" s="6"/>
       <c r="N824" s="6"/>
     </row>
-    <row r="825" ht="12.75" customHeight="1">
+    <row r="825" spans="2:14" ht="12.75" customHeight="1">
       <c r="B825" s="3"/>
       <c r="C825" s="6"/>
       <c r="D825" s="6"/>
@@ -12730,7 +13017,7 @@
       <c r="M825" s="6"/>
       <c r="N825" s="6"/>
     </row>
-    <row r="826" ht="12.75" customHeight="1">
+    <row r="826" spans="2:14" ht="12.75" customHeight="1">
       <c r="B826" s="3"/>
       <c r="C826" s="6"/>
       <c r="D826" s="6"/>
@@ -12745,7 +13032,7 @@
       <c r="M826" s="6"/>
       <c r="N826" s="6"/>
     </row>
-    <row r="827" ht="12.75" customHeight="1">
+    <row r="827" spans="2:14" ht="12.75" customHeight="1">
       <c r="B827" s="3"/>
       <c r="C827" s="6"/>
       <c r="D827" s="6"/>
@@ -12760,7 +13047,7 @@
       <c r="M827" s="6"/>
       <c r="N827" s="6"/>
     </row>
-    <row r="828" ht="12.75" customHeight="1">
+    <row r="828" spans="2:14" ht="12.75" customHeight="1">
       <c r="B828" s="3"/>
       <c r="C828" s="6"/>
       <c r="D828" s="6"/>
@@ -12775,7 +13062,7 @@
       <c r="M828" s="6"/>
       <c r="N828" s="6"/>
     </row>
-    <row r="829" ht="12.75" customHeight="1">
+    <row r="829" spans="2:14" ht="12.75" customHeight="1">
       <c r="B829" s="3"/>
       <c r="C829" s="6"/>
       <c r="D829" s="6"/>
@@ -12790,7 +13077,7 @@
       <c r="M829" s="6"/>
       <c r="N829" s="6"/>
     </row>
-    <row r="830" ht="12.75" customHeight="1">
+    <row r="830" spans="2:14" ht="12.75" customHeight="1">
       <c r="B830" s="3"/>
       <c r="C830" s="6"/>
       <c r="D830" s="6"/>
@@ -12805,7 +13092,7 @@
       <c r="M830" s="6"/>
       <c r="N830" s="6"/>
     </row>
-    <row r="831" ht="12.75" customHeight="1">
+    <row r="831" spans="2:14" ht="12.75" customHeight="1">
       <c r="B831" s="3"/>
       <c r="C831" s="6"/>
       <c r="D831" s="6"/>
@@ -12820,7 +13107,7 @@
       <c r="M831" s="6"/>
       <c r="N831" s="6"/>
     </row>
-    <row r="832" ht="12.75" customHeight="1">
+    <row r="832" spans="2:14" ht="12.75" customHeight="1">
       <c r="B832" s="3"/>
       <c r="C832" s="6"/>
       <c r="D832" s="6"/>
@@ -12835,7 +13122,7 @@
       <c r="M832" s="6"/>
       <c r="N832" s="6"/>
     </row>
-    <row r="833" ht="12.75" customHeight="1">
+    <row r="833" spans="2:14" ht="12.75" customHeight="1">
       <c r="B833" s="3"/>
       <c r="C833" s="6"/>
       <c r="D833" s="6"/>
@@ -12850,7 +13137,7 @@
       <c r="M833" s="6"/>
       <c r="N833" s="6"/>
     </row>
-    <row r="834" ht="12.75" customHeight="1">
+    <row r="834" spans="2:14" ht="12.75" customHeight="1">
       <c r="B834" s="3"/>
       <c r="C834" s="6"/>
       <c r="D834" s="6"/>
@@ -12865,7 +13152,7 @@
       <c r="M834" s="6"/>
       <c r="N834" s="6"/>
     </row>
-    <row r="835" ht="12.75" customHeight="1">
+    <row r="835" spans="2:14" ht="12.75" customHeight="1">
       <c r="B835" s="3"/>
       <c r="C835" s="6"/>
       <c r="D835" s="6"/>
@@ -12880,7 +13167,7 @@
       <c r="M835" s="6"/>
       <c r="N835" s="6"/>
     </row>
-    <row r="836" ht="12.75" customHeight="1">
+    <row r="836" spans="2:14" ht="12.75" customHeight="1">
       <c r="B836" s="3"/>
       <c r="C836" s="6"/>
       <c r="D836" s="6"/>
@@ -12895,7 +13182,7 @@
       <c r="M836" s="6"/>
       <c r="N836" s="6"/>
     </row>
-    <row r="837" ht="12.75" customHeight="1">
+    <row r="837" spans="2:14" ht="12.75" customHeight="1">
       <c r="B837" s="3"/>
       <c r="C837" s="6"/>
       <c r="D837" s="6"/>
@@ -12910,7 +13197,7 @@
       <c r="M837" s="6"/>
       <c r="N837" s="6"/>
     </row>
-    <row r="838" ht="12.75" customHeight="1">
+    <row r="838" spans="2:14" ht="12.75" customHeight="1">
       <c r="B838" s="3"/>
       <c r="C838" s="6"/>
       <c r="D838" s="6"/>
@@ -12925,7 +13212,7 @@
       <c r="M838" s="6"/>
       <c r="N838" s="6"/>
     </row>
-    <row r="839" ht="12.75" customHeight="1">
+    <row r="839" spans="2:14" ht="12.75" customHeight="1">
       <c r="B839" s="3"/>
       <c r="C839" s="6"/>
       <c r="D839" s="6"/>
@@ -12940,7 +13227,7 @@
       <c r="M839" s="6"/>
       <c r="N839" s="6"/>
     </row>
-    <row r="840" ht="12.75" customHeight="1">
+    <row r="840" spans="2:14" ht="12.75" customHeight="1">
       <c r="B840" s="3"/>
       <c r="C840" s="6"/>
       <c r="D840" s="6"/>
@@ -12955,7 +13242,7 @@
       <c r="M840" s="6"/>
       <c r="N840" s="6"/>
     </row>
-    <row r="841" ht="12.75" customHeight="1">
+    <row r="841" spans="2:14" ht="12.75" customHeight="1">
       <c r="B841" s="3"/>
       <c r="C841" s="6"/>
       <c r="D841" s="6"/>
@@ -12970,7 +13257,7 @@
       <c r="M841" s="6"/>
       <c r="N841" s="6"/>
     </row>
-    <row r="842" ht="12.75" customHeight="1">
+    <row r="842" spans="2:14" ht="12.75" customHeight="1">
       <c r="B842" s="3"/>
       <c r="C842" s="6"/>
       <c r="D842" s="6"/>
@@ -12985,7 +13272,7 @@
       <c r="M842" s="6"/>
       <c r="N842" s="6"/>
     </row>
-    <row r="843" ht="12.75" customHeight="1">
+    <row r="843" spans="2:14" ht="12.75" customHeight="1">
       <c r="B843" s="3"/>
       <c r="C843" s="6"/>
       <c r="D843" s="6"/>
@@ -13000,7 +13287,7 @@
       <c r="M843" s="6"/>
       <c r="N843" s="6"/>
     </row>
-    <row r="844" ht="12.75" customHeight="1">
+    <row r="844" spans="2:14" ht="12.75" customHeight="1">
       <c r="B844" s="3"/>
       <c r="C844" s="6"/>
       <c r="D844" s="6"/>
@@ -13015,7 +13302,7 @@
       <c r="M844" s="6"/>
       <c r="N844" s="6"/>
     </row>
-    <row r="845" ht="12.75" customHeight="1">
+    <row r="845" spans="2:14" ht="12.75" customHeight="1">
       <c r="B845" s="3"/>
       <c r="C845" s="6"/>
       <c r="D845" s="6"/>
@@ -13030,7 +13317,7 @@
       <c r="M845" s="6"/>
       <c r="N845" s="6"/>
     </row>
-    <row r="846" ht="12.75" customHeight="1">
+    <row r="846" spans="2:14" ht="12.75" customHeight="1">
       <c r="B846" s="3"/>
       <c r="C846" s="6"/>
       <c r="D846" s="6"/>
@@ -13045,7 +13332,7 @@
       <c r="M846" s="6"/>
       <c r="N846" s="6"/>
     </row>
-    <row r="847" ht="12.75" customHeight="1">
+    <row r="847" spans="2:14" ht="12.75" customHeight="1">
       <c r="B847" s="3"/>
       <c r="C847" s="6"/>
       <c r="D847" s="6"/>
@@ -13060,7 +13347,7 @@
       <c r="M847" s="6"/>
       <c r="N847" s="6"/>
     </row>
-    <row r="848" ht="12.75" customHeight="1">
+    <row r="848" spans="2:14" ht="12.75" customHeight="1">
       <c r="B848" s="3"/>
       <c r="C848" s="6"/>
       <c r="D848" s="6"/>
@@ -13075,7 +13362,7 @@
       <c r="M848" s="6"/>
       <c r="N848" s="6"/>
     </row>
-    <row r="849" ht="12.75" customHeight="1">
+    <row r="849" spans="2:14" ht="12.75" customHeight="1">
       <c r="B849" s="3"/>
       <c r="C849" s="6"/>
       <c r="D849" s="6"/>
@@ -13090,7 +13377,7 @@
       <c r="M849" s="6"/>
       <c r="N849" s="6"/>
     </row>
-    <row r="850" ht="12.75" customHeight="1">
+    <row r="850" spans="2:14" ht="12.75" customHeight="1">
       <c r="B850" s="3"/>
       <c r="C850" s="6"/>
       <c r="D850" s="6"/>
@@ -13105,7 +13392,7 @@
       <c r="M850" s="6"/>
       <c r="N850" s="6"/>
     </row>
-    <row r="851" ht="12.75" customHeight="1">
+    <row r="851" spans="2:14" ht="12.75" customHeight="1">
       <c r="B851" s="3"/>
       <c r="C851" s="6"/>
       <c r="D851" s="6"/>
@@ -13120,7 +13407,7 @@
       <c r="M851" s="6"/>
       <c r="N851" s="6"/>
     </row>
-    <row r="852" ht="12.75" customHeight="1">
+    <row r="852" spans="2:14" ht="12.75" customHeight="1">
       <c r="B852" s="3"/>
       <c r="C852" s="6"/>
       <c r="D852" s="6"/>
@@ -13135,7 +13422,7 @@
       <c r="M852" s="6"/>
       <c r="N852" s="6"/>
     </row>
-    <row r="853" ht="12.75" customHeight="1">
+    <row r="853" spans="2:14" ht="12.75" customHeight="1">
       <c r="B853" s="3"/>
       <c r="C853" s="6"/>
       <c r="D853" s="6"/>
@@ -13150,7 +13437,7 @@
       <c r="M853" s="6"/>
       <c r="N853" s="6"/>
     </row>
-    <row r="854" ht="12.75" customHeight="1">
+    <row r="854" spans="2:14" ht="12.75" customHeight="1">
       <c r="B854" s="3"/>
       <c r="C854" s="6"/>
       <c r="D854" s="6"/>
@@ -13165,7 +13452,7 @@
       <c r="M854" s="6"/>
       <c r="N854" s="6"/>
     </row>
-    <row r="855" ht="12.75" customHeight="1">
+    <row r="855" spans="2:14" ht="12.75" customHeight="1">
       <c r="B855" s="3"/>
       <c r="C855" s="6"/>
       <c r="D855" s="6"/>
@@ -13180,7 +13467,7 @@
       <c r="M855" s="6"/>
       <c r="N855" s="6"/>
     </row>
-    <row r="856" ht="12.75" customHeight="1">
+    <row r="856" spans="2:14" ht="12.75" customHeight="1">
       <c r="B856" s="3"/>
       <c r="C856" s="6"/>
       <c r="D856" s="6"/>
@@ -13195,7 +13482,7 @@
       <c r="M856" s="6"/>
       <c r="N856" s="6"/>
     </row>
-    <row r="857" ht="12.75" customHeight="1">
+    <row r="857" spans="2:14" ht="12.75" customHeight="1">
       <c r="B857" s="3"/>
       <c r="C857" s="6"/>
       <c r="D857" s="6"/>
@@ -13210,7 +13497,7 @@
       <c r="M857" s="6"/>
       <c r="N857" s="6"/>
     </row>
-    <row r="858" ht="12.75" customHeight="1">
+    <row r="858" spans="2:14" ht="12.75" customHeight="1">
       <c r="B858" s="3"/>
       <c r="C858" s="6"/>
       <c r="D858" s="6"/>
@@ -13225,7 +13512,7 @@
       <c r="M858" s="6"/>
       <c r="N858" s="6"/>
     </row>
-    <row r="859" ht="12.75" customHeight="1">
+    <row r="859" spans="2:14" ht="12.75" customHeight="1">
       <c r="B859" s="3"/>
       <c r="C859" s="6"/>
       <c r="D859" s="6"/>
@@ -13240,7 +13527,7 @@
       <c r="M859" s="6"/>
       <c r="N859" s="6"/>
     </row>
-    <row r="860" ht="12.75" customHeight="1">
+    <row r="860" spans="2:14" ht="12.75" customHeight="1">
       <c r="B860" s="3"/>
       <c r="C860" s="6"/>
       <c r="D860" s="6"/>
@@ -13255,7 +13542,7 @@
       <c r="M860" s="6"/>
       <c r="N860" s="6"/>
     </row>
-    <row r="861" ht="12.75" customHeight="1">
+    <row r="861" spans="2:14" ht="12.75" customHeight="1">
       <c r="B861" s="3"/>
       <c r="C861" s="6"/>
       <c r="D861" s="6"/>
@@ -13270,7 +13557,7 @@
       <c r="M861" s="6"/>
       <c r="N861" s="6"/>
     </row>
-    <row r="862" ht="12.75" customHeight="1">
+    <row r="862" spans="2:14" ht="12.75" customHeight="1">
       <c r="B862" s="3"/>
       <c r="C862" s="6"/>
       <c r="D862" s="6"/>
@@ -13285,7 +13572,7 @@
       <c r="M862" s="6"/>
       <c r="N862" s="6"/>
     </row>
-    <row r="863" ht="12.75" customHeight="1">
+    <row r="863" spans="2:14" ht="12.75" customHeight="1">
       <c r="B863" s="3"/>
       <c r="C863" s="6"/>
       <c r="D863" s="6"/>
@@ -13300,7 +13587,7 @@
       <c r="M863" s="6"/>
       <c r="N863" s="6"/>
     </row>
-    <row r="864" ht="12.75" customHeight="1">
+    <row r="864" spans="2:14" ht="12.75" customHeight="1">
       <c r="B864" s="3"/>
       <c r="C864" s="6"/>
       <c r="D864" s="6"/>
@@ -13315,7 +13602,7 @@
       <c r="M864" s="6"/>
       <c r="N864" s="6"/>
     </row>
-    <row r="865" ht="12.75" customHeight="1">
+    <row r="865" spans="2:14" ht="12.75" customHeight="1">
       <c r="B865" s="3"/>
       <c r="C865" s="6"/>
       <c r="D865" s="6"/>
@@ -13330,7 +13617,7 @@
       <c r="M865" s="6"/>
       <c r="N865" s="6"/>
     </row>
-    <row r="866" ht="12.75" customHeight="1">
+    <row r="866" spans="2:14" ht="12.75" customHeight="1">
       <c r="B866" s="3"/>
       <c r="C866" s="6"/>
       <c r="D866" s="6"/>
@@ -13345,7 +13632,7 @@
       <c r="M866" s="6"/>
       <c r="N866" s="6"/>
     </row>
-    <row r="867" ht="12.75" customHeight="1">
+    <row r="867" spans="2:14" ht="12.75" customHeight="1">
       <c r="B867" s="3"/>
       <c r="C867" s="6"/>
       <c r="D867" s="6"/>
@@ -13360,7 +13647,7 @@
       <c r="M867" s="6"/>
       <c r="N867" s="6"/>
     </row>
-    <row r="868" ht="12.75" customHeight="1">
+    <row r="868" spans="2:14" ht="12.75" customHeight="1">
       <c r="B868" s="3"/>
       <c r="C868" s="6"/>
       <c r="D868" s="6"/>
@@ -13375,7 +13662,7 @@
       <c r="M868" s="6"/>
       <c r="N868" s="6"/>
     </row>
-    <row r="869" ht="12.75" customHeight="1">
+    <row r="869" spans="2:14" ht="12.75" customHeight="1">
       <c r="B869" s="3"/>
       <c r="C869" s="6"/>
       <c r="D869" s="6"/>
@@ -13390,7 +13677,7 @@
       <c r="M869" s="6"/>
       <c r="N869" s="6"/>
     </row>
-    <row r="870" ht="12.75" customHeight="1">
+    <row r="870" spans="2:14" ht="12.75" customHeight="1">
       <c r="B870" s="3"/>
       <c r="C870" s="6"/>
       <c r="D870" s="6"/>
@@ -13405,7 +13692,7 @@
       <c r="M870" s="6"/>
       <c r="N870" s="6"/>
     </row>
-    <row r="871" ht="12.75" customHeight="1">
+    <row r="871" spans="2:14" ht="12.75" customHeight="1">
       <c r="B871" s="3"/>
       <c r="C871" s="6"/>
       <c r="D871" s="6"/>
@@ -13420,7 +13707,7 @@
       <c r="M871" s="6"/>
       <c r="N871" s="6"/>
     </row>
-    <row r="872" ht="12.75" customHeight="1">
+    <row r="872" spans="2:14" ht="12.75" customHeight="1">
       <c r="B872" s="3"/>
       <c r="C872" s="6"/>
       <c r="D872" s="6"/>
@@ -13435,7 +13722,7 @@
       <c r="M872" s="6"/>
       <c r="N872" s="6"/>
     </row>
-    <row r="873" ht="12.75" customHeight="1">
+    <row r="873" spans="2:14" ht="12.75" customHeight="1">
       <c r="B873" s="3"/>
       <c r="C873" s="6"/>
       <c r="D873" s="6"/>
@@ -13450,7 +13737,7 @@
       <c r="M873" s="6"/>
       <c r="N873" s="6"/>
     </row>
-    <row r="874" ht="12.75" customHeight="1">
+    <row r="874" spans="2:14" ht="12.75" customHeight="1">
       <c r="B874" s="3"/>
       <c r="C874" s="6"/>
       <c r="D874" s="6"/>
@@ -13465,7 +13752,7 @@
       <c r="M874" s="6"/>
       <c r="N874" s="6"/>
     </row>
-    <row r="875" ht="12.75" customHeight="1">
+    <row r="875" spans="2:14" ht="12.75" customHeight="1">
       <c r="B875" s="3"/>
       <c r="C875" s="6"/>
       <c r="D875" s="6"/>
@@ -13480,7 +13767,7 @@
       <c r="M875" s="6"/>
       <c r="N875" s="6"/>
     </row>
-    <row r="876" ht="12.75" customHeight="1">
+    <row r="876" spans="2:14" ht="12.75" customHeight="1">
       <c r="B876" s="3"/>
       <c r="C876" s="6"/>
       <c r="D876" s="6"/>
@@ -13495,7 +13782,7 @@
       <c r="M876" s="6"/>
       <c r="N876" s="6"/>
     </row>
-    <row r="877" ht="12.75" customHeight="1">
+    <row r="877" spans="2:14" ht="12.75" customHeight="1">
       <c r="B877" s="3"/>
       <c r="C877" s="6"/>
       <c r="D877" s="6"/>
@@ -13510,7 +13797,7 @@
       <c r="M877" s="6"/>
       <c r="N877" s="6"/>
     </row>
-    <row r="878" ht="12.75" customHeight="1">
+    <row r="878" spans="2:14" ht="12.75" customHeight="1">
       <c r="B878" s="3"/>
       <c r="C878" s="6"/>
       <c r="D878" s="6"/>
@@ -13525,7 +13812,7 @@
       <c r="M878" s="6"/>
       <c r="N878" s="6"/>
     </row>
-    <row r="879" ht="12.75" customHeight="1">
+    <row r="879" spans="2:14" ht="12.75" customHeight="1">
       <c r="B879" s="3"/>
       <c r="C879" s="6"/>
       <c r="D879" s="6"/>
@@ -13540,7 +13827,7 @@
       <c r="M879" s="6"/>
       <c r="N879" s="6"/>
     </row>
-    <row r="880" ht="12.75" customHeight="1">
+    <row r="880" spans="2:14" ht="12.75" customHeight="1">
       <c r="B880" s="3"/>
       <c r="C880" s="6"/>
       <c r="D880" s="6"/>
@@ -13555,7 +13842,7 @@
       <c r="M880" s="6"/>
       <c r="N880" s="6"/>
     </row>
-    <row r="881" ht="12.75" customHeight="1">
+    <row r="881" spans="2:14" ht="12.75" customHeight="1">
       <c r="B881" s="3"/>
       <c r="C881" s="6"/>
       <c r="D881" s="6"/>
@@ -13570,7 +13857,7 @@
       <c r="M881" s="6"/>
       <c r="N881" s="6"/>
     </row>
-    <row r="882" ht="12.75" customHeight="1">
+    <row r="882" spans="2:14" ht="12.75" customHeight="1">
       <c r="B882" s="3"/>
       <c r="C882" s="6"/>
       <c r="D882" s="6"/>
@@ -13585,7 +13872,7 @@
       <c r="M882" s="6"/>
       <c r="N882" s="6"/>
     </row>
-    <row r="883" ht="12.75" customHeight="1">
+    <row r="883" spans="2:14" ht="12.75" customHeight="1">
       <c r="B883" s="3"/>
       <c r="C883" s="6"/>
       <c r="D883" s="6"/>
@@ -13600,7 +13887,7 @@
       <c r="M883" s="6"/>
       <c r="N883" s="6"/>
     </row>
-    <row r="884" ht="12.75" customHeight="1">
+    <row r="884" spans="2:14" ht="12.75" customHeight="1">
       <c r="B884" s="3"/>
       <c r="C884" s="6"/>
       <c r="D884" s="6"/>
@@ -13615,7 +13902,7 @@
       <c r="M884" s="6"/>
       <c r="N884" s="6"/>
     </row>
-    <row r="885" ht="12.75" customHeight="1">
+    <row r="885" spans="2:14" ht="12.75" customHeight="1">
       <c r="B885" s="3"/>
       <c r="C885" s="6"/>
       <c r="D885" s="6"/>
@@ -13630,7 +13917,7 @@
       <c r="M885" s="6"/>
       <c r="N885" s="6"/>
     </row>
-    <row r="886" ht="12.75" customHeight="1">
+    <row r="886" spans="2:14" ht="12.75" customHeight="1">
       <c r="B886" s="3"/>
       <c r="C886" s="6"/>
       <c r="D886" s="6"/>
@@ -13645,7 +13932,7 @@
       <c r="M886" s="6"/>
       <c r="N886" s="6"/>
     </row>
-    <row r="887" ht="12.75" customHeight="1">
+    <row r="887" spans="2:14" ht="12.75" customHeight="1">
       <c r="B887" s="3"/>
       <c r="C887" s="6"/>
       <c r="D887" s="6"/>
@@ -13660,7 +13947,7 @@
       <c r="M887" s="6"/>
       <c r="N887" s="6"/>
     </row>
-    <row r="888" ht="12.75" customHeight="1">
+    <row r="888" spans="2:14" ht="12.75" customHeight="1">
       <c r="B888" s="3"/>
       <c r="C888" s="6"/>
       <c r="D888" s="6"/>
@@ -13675,7 +13962,7 @@
       <c r="M888" s="6"/>
       <c r="N888" s="6"/>
     </row>
-    <row r="889" ht="12.75" customHeight="1">
+    <row r="889" spans="2:14" ht="12.75" customHeight="1">
       <c r="B889" s="3"/>
       <c r="C889" s="6"/>
       <c r="D889" s="6"/>
@@ -13690,7 +13977,7 @@
       <c r="M889" s="6"/>
       <c r="N889" s="6"/>
     </row>
-    <row r="890" ht="12.75" customHeight="1">
+    <row r="890" spans="2:14" ht="12.75" customHeight="1">
       <c r="B890" s="3"/>
       <c r="C890" s="6"/>
       <c r="D890" s="6"/>
@@ -13705,7 +13992,7 @@
       <c r="M890" s="6"/>
       <c r="N890" s="6"/>
     </row>
-    <row r="891" ht="12.75" customHeight="1">
+    <row r="891" spans="2:14" ht="12.75" customHeight="1">
       <c r="B891" s="3"/>
       <c r="C891" s="6"/>
       <c r="D891" s="6"/>
@@ -13720,7 +14007,7 @@
       <c r="M891" s="6"/>
       <c r="N891" s="6"/>
     </row>
-    <row r="892" ht="12.75" customHeight="1">
+    <row r="892" spans="2:14" ht="12.75" customHeight="1">
       <c r="B892" s="3"/>
       <c r="C892" s="6"/>
       <c r="D892" s="6"/>
@@ -13735,7 +14022,7 @@
       <c r="M892" s="6"/>
       <c r="N892" s="6"/>
     </row>
-    <row r="893" ht="12.75" customHeight="1">
+    <row r="893" spans="2:14" ht="12.75" customHeight="1">
       <c r="B893" s="3"/>
       <c r="C893" s="6"/>
       <c r="D893" s="6"/>
@@ -13750,7 +14037,7 @@
       <c r="M893" s="6"/>
       <c r="N893" s="6"/>
     </row>
-    <row r="894" ht="12.75" customHeight="1">
+    <row r="894" spans="2:14" ht="12.75" customHeight="1">
       <c r="B894" s="3"/>
       <c r="C894" s="6"/>
       <c r="D894" s="6"/>
@@ -13765,7 +14052,7 @@
       <c r="M894" s="6"/>
       <c r="N894" s="6"/>
     </row>
-    <row r="895" ht="12.75" customHeight="1">
+    <row r="895" spans="2:14" ht="12.75" customHeight="1">
       <c r="B895" s="3"/>
       <c r="C895" s="6"/>
       <c r="D895" s="6"/>
@@ -13780,7 +14067,7 @@
       <c r="M895" s="6"/>
       <c r="N895" s="6"/>
     </row>
-    <row r="896" ht="12.75" customHeight="1">
+    <row r="896" spans="2:14" ht="12.75" customHeight="1">
       <c r="B896" s="3"/>
       <c r="C896" s="6"/>
       <c r="D896" s="6"/>
@@ -13795,7 +14082,7 @@
       <c r="M896" s="6"/>
       <c r="N896" s="6"/>
     </row>
-    <row r="897" ht="12.75" customHeight="1">
+    <row r="897" spans="2:14" ht="12.75" customHeight="1">
       <c r="B897" s="3"/>
       <c r="C897" s="6"/>
       <c r="D897" s="6"/>
@@ -13810,7 +14097,7 @@
       <c r="M897" s="6"/>
       <c r="N897" s="6"/>
     </row>
-    <row r="898" ht="12.75" customHeight="1">
+    <row r="898" spans="2:14" ht="12.75" customHeight="1">
       <c r="B898" s="3"/>
       <c r="C898" s="6"/>
       <c r="D898" s="6"/>
@@ -13825,7 +14112,7 @@
       <c r="M898" s="6"/>
       <c r="N898" s="6"/>
     </row>
-    <row r="899" ht="12.75" customHeight="1">
+    <row r="899" spans="2:14" ht="12.75" customHeight="1">
       <c r="B899" s="3"/>
       <c r="C899" s="6"/>
       <c r="D899" s="6"/>
@@ -13840,7 +14127,7 @@
       <c r="M899" s="6"/>
       <c r="N899" s="6"/>
     </row>
-    <row r="900" ht="12.75" customHeight="1">
+    <row r="900" spans="2:14" ht="12.75" customHeight="1">
       <c r="B900" s="3"/>
       <c r="C900" s="6"/>
       <c r="D900" s="6"/>
@@ -13855,7 +14142,7 @@
       <c r="M900" s="6"/>
       <c r="N900" s="6"/>
     </row>
-    <row r="901" ht="12.75" customHeight="1">
+    <row r="901" spans="2:14" ht="12.75" customHeight="1">
       <c r="B901" s="3"/>
       <c r="C901" s="6"/>
       <c r="D901" s="6"/>
@@ -13870,7 +14157,7 @@
       <c r="M901" s="6"/>
       <c r="N901" s="6"/>
     </row>
-    <row r="902" ht="12.75" customHeight="1">
+    <row r="902" spans="2:14" ht="12.75" customHeight="1">
       <c r="B902" s="3"/>
       <c r="C902" s="6"/>
       <c r="D902" s="6"/>
@@ -13885,7 +14172,7 @@
       <c r="M902" s="6"/>
       <c r="N902" s="6"/>
     </row>
-    <row r="903" ht="12.75" customHeight="1">
+    <row r="903" spans="2:14" ht="12.75" customHeight="1">
       <c r="B903" s="3"/>
       <c r="C903" s="6"/>
       <c r="D903" s="6"/>
@@ -13900,7 +14187,7 @@
       <c r="M903" s="6"/>
       <c r="N903" s="6"/>
     </row>
-    <row r="904" ht="12.75" customHeight="1">
+    <row r="904" spans="2:14" ht="12.75" customHeight="1">
       <c r="B904" s="3"/>
       <c r="C904" s="6"/>
       <c r="D904" s="6"/>
@@ -13915,7 +14202,7 @@
       <c r="M904" s="6"/>
       <c r="N904" s="6"/>
     </row>
-    <row r="905" ht="12.75" customHeight="1">
+    <row r="905" spans="2:14" ht="12.75" customHeight="1">
       <c r="B905" s="3"/>
       <c r="C905" s="6"/>
       <c r="D905" s="6"/>
@@ -13930,7 +14217,7 @@
       <c r="M905" s="6"/>
       <c r="N905" s="6"/>
     </row>
-    <row r="906" ht="12.75" customHeight="1">
+    <row r="906" spans="2:14" ht="12.75" customHeight="1">
       <c r="B906" s="3"/>
       <c r="C906" s="6"/>
       <c r="D906" s="6"/>
@@ -13945,7 +14232,7 @@
       <c r="M906" s="6"/>
       <c r="N906" s="6"/>
     </row>
-    <row r="907" ht="12.75" customHeight="1">
+    <row r="907" spans="2:14" ht="12.75" customHeight="1">
       <c r="B907" s="3"/>
       <c r="C907" s="6"/>
       <c r="D907" s="6"/>
@@ -13960,7 +14247,7 @@
       <c r="M907" s="6"/>
       <c r="N907" s="6"/>
     </row>
-    <row r="908" ht="12.75" customHeight="1">
+    <row r="908" spans="2:14" ht="12.75" customHeight="1">
       <c r="B908" s="3"/>
       <c r="C908" s="6"/>
       <c r="D908" s="6"/>
@@ -13975,7 +14262,7 @@
       <c r="M908" s="6"/>
       <c r="N908" s="6"/>
     </row>
-    <row r="909" ht="12.75" customHeight="1">
+    <row r="909" spans="2:14" ht="12.75" customHeight="1">
       <c r="B909" s="3"/>
       <c r="C909" s="6"/>
       <c r="D909" s="6"/>
@@ -13990,7 +14277,7 @@
       <c r="M909" s="6"/>
       <c r="N909" s="6"/>
     </row>
-    <row r="910" ht="12.75" customHeight="1">
+    <row r="910" spans="2:14" ht="12.75" customHeight="1">
       <c r="B910" s="3"/>
       <c r="C910" s="6"/>
       <c r="D910" s="6"/>
@@ -14005,7 +14292,7 @@
       <c r="M910" s="6"/>
       <c r="N910" s="6"/>
     </row>
-    <row r="911" ht="12.75" customHeight="1">
+    <row r="911" spans="2:14" ht="12.75" customHeight="1">
       <c r="B911" s="3"/>
       <c r="C911" s="6"/>
       <c r="D911" s="6"/>
@@ -14020,7 +14307,7 @@
       <c r="M911" s="6"/>
       <c r="N911" s="6"/>
     </row>
-    <row r="912" ht="12.75" customHeight="1">
+    <row r="912" spans="2:14" ht="12.75" customHeight="1">
       <c r="B912" s="3"/>
       <c r="C912" s="6"/>
       <c r="D912" s="6"/>
@@ -14035,7 +14322,7 @@
       <c r="M912" s="6"/>
       <c r="N912" s="6"/>
     </row>
-    <row r="913" ht="12.75" customHeight="1">
+    <row r="913" spans="2:14" ht="12.75" customHeight="1">
       <c r="B913" s="3"/>
       <c r="C913" s="6"/>
       <c r="D913" s="6"/>
@@ -14050,7 +14337,7 @@
       <c r="M913" s="6"/>
       <c r="N913" s="6"/>
     </row>
-    <row r="914" ht="12.75" customHeight="1">
+    <row r="914" spans="2:14" ht="12.75" customHeight="1">
       <c r="B914" s="3"/>
       <c r="C914" s="6"/>
       <c r="D914" s="6"/>
@@ -14065,7 +14352,7 @@
       <c r="M914" s="6"/>
       <c r="N914" s="6"/>
     </row>
-    <row r="915" ht="12.75" customHeight="1">
+    <row r="915" spans="2:14" ht="12.75" customHeight="1">
       <c r="B915" s="3"/>
       <c r="C915" s="6"/>
       <c r="D915" s="6"/>
@@ -14080,7 +14367,7 @@
       <c r="M915" s="6"/>
       <c r="N915" s="6"/>
     </row>
-    <row r="916" ht="12.75" customHeight="1">
+    <row r="916" spans="2:14" ht="12.75" customHeight="1">
       <c r="B916" s="3"/>
       <c r="C916" s="6"/>
       <c r="D916" s="6"/>
@@ -14095,7 +14382,7 @@
       <c r="M916" s="6"/>
       <c r="N916" s="6"/>
     </row>
-    <row r="917" ht="12.75" customHeight="1">
+    <row r="917" spans="2:14" ht="12.75" customHeight="1">
       <c r="B917" s="3"/>
       <c r="C917" s="6"/>
       <c r="D917" s="6"/>
@@ -14110,7 +14397,7 @@
       <c r="M917" s="6"/>
       <c r="N917" s="6"/>
     </row>
-    <row r="918" ht="12.75" customHeight="1">
+    <row r="918" spans="2:14" ht="12.75" customHeight="1">
       <c r="B918" s="3"/>
       <c r="C918" s="6"/>
       <c r="D918" s="6"/>
@@ -14125,7 +14412,7 @@
       <c r="M918" s="6"/>
       <c r="N918" s="6"/>
     </row>
-    <row r="919" ht="12.75" customHeight="1">
+    <row r="919" spans="2:14" ht="12.75" customHeight="1">
       <c r="B919" s="3"/>
       <c r="C919" s="6"/>
       <c r="D919" s="6"/>
@@ -14140,7 +14427,7 @@
       <c r="M919" s="6"/>
       <c r="N919" s="6"/>
     </row>
-    <row r="920" ht="12.75" customHeight="1">
+    <row r="920" spans="2:14" ht="12.75" customHeight="1">
       <c r="B920" s="3"/>
       <c r="C920" s="6"/>
       <c r="D920" s="6"/>
@@ -14155,7 +14442,7 @@
       <c r="M920" s="6"/>
       <c r="N920" s="6"/>
     </row>
-    <row r="921" ht="12.75" customHeight="1">
+    <row r="921" spans="2:14" ht="12.75" customHeight="1">
       <c r="B921" s="3"/>
       <c r="C921" s="6"/>
       <c r="D921" s="6"/>
@@ -14170,7 +14457,7 @@
       <c r="M921" s="6"/>
       <c r="N921" s="6"/>
     </row>
-    <row r="922" ht="12.75" customHeight="1">
+    <row r="922" spans="2:14" ht="12.75" customHeight="1">
       <c r="B922" s="3"/>
       <c r="C922" s="6"/>
       <c r="D922" s="6"/>
@@ -14185,7 +14472,7 @@
       <c r="M922" s="6"/>
       <c r="N922" s="6"/>
     </row>
-    <row r="923" ht="12.75" customHeight="1">
+    <row r="923" spans="2:14" ht="12.75" customHeight="1">
       <c r="B923" s="3"/>
       <c r="C923" s="6"/>
       <c r="D923" s="6"/>
@@ -14200,7 +14487,7 @@
       <c r="M923" s="6"/>
       <c r="N923" s="6"/>
     </row>
-    <row r="924" ht="12.75" customHeight="1">
+    <row r="924" spans="2:14" ht="12.75" customHeight="1">
       <c r="B924" s="3"/>
       <c r="C924" s="6"/>
       <c r="D924" s="6"/>
@@ -14215,7 +14502,7 @@
       <c r="M924" s="6"/>
       <c r="N924" s="6"/>
     </row>
-    <row r="925" ht="12.75" customHeight="1">
+    <row r="925" spans="2:14" ht="12.75" customHeight="1">
       <c r="B925" s="3"/>
       <c r="C925" s="6"/>
       <c r="D925" s="6"/>
@@ -14230,7 +14517,7 @@
       <c r="M925" s="6"/>
       <c r="N925" s="6"/>
     </row>
-    <row r="926" ht="12.75" customHeight="1">
+    <row r="926" spans="2:14" ht="12.75" customHeight="1">
       <c r="B926" s="3"/>
       <c r="C926" s="6"/>
       <c r="D926" s="6"/>
@@ -14245,7 +14532,7 @@
       <c r="M926" s="6"/>
       <c r="N926" s="6"/>
     </row>
-    <row r="927" ht="12.75" customHeight="1">
+    <row r="927" spans="2:14" ht="12.75" customHeight="1">
       <c r="B927" s="3"/>
       <c r="C927" s="6"/>
       <c r="D927" s="6"/>
@@ -14260,7 +14547,7 @@
       <c r="M927" s="6"/>
       <c r="N927" s="6"/>
     </row>
-    <row r="928" ht="12.75" customHeight="1">
+    <row r="928" spans="2:14" ht="12.75" customHeight="1">
       <c r="B928" s="3"/>
       <c r="C928" s="6"/>
       <c r="D928" s="6"/>
@@ -14275,7 +14562,7 @@
       <c r="M928" s="6"/>
       <c r="N928" s="6"/>
     </row>
-    <row r="929" ht="12.75" customHeight="1">
+    <row r="929" spans="2:14" ht="12.75" customHeight="1">
       <c r="B929" s="3"/>
       <c r="C929" s="6"/>
       <c r="D929" s="6"/>
@@ -14290,7 +14577,7 @@
       <c r="M929" s="6"/>
       <c r="N929" s="6"/>
     </row>
-    <row r="930" ht="12.75" customHeight="1">
+    <row r="930" spans="2:14" ht="12.75" customHeight="1">
       <c r="B930" s="3"/>
       <c r="C930" s="6"/>
       <c r="D930" s="6"/>
@@ -14305,7 +14592,7 @@
       <c r="M930" s="6"/>
       <c r="N930" s="6"/>
     </row>
-    <row r="931" ht="12.75" customHeight="1">
+    <row r="931" spans="2:14" ht="12.75" customHeight="1">
       <c r="B931" s="3"/>
       <c r="C931" s="6"/>
       <c r="D931" s="6"/>
@@ -14320,7 +14607,7 @@
       <c r="M931" s="6"/>
       <c r="N931" s="6"/>
     </row>
-    <row r="932" ht="12.75" customHeight="1">
+    <row r="932" spans="2:14" ht="12.75" customHeight="1">
       <c r="B932" s="3"/>
       <c r="C932" s="6"/>
       <c r="D932" s="6"/>
@@ -14335,7 +14622,7 @@
       <c r="M932" s="6"/>
       <c r="N932" s="6"/>
     </row>
-    <row r="933" ht="12.75" customHeight="1">
+    <row r="933" spans="2:14" ht="12.75" customHeight="1">
       <c r="B933" s="3"/>
       <c r="C933" s="6"/>
       <c r="D933" s="6"/>
@@ -14350,7 +14637,7 @@
       <c r="M933" s="6"/>
       <c r="N933" s="6"/>
     </row>
-    <row r="934" ht="12.75" customHeight="1">
+    <row r="934" spans="2:14" ht="12.75" customHeight="1">
       <c r="B934" s="3"/>
       <c r="C934" s="6"/>
       <c r="D934" s="6"/>
@@ -14365,7 +14652,7 @@
       <c r="M934" s="6"/>
       <c r="N934" s="6"/>
     </row>
-    <row r="935" ht="12.75" customHeight="1">
+    <row r="935" spans="2:14" ht="12.75" customHeight="1">
       <c r="B935" s="3"/>
       <c r="C935" s="6"/>
       <c r="D935" s="6"/>
@@ -14380,7 +14667,7 @@
       <c r="M935" s="6"/>
       <c r="N935" s="6"/>
     </row>
-    <row r="936" ht="12.75" customHeight="1">
+    <row r="936" spans="2:14" ht="12.75" customHeight="1">
       <c r="B936" s="3"/>
       <c r="C936" s="6"/>
       <c r="D936" s="6"/>
@@ -14395,7 +14682,7 @@
       <c r="M936" s="6"/>
       <c r="N936" s="6"/>
     </row>
-    <row r="937" ht="12.75" customHeight="1">
+    <row r="937" spans="2:14" ht="12.75" customHeight="1">
       <c r="B937" s="3"/>
       <c r="C937" s="6"/>
       <c r="D937" s="6"/>
@@ -14410,7 +14697,7 @@
       <c r="M937" s="6"/>
       <c r="N937" s="6"/>
     </row>
-    <row r="938" ht="12.75" customHeight="1">
+    <row r="938" spans="2:14" ht="12.75" customHeight="1">
       <c r="B938" s="3"/>
       <c r="C938" s="6"/>
       <c r="D938" s="6"/>
@@ -14425,7 +14712,7 @@
       <c r="M938" s="6"/>
       <c r="N938" s="6"/>
     </row>
-    <row r="939" ht="12.75" customHeight="1">
+    <row r="939" spans="2:14" ht="12.75" customHeight="1">
       <c r="B939" s="3"/>
       <c r="C939" s="6"/>
       <c r="D939" s="6"/>
@@ -14440,7 +14727,7 @@
       <c r="M939" s="6"/>
       <c r="N939" s="6"/>
     </row>
-    <row r="940" ht="12.75" customHeight="1">
+    <row r="940" spans="2:14" ht="12.75" customHeight="1">
       <c r="B940" s="3"/>
       <c r="C940" s="6"/>
       <c r="D940" s="6"/>
@@ -14455,7 +14742,7 @@
       <c r="M940" s="6"/>
       <c r="N940" s="6"/>
     </row>
-    <row r="941" ht="12.75" customHeight="1">
+    <row r="941" spans="2:14" ht="12.75" customHeight="1">
       <c r="B941" s="3"/>
       <c r="C941" s="6"/>
       <c r="D941" s="6"/>
@@ -14470,7 +14757,7 @@
       <c r="M941" s="6"/>
       <c r="N941" s="6"/>
     </row>
-    <row r="942" ht="12.75" customHeight="1">
+    <row r="942" spans="2:14" ht="12.75" customHeight="1">
       <c r="B942" s="3"/>
       <c r="C942" s="6"/>
       <c r="D942" s="6"/>
@@ -14485,7 +14772,7 @@
       <c r="M942" s="6"/>
       <c r="N942" s="6"/>
     </row>
-    <row r="943" ht="12.75" customHeight="1">
+    <row r="943" spans="2:14" ht="12.75" customHeight="1">
       <c r="B943" s="3"/>
       <c r="C943" s="6"/>
       <c r="D943" s="6"/>
@@ -14500,7 +14787,7 @@
       <c r="M943" s="6"/>
       <c r="N943" s="6"/>
     </row>
-    <row r="944" ht="12.75" customHeight="1">
+    <row r="944" spans="2:14" ht="12.75" customHeight="1">
       <c r="B944" s="3"/>
       <c r="C944" s="6"/>
       <c r="D944" s="6"/>
@@ -14515,7 +14802,7 @@
       <c r="M944" s="6"/>
       <c r="N944" s="6"/>
     </row>
-    <row r="945" ht="12.75" customHeight="1">
+    <row r="945" spans="2:14" ht="12.75" customHeight="1">
       <c r="B945" s="3"/>
       <c r="C945" s="6"/>
       <c r="D945" s="6"/>
@@ -14530,7 +14817,7 @@
       <c r="M945" s="6"/>
       <c r="N945" s="6"/>
     </row>
-    <row r="946" ht="12.75" customHeight="1">
+    <row r="946" spans="2:14" ht="12.75" customHeight="1">
       <c r="B946" s="3"/>
       <c r="C946" s="6"/>
       <c r="D946" s="6"/>
@@ -14545,7 +14832,7 @@
       <c r="M946" s="6"/>
       <c r="N946" s="6"/>
     </row>
-    <row r="947" ht="12.75" customHeight="1">
+    <row r="947" spans="2:14" ht="12.75" customHeight="1">
       <c r="B947" s="3"/>
       <c r="C947" s="6"/>
       <c r="D947" s="6"/>
@@ -14560,7 +14847,7 @@
       <c r="M947" s="6"/>
       <c r="N947" s="6"/>
     </row>
-    <row r="948" ht="12.75" customHeight="1">
+    <row r="948" spans="2:14" ht="12.75" customHeight="1">
       <c r="B948" s="3"/>
       <c r="C948" s="6"/>
       <c r="D948" s="6"/>
@@ -14575,7 +14862,7 @@
       <c r="M948" s="6"/>
       <c r="N948" s="6"/>
     </row>
-    <row r="949" ht="12.75" customHeight="1">
+    <row r="949" spans="2:14" ht="12.75" customHeight="1">
       <c r="B949" s="3"/>
       <c r="C949" s="6"/>
       <c r="D949" s="6"/>
@@ -14590,7 +14877,7 @@
       <c r="M949" s="6"/>
       <c r="N949" s="6"/>
     </row>
-    <row r="950" ht="12.75" customHeight="1">
+    <row r="950" spans="2:14" ht="12.75" customHeight="1">
       <c r="B950" s="3"/>
       <c r="C950" s="6"/>
       <c r="D950" s="6"/>
@@ -14605,7 +14892,7 @@
       <c r="M950" s="6"/>
       <c r="N950" s="6"/>
     </row>
-    <row r="951" ht="12.75" customHeight="1">
+    <row r="951" spans="2:14" ht="12.75" customHeight="1">
       <c r="B951" s="3"/>
       <c r="C951" s="6"/>
       <c r="D951" s="6"/>
@@ -14620,7 +14907,7 @@
       <c r="M951" s="6"/>
       <c r="N951" s="6"/>
     </row>
-    <row r="952" ht="12.75" customHeight="1">
+    <row r="952" spans="2:14" ht="12.75" customHeight="1">
       <c r="B952" s="3"/>
       <c r="C952" s="6"/>
       <c r="D952" s="6"/>
@@ -14635,7 +14922,7 @@
       <c r="M952" s="6"/>
       <c r="N952" s="6"/>
     </row>
-    <row r="953" ht="12.75" customHeight="1">
+    <row r="953" spans="2:14" ht="12.75" customHeight="1">
       <c r="B953" s="3"/>
       <c r="C953" s="6"/>
       <c r="D953" s="6"/>
@@ -14650,7 +14937,7 @@
       <c r="M953" s="6"/>
       <c r="N953" s="6"/>
     </row>
-    <row r="954" ht="12.75" customHeight="1">
+    <row r="954" spans="2:14" ht="12.75" customHeight="1">
       <c r="B954" s="3"/>
       <c r="C954" s="6"/>
       <c r="D954" s="6"/>
@@ -14665,7 +14952,7 @@
       <c r="M954" s="6"/>
       <c r="N954" s="6"/>
     </row>
-    <row r="955" ht="12.75" customHeight="1">
+    <row r="955" spans="2:14" ht="12.75" customHeight="1">
       <c r="B955" s="3"/>
       <c r="C955" s="6"/>
       <c r="D955" s="6"/>
@@ -14680,7 +14967,7 @@
       <c r="M955" s="6"/>
       <c r="N955" s="6"/>
     </row>
-    <row r="956" ht="12.75" customHeight="1">
+    <row r="956" spans="2:14" ht="12.75" customHeight="1">
       <c r="B956" s="3"/>
       <c r="C956" s="6"/>
       <c r="D956" s="6"/>
@@ -14695,7 +14982,7 @@
       <c r="M956" s="6"/>
       <c r="N956" s="6"/>
     </row>
-    <row r="957" ht="12.75" customHeight="1">
+    <row r="957" spans="2:14" ht="12.75" customHeight="1">
       <c r="B957" s="3"/>
       <c r="C957" s="6"/>
       <c r="D957" s="6"/>
@@ -14710,7 +14997,7 @@
       <c r="M957" s="6"/>
       <c r="N957" s="6"/>
     </row>
-    <row r="958" ht="12.75" customHeight="1">
+    <row r="958" spans="2:14" ht="12.75" customHeight="1">
       <c r="B958" s="3"/>
       <c r="C958" s="6"/>
       <c r="D958" s="6"/>
@@ -14725,7 +15012,7 @@
       <c r="M958" s="6"/>
       <c r="N958" s="6"/>
     </row>
-    <row r="959" ht="12.75" customHeight="1">
+    <row r="959" spans="2:14" ht="12.75" customHeight="1">
       <c r="B959" s="3"/>
       <c r="C959" s="6"/>
       <c r="D959" s="6"/>
@@ -14740,7 +15027,7 @@
       <c r="M959" s="6"/>
       <c r="N959" s="6"/>
     </row>
-    <row r="960" ht="12.75" customHeight="1">
+    <row r="960" spans="2:14" ht="12.75" customHeight="1">
       <c r="B960" s="3"/>
       <c r="C960" s="6"/>
       <c r="D960" s="6"/>
@@ -14755,7 +15042,7 @@
       <c r="M960" s="6"/>
       <c r="N960" s="6"/>
     </row>
-    <row r="961" ht="12.75" customHeight="1">
+    <row r="961" spans="2:14" ht="12.75" customHeight="1">
       <c r="B961" s="3"/>
       <c r="C961" s="6"/>
       <c r="D961" s="6"/>
@@ -14770,7 +15057,7 @@
       <c r="M961" s="6"/>
       <c r="N961" s="6"/>
     </row>
-    <row r="962" ht="12.75" customHeight="1">
+    <row r="962" spans="2:14" ht="12.75" customHeight="1">
       <c r="B962" s="3"/>
       <c r="C962" s="6"/>
       <c r="D962" s="6"/>
@@ -14785,7 +15072,7 @@
       <c r="M962" s="6"/>
       <c r="N962" s="6"/>
     </row>
-    <row r="963" ht="12.75" customHeight="1">
+    <row r="963" spans="2:14" ht="12.75" customHeight="1">
       <c r="B963" s="3"/>
       <c r="C963" s="6"/>
       <c r="D963" s="6"/>
@@ -14800,7 +15087,7 @@
       <c r="M963" s="6"/>
       <c r="N963" s="6"/>
     </row>
-    <row r="964" ht="12.75" customHeight="1">
+    <row r="964" spans="2:14" ht="12.75" customHeight="1">
       <c r="B964" s="3"/>
       <c r="C964" s="6"/>
       <c r="D964" s="6"/>
@@ -14815,7 +15102,7 @@
       <c r="M964" s="6"/>
       <c r="N964" s="6"/>
     </row>
-    <row r="965" ht="12.75" customHeight="1">
+    <row r="965" spans="2:14" ht="12.75" customHeight="1">
       <c r="B965" s="3"/>
       <c r="C965" s="6"/>
       <c r="D965" s="6"/>
@@ -14830,7 +15117,7 @@
       <c r="M965" s="6"/>
       <c r="N965" s="6"/>
     </row>
-    <row r="966" ht="12.75" customHeight="1">
+    <row r="966" spans="2:14" ht="12.75" customHeight="1">
       <c r="B966" s="3"/>
       <c r="C966" s="6"/>
       <c r="D966" s="6"/>
@@ -14845,7 +15132,7 @@
       <c r="M966" s="6"/>
       <c r="N966" s="6"/>
     </row>
-    <row r="967" ht="12.75" customHeight="1">
+    <row r="967" spans="2:14" ht="12.75" customHeight="1">
       <c r="B967" s="3"/>
       <c r="C967" s="6"/>
       <c r="D967" s="6"/>
@@ -14860,7 +15147,7 @@
       <c r="M967" s="6"/>
       <c r="N967" s="6"/>
     </row>
-    <row r="968" ht="12.75" customHeight="1">
+    <row r="968" spans="2:14" ht="12.75" customHeight="1">
       <c r="B968" s="3"/>
       <c r="C968" s="6"/>
       <c r="D968" s="6"/>
@@ -14875,7 +15162,7 @@
       <c r="M968" s="6"/>
       <c r="N968" s="6"/>
     </row>
-    <row r="969" ht="12.75" customHeight="1">
+    <row r="969" spans="2:14" ht="12.75" customHeight="1">
       <c r="B969" s="3"/>
       <c r="C969" s="6"/>
       <c r="D969" s="6"/>
@@ -14890,7 +15177,7 @@
       <c r="M969" s="6"/>
       <c r="N969" s="6"/>
     </row>
-    <row r="970" ht="12.75" customHeight="1">
+    <row r="970" spans="2:14" ht="12.75" customHeight="1">
       <c r="B970" s="3"/>
       <c r="C970" s="6"/>
       <c r="D970" s="6"/>
@@ -14905,7 +15192,7 @@
       <c r="M970" s="6"/>
       <c r="N970" s="6"/>
     </row>
-    <row r="971" ht="12.75" customHeight="1">
+    <row r="971" spans="2:14" ht="12.75" customHeight="1">
       <c r="B971" s="3"/>
       <c r="C971" s="6"/>
       <c r="D971" s="6"/>
@@ -14920,7 +15207,7 @@
       <c r="M971" s="6"/>
       <c r="N971" s="6"/>
     </row>
-    <row r="972" ht="12.75" customHeight="1">
+    <row r="972" spans="2:14" ht="12.75" customHeight="1">
       <c r="B972" s="3"/>
       <c r="C972" s="6"/>
       <c r="D972" s="6"/>
@@ -14935,7 +15222,7 @@
       <c r="M972" s="6"/>
       <c r="N972" s="6"/>
     </row>
-    <row r="973" ht="12.75" customHeight="1">
+    <row r="973" spans="2:14" ht="12.75" customHeight="1">
       <c r="B973" s="3"/>
       <c r="C973" s="6"/>
       <c r="D973" s="6"/>
@@ -14950,7 +15237,7 @@
       <c r="M973" s="6"/>
       <c r="N973" s="6"/>
     </row>
-    <row r="974" ht="12.75" customHeight="1">
+    <row r="974" spans="2:14" ht="12.75" customHeight="1">
       <c r="B974" s="3"/>
       <c r="C974" s="6"/>
       <c r="D974" s="6"/>
@@ -14965,7 +15252,7 @@
       <c r="M974" s="6"/>
       <c r="N974" s="6"/>
     </row>
-    <row r="975" ht="12.75" customHeight="1">
+    <row r="975" spans="2:14" ht="12.75" customHeight="1">
       <c r="B975" s="3"/>
       <c r="C975" s="6"/>
       <c r="D975" s="6"/>
@@ -14980,7 +15267,7 @@
       <c r="M975" s="6"/>
       <c r="N975" s="6"/>
     </row>
-    <row r="976" ht="12.75" customHeight="1">
+    <row r="976" spans="2:14" ht="12.75" customHeight="1">
       <c r="B976" s="3"/>
       <c r="C976" s="6"/>
       <c r="D976" s="6"/>
@@ -14995,7 +15282,7 @@
       <c r="M976" s="6"/>
       <c r="N976" s="6"/>
     </row>
-    <row r="977" ht="12.75" customHeight="1">
+    <row r="977" spans="2:14" ht="12.75" customHeight="1">
       <c r="B977" s="3"/>
       <c r="C977" s="6"/>
       <c r="D977" s="6"/>
@@ -15010,7 +15297,7 @@
       <c r="M977" s="6"/>
       <c r="N977" s="6"/>
     </row>
-    <row r="978" ht="12.75" customHeight="1">
+    <row r="978" spans="2:14" ht="12.75" customHeight="1">
       <c r="B978" s="3"/>
       <c r="C978" s="6"/>
       <c r="D978" s="6"/>
@@ -15025,7 +15312,7 @@
       <c r="M978" s="6"/>
       <c r="N978" s="6"/>
     </row>
-    <row r="979" ht="12.75" customHeight="1">
+    <row r="979" spans="2:14" ht="12.75" customHeight="1">
       <c r="B979" s="3"/>
       <c r="C979" s="6"/>
       <c r="D979" s="6"/>
@@ -15040,7 +15327,7 @@
       <c r="M979" s="6"/>
       <c r="N979" s="6"/>
     </row>
-    <row r="980" ht="12.75" customHeight="1">
+    <row r="980" spans="2:14" ht="12.75" customHeight="1">
       <c r="B980" s="3"/>
       <c r="C980" s="6"/>
       <c r="D980" s="6"/>
@@ -15055,7 +15342,7 @@
       <c r="M980" s="6"/>
       <c r="N980" s="6"/>
     </row>
-    <row r="981" ht="12.75" customHeight="1">
+    <row r="981" spans="2:14" ht="12.75" customHeight="1">
       <c r="B981" s="3"/>
       <c r="C981" s="6"/>
       <c r="D981" s="6"/>
@@ -15070,7 +15357,7 @@
       <c r="M981" s="6"/>
       <c r="N981" s="6"/>
     </row>
-    <row r="982" ht="12.75" customHeight="1">
+    <row r="982" spans="2:14" ht="12.75" customHeight="1">
       <c r="B982" s="3"/>
       <c r="C982" s="6"/>
       <c r="D982" s="6"/>
@@ -15085,7 +15372,7 @@
       <c r="M982" s="6"/>
       <c r="N982" s="6"/>
     </row>
-    <row r="983" ht="12.75" customHeight="1">
+    <row r="983" spans="2:14" ht="12.75" customHeight="1">
       <c r="B983" s="3"/>
       <c r="C983" s="6"/>
       <c r="D983" s="6"/>
@@ -15100,7 +15387,7 @@
       <c r="M983" s="6"/>
       <c r="N983" s="6"/>
     </row>
-    <row r="984" ht="12.75" customHeight="1">
+    <row r="984" spans="2:14" ht="12.75" customHeight="1">
       <c r="B984" s="3"/>
       <c r="C984" s="6"/>
       <c r="D984" s="6"/>
@@ -15115,7 +15402,7 @@
       <c r="M984" s="6"/>
       <c r="N984" s="6"/>
     </row>
-    <row r="985" ht="12.75" customHeight="1">
+    <row r="985" spans="2:14" ht="12.75" customHeight="1">
       <c r="B985" s="3"/>
       <c r="C985" s="6"/>
       <c r="D985" s="6"/>
@@ -15130,7 +15417,7 @@
       <c r="M985" s="6"/>
       <c r="N985" s="6"/>
     </row>
-    <row r="986" ht="12.75" customHeight="1">
+    <row r="986" spans="2:14" ht="12.75" customHeight="1">
       <c r="B986" s="3"/>
       <c r="C986" s="6"/>
       <c r="D986" s="6"/>
@@ -15145,7 +15432,7 @@
       <c r="M986" s="6"/>
       <c r="N986" s="6"/>
     </row>
-    <row r="987" ht="12.75" customHeight="1">
+    <row r="987" spans="2:14" ht="12.75" customHeight="1">
       <c r="B987" s="3"/>
       <c r="C987" s="6"/>
       <c r="D987" s="6"/>
@@ -15160,7 +15447,7 @@
       <c r="M987" s="6"/>
       <c r="N987" s="6"/>
     </row>
-    <row r="988" ht="12.75" customHeight="1">
+    <row r="988" spans="2:14" ht="12.75" customHeight="1">
       <c r="B988" s="3"/>
       <c r="C988" s="6"/>
       <c r="D988" s="6"/>
@@ -15175,7 +15462,7 @@
       <c r="M988" s="6"/>
       <c r="N988" s="6"/>
     </row>
-    <row r="989" ht="12.75" customHeight="1">
+    <row r="989" spans="2:14" ht="12.75" customHeight="1">
       <c r="B989" s="3"/>
       <c r="C989" s="6"/>
       <c r="D989" s="6"/>
@@ -15190,7 +15477,7 @@
       <c r="M989" s="6"/>
       <c r="N989" s="6"/>
     </row>
-    <row r="990" ht="12.75" customHeight="1">
+    <row r="990" spans="2:14" ht="12.75" customHeight="1">
       <c r="B990" s="3"/>
       <c r="C990" s="6"/>
       <c r="D990" s="6"/>
@@ -15205,7 +15492,7 @@
       <c r="M990" s="6"/>
       <c r="N990" s="6"/>
     </row>
-    <row r="991" ht="12.75" customHeight="1">
+    <row r="991" spans="2:14" ht="12.75" customHeight="1">
       <c r="B991" s="3"/>
       <c r="C991" s="6"/>
       <c r="D991" s="6"/>
@@ -15220,7 +15507,7 @@
       <c r="M991" s="6"/>
       <c r="N991" s="6"/>
     </row>
-    <row r="992" ht="12.75" customHeight="1">
+    <row r="992" spans="2:14" ht="12.75" customHeight="1">
       <c r="B992" s="3"/>
       <c r="C992" s="6"/>
       <c r="D992" s="6"/>
@@ -15235,7 +15522,7 @@
       <c r="M992" s="6"/>
       <c r="N992" s="6"/>
     </row>
-    <row r="993" ht="12.75" customHeight="1">
+    <row r="993" spans="2:14" ht="12.75" customHeight="1">
       <c r="B993" s="3"/>
       <c r="C993" s="6"/>
       <c r="D993" s="6"/>
@@ -15250,7 +15537,7 @@
       <c r="M993" s="6"/>
       <c r="N993" s="6"/>
     </row>
-    <row r="994" ht="12.75" customHeight="1">
+    <row r="994" spans="2:14" ht="12.75" customHeight="1">
       <c r="B994" s="3"/>
       <c r="C994" s="6"/>
       <c r="D994" s="6"/>
@@ -15265,7 +15552,7 @@
       <c r="M994" s="6"/>
       <c r="N994" s="6"/>
     </row>
-    <row r="995" ht="12.75" customHeight="1">
+    <row r="995" spans="2:14" ht="12.75" customHeight="1">
       <c r="B995" s="3"/>
       <c r="C995" s="6"/>
       <c r="D995" s="6"/>
@@ -15280,7 +15567,7 @@
       <c r="M995" s="6"/>
       <c r="N995" s="6"/>
     </row>
-    <row r="996" ht="12.75" customHeight="1">
+    <row r="996" spans="2:14" ht="12.75" customHeight="1">
       <c r="B996" s="3"/>
       <c r="C996" s="6"/>
       <c r="D996" s="6"/>
@@ -15295,7 +15582,7 @@
       <c r="M996" s="6"/>
       <c r="N996" s="6"/>
     </row>
-    <row r="997" ht="12.75" customHeight="1">
+    <row r="997" spans="2:14" ht="12.75" customHeight="1">
       <c r="B997" s="3"/>
       <c r="C997" s="6"/>
       <c r="D997" s="6"/>
@@ -15310,7 +15597,7 @@
       <c r="M997" s="6"/>
       <c r="N997" s="6"/>
     </row>
-    <row r="998" ht="12.75" customHeight="1">
+    <row r="998" spans="2:14" ht="12.75" customHeight="1">
       <c r="B998" s="3"/>
       <c r="C998" s="6"/>
       <c r="D998" s="6"/>
@@ -15325,7 +15612,7 @@
       <c r="M998" s="6"/>
       <c r="N998" s="6"/>
     </row>
-    <row r="999" ht="12.75" customHeight="1">
+    <row r="999" spans="2:14" ht="12.75" customHeight="1">
       <c r="B999" s="3"/>
       <c r="C999" s="6"/>
       <c r="D999" s="6"/>
@@ -15340,7 +15627,7 @@
       <c r="M999" s="6"/>
       <c r="N999" s="6"/>
     </row>
-    <row r="1000" ht="12.75" customHeight="1">
+    <row r="1000" spans="2:14" ht="12.75" customHeight="1">
       <c r="B1000" s="3"/>
       <c r="C1000" s="6"/>
       <c r="D1000" s="6"/>
@@ -15356,11 +15643,16 @@
       <c r="N1000" s="6"/>
     </row>
   </sheetData>
-  <dataValidations>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D74:G1000">
       <formula1>"IN 20,IN 40,OFF 40,OFF 20"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>